--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_7_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_7_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2248824.334713718</v>
+        <v>2244442.422297552</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9964927.03528795</v>
+        <v>9964927.035287932</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>430763.7823717201</v>
+        <v>430763.7823717227</v>
       </c>
     </row>
     <row r="9">
@@ -667,19 +667,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>305.5398557403403</v>
+        <v>343.3472214204585</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,22 +712,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -825,22 +825,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>43.31785343913925</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -882,10 +882,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>28.11374845278253</v>
       </c>
     </row>
     <row r="5">
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>22.31986891989336</v>
       </c>
       <c r="G5" t="n">
-        <v>122.3450725906909</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -955,13 +955,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,13 +1098,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1116,10 +1116,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>192.3683168767174</v>
       </c>
       <c r="X7" t="n">
-        <v>203.1609600883621</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>16.37075387961426</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>20.06784918479925</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,19 +1180,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1299,7 +1299,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1308,13 +1308,13 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1353,13 +1353,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>139.1296354848076</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>223.8275496396399</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1378,7 +1378,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722607</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>84.61259060081949</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T11" t="n">
-        <v>199.1970568374741</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U11" t="n">
         <v>250.9088959876463</v>
@@ -1466,7 +1466,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H12" t="n">
-        <v>84.02406320561452</v>
+        <v>84.02406320561455</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1533,7 +1533,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1542,7 +1542,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>5.313812950988531</v>
       </c>
       <c r="S13" t="n">
-        <v>159.0177737506617</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T13" t="n">
         <v>217.4819944627618</v>
@@ -1590,7 +1590,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>84.61259060081949</v>
+        <v>84.61259060081882</v>
       </c>
       <c r="T14" t="n">
-        <v>199.1970568374741</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9088959876452</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1703,7 +1703,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H15" t="n">
-        <v>84.02406320561452</v>
+        <v>84.02406320561455</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1767,22 +1767,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>45.72156936731354</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5420528771669</v>
       </c>
       <c r="H16" t="n">
-        <v>140.4539897919539</v>
+        <v>64.44601915223836</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T16" t="n">
         <v>217.4819944627618</v>
@@ -1855,10 +1855,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417096</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8432760127576</v>
+        <v>409.8432760127578</v>
       </c>
       <c r="H17" t="n">
         <v>283.5630920045443</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>84.61259060081949</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T17" t="n">
-        <v>199.1970568374741</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U17" t="n">
         <v>250.9088959876463</v>
@@ -1940,7 +1940,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H18" t="n">
-        <v>84.02406320561452</v>
+        <v>84.02406320561455</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2007,10 +2007,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2019,7 +2019,7 @@
         <v>165.5420528771669</v>
       </c>
       <c r="H19" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>67.18075159108344</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.3384883584589</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T19" t="n">
         <v>217.4819944627618</v>
@@ -2061,16 +2061,16 @@
         <v>286.1854515484204</v>
       </c>
       <c r="V19" t="n">
-        <v>248.2803633896409</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>208.7209531141469</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2092,7 +2092,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417105</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>409.8432760127576</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>84.61259060081949</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T20" t="n">
-        <v>199.1970568374741</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U20" t="n">
         <v>250.9088959876463</v>
@@ -2177,7 +2177,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H21" t="n">
-        <v>84.02406320561452</v>
+        <v>84.02406320561455</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2244,22 +2244,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5420528771669</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>64.44601915223836</v>
       </c>
       <c r="I22" t="n">
-        <v>81.80457674440895</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>67.18075159108344</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S22" t="n">
-        <v>181.3384883584589</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U22" t="n">
         <v>286.1854515484204</v>
@@ -2301,7 +2301,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>192.6099141660413</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2368,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>84.61259060081949</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T23" t="n">
-        <v>199.1970568374741</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U23" t="n">
         <v>250.9088959876463</v>
@@ -2414,7 +2414,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H24" t="n">
-        <v>84.02406320561452</v>
+        <v>84.02406320561455</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>136.5470248824683</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2484,16 +2484,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>81.37259901119612</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>67.18075159108344</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S25" t="n">
-        <v>181.3384883584589</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>217.4819944627618</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>84.61259060081949</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T26" t="n">
-        <v>199.1970568374741</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9088959876463</v>
+        <v>250.9088959876461</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2651,7 +2651,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H27" t="n">
-        <v>84.02406320561452</v>
+        <v>84.02406320561455</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>34.56117515190868</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5420528771669</v>
       </c>
       <c r="H28" t="n">
-        <v>140.4539897919539</v>
+        <v>64.44601915223835</v>
       </c>
       <c r="I28" t="n">
-        <v>81.80457674440895</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S28" t="n">
-        <v>181.3384883584589</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T28" t="n">
         <v>217.4819944627618</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>84.61259060081949</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T29" t="n">
-        <v>199.1970568374741</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U29" t="n">
         <v>250.9088959876463</v>
@@ -2888,7 +2888,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H30" t="n">
-        <v>84.02406320561452</v>
+        <v>84.02406320561455</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2958,19 +2958,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>3.132302579345401</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>84.82368786386998</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.80457674440895</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>67.18075159108344</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.3384883584589</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T31" t="n">
         <v>217.4819944627618</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>84.61259060081949</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T32" t="n">
-        <v>199.1970568374741</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U32" t="n">
         <v>250.9088959876463</v>
@@ -3125,7 +3125,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H33" t="n">
-        <v>84.02406320561452</v>
+        <v>84.02406320561455</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3186,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>105.3798824585327</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -3204,10 +3204,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>68.88348013768245</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.80457674440895</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>67.18075159108344</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T34" t="n">
         <v>217.4819944627618</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>84.61259060081949</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T35" t="n">
-        <v>199.1970568374741</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U35" t="n">
         <v>250.9088959876463</v>
@@ -3362,7 +3362,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H36" t="n">
-        <v>84.02406320561452</v>
+        <v>84.02406320561455</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>117.9650415418421</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>34.67080802361569</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.80457674440895</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>67.18075159108344</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S37" t="n">
-        <v>181.3384883584589</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T37" t="n">
         <v>217.4819944627618</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>84.61259060081882</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T38" t="n">
-        <v>199.1970568374741</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U38" t="n">
         <v>250.9088959876463</v>
@@ -3599,7 +3599,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H39" t="n">
-        <v>84.02406320561452</v>
+        <v>84.02406320561455</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3660,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>68.93028422951086</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -3675,13 +3675,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>59.75887110882877</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.80457674440895</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>67.18075159108344</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.3384883584589</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T40" t="n">
         <v>217.4819944627618</v>
@@ -3790,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>84.61259060081949</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T41" t="n">
-        <v>199.1970568374741</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U41" t="n">
         <v>250.9088959876463</v>
@@ -3836,7 +3836,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H42" t="n">
-        <v>84.02406320561452</v>
+        <v>84.02406320561455</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3903,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>81.37259901119562</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>67.18075159108344</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.3384883584589</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T43" t="n">
         <v>217.4819944627618</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1854515484204</v>
+        <v>195.5536557553796</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3994,7 +3994,7 @@
         <v>409.8432760127576</v>
       </c>
       <c r="H44" t="n">
-        <v>283.563092004544</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,10 +4027,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>84.61259060081893</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T44" t="n">
-        <v>199.197056837474</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U44" t="n">
         <v>250.9088959876463</v>
@@ -4073,7 +4073,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H45" t="n">
-        <v>84.0240632056144</v>
+        <v>84.02406320561455</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4106,10 +4106,10 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>117.4255876952159</v>
+        <v>117.4255876952162</v>
       </c>
       <c r="T45" t="n">
-        <v>188.3907690366106</v>
+        <v>188.3907690366107</v>
       </c>
       <c r="U45" t="n">
         <v>225.7492064608734</v>
@@ -4143,16 +4143,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>81.37259901119292</v>
       </c>
       <c r="H46" t="n">
-        <v>140.4539897919538</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>67.18075159108294</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S46" t="n">
-        <v>181.3384883584587</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4819944627617</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U46" t="n">
-        <v>80.67009812110493</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1623.178216428726</v>
+        <v>1893.689751284805</v>
       </c>
       <c r="C2" t="n">
-        <v>1254.215699488314</v>
+        <v>1524.727234344394</v>
       </c>
       <c r="D2" t="n">
-        <v>1254.215699488314</v>
+        <v>1524.727234344394</v>
       </c>
       <c r="E2" t="n">
-        <v>1254.215699488314</v>
+        <v>1138.938981746149</v>
       </c>
       <c r="F2" t="n">
-        <v>843.2297946987067</v>
+        <v>727.953076956542</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J2" t="n">
         <v>169.7108380533141</v>
@@ -4360,22 +4360,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U2" t="n">
-        <v>2697.149091018222</v>
+        <v>2224.752638628376</v>
       </c>
       <c r="V2" t="n">
-        <v>2366.086203674652</v>
+        <v>1893.689751284805</v>
       </c>
       <c r="W2" t="n">
-        <v>2013.317548404538</v>
+        <v>1893.689751284805</v>
       </c>
       <c r="X2" t="n">
-        <v>2013.317548404538</v>
+        <v>1893.689751284805</v>
       </c>
       <c r="Y2" t="n">
-        <v>1623.178216428726</v>
+        <v>1893.689751284805</v>
       </c>
     </row>
     <row r="3">
@@ -4385,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170821</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359551</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747037</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692481</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961333</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102423999</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4436,16 +4436,16 @@
         <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073962</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196741</v>
       </c>
       <c r="U3" t="n">
-        <v>2061.714576167582</v>
+        <v>2061.714576167581</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.562467935838</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207637</v>
@@ -4454,7 +4454,7 @@
         <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.71331223715</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2066.718496146435</v>
+        <v>699.7312584965529</v>
       </c>
       <c r="C4" t="n">
-        <v>2066.718496146435</v>
+        <v>699.7312584965529</v>
       </c>
       <c r="D4" t="n">
-        <v>2066.718496146435</v>
+        <v>699.7312584965529</v>
       </c>
       <c r="E4" t="n">
-        <v>2066.718496146435</v>
+        <v>551.8181649141598</v>
       </c>
       <c r="F4" t="n">
-        <v>2066.718496146435</v>
+        <v>404.9282174162494</v>
       </c>
       <c r="G4" t="n">
-        <v>2066.718496146435</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="H4" t="n">
-        <v>2066.718496146435</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="I4" t="n">
-        <v>2066.718496146435</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="J4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K4" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>2469.159540120205</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>2248.366960976675</v>
+        <v>699.7312584965529</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1315.737983561872</v>
+        <v>1391.972039273389</v>
       </c>
       <c r="C5" t="n">
-        <v>946.7754666214607</v>
+        <v>1391.972039273389</v>
       </c>
       <c r="D5" t="n">
-        <v>588.5097680147103</v>
+        <v>1033.706340666639</v>
       </c>
       <c r="E5" t="n">
-        <v>588.5097680147103</v>
+        <v>647.9180880683944</v>
       </c>
       <c r="F5" t="n">
-        <v>177.5238632251027</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4573,7 +4573,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4603,16 +4603,16 @@
         <v>2465.942913862886</v>
       </c>
       <c r="V5" t="n">
-        <v>2465.942913862886</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="W5" t="n">
-        <v>2465.942913862886</v>
+        <v>1782.111371249201</v>
       </c>
       <c r="X5" t="n">
-        <v>2092.477155601806</v>
+        <v>1782.111371249201</v>
       </c>
       <c r="Y5" t="n">
-        <v>1702.337823625994</v>
+        <v>1391.972039273389</v>
       </c>
     </row>
     <row r="6">
@@ -4655,7 +4655,7 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>249.7161456655658</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>249.7161456655658</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>513.8405610245969</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T7" t="n">
-        <v>513.8405610245969</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U7" t="n">
-        <v>513.8405610245969</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V7" t="n">
-        <v>259.1560728187101</v>
+        <v>444.0275768541693</v>
       </c>
       <c r="W7" t="n">
-        <v>259.1560728187101</v>
+        <v>249.7161456655658</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036445</v>
+        <v>249.7161456655658</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>249.7161456655658</v>
       </c>
     </row>
     <row r="8">
@@ -4780,31 +4780,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>976.0491016702019</v>
+        <v>1194.175505447095</v>
       </c>
       <c r="C8" t="n">
-        <v>976.0491016702019</v>
+        <v>825.2129885066831</v>
       </c>
       <c r="D8" t="n">
-        <v>976.0491016702019</v>
+        <v>466.9472898999326</v>
       </c>
       <c r="E8" t="n">
-        <v>959.5129866402885</v>
+        <v>81.15903730168839</v>
       </c>
       <c r="F8" t="n">
-        <v>548.527081850681</v>
+        <v>74.21353655248491</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733126</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2423.485734520778</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2423.485734520778</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>2092.422847177208</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W8" t="n">
-        <v>1739.654191907093</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X8" t="n">
-        <v>1366.188433646014</v>
+        <v>1970.914677487028</v>
       </c>
       <c r="Y8" t="n">
-        <v>976.0491016702019</v>
+        <v>1580.775345511217</v>
       </c>
     </row>
     <row r="9">
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>359.6044479702274</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="C10" t="n">
-        <v>359.6044479702274</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="D10" t="n">
-        <v>359.6044479702274</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="E10" t="n">
-        <v>211.6913543878343</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="F10" t="n">
-        <v>211.6913543878343</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G10" t="n">
-        <v>211.6913543878343</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -5001,13 +5001,13 @@
         <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>587.5939988682447</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>359.6044479702274</v>
+        <v>502.0405502269999</v>
       </c>
       <c r="Y10" t="n">
-        <v>359.6044479702274</v>
+        <v>281.2479710834698</v>
       </c>
     </row>
     <row r="11">
@@ -5023,46 +5023,46 @@
         <v>1949.298676890958</v>
       </c>
       <c r="D11" t="n">
-        <v>1591.032978284208</v>
+        <v>1591.032978284207</v>
       </c>
       <c r="E11" t="n">
         <v>1205.244725685964</v>
       </c>
       <c r="F11" t="n">
-        <v>794.2588208963562</v>
+        <v>794.2588208963565</v>
       </c>
       <c r="G11" t="n">
-        <v>380.2757138127627</v>
+        <v>380.2757138127629</v>
       </c>
       <c r="H11" t="n">
-        <v>93.84834815160677</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I11" t="n">
         <v>93.84834815160703</v>
       </c>
       <c r="J11" t="n">
-        <v>424.1437450015126</v>
+        <v>373.34422365072</v>
       </c>
       <c r="K11" t="n">
-        <v>893.7741287891952</v>
+        <v>842.974607438402</v>
       </c>
       <c r="L11" t="n">
-        <v>1513.293909294971</v>
+        <v>1462.494387944177</v>
       </c>
       <c r="M11" t="n">
-        <v>2234.298471234009</v>
+        <v>2183.498949883215</v>
       </c>
       <c r="N11" t="n">
-        <v>2971.583449151116</v>
+        <v>2920.783927800321</v>
       </c>
       <c r="O11" t="n">
-        <v>3654.445485610256</v>
+        <v>3603.64596425946</v>
       </c>
       <c r="P11" t="n">
-        <v>4202.751434297605</v>
+        <v>4151.951912946808</v>
       </c>
       <c r="Q11" t="n">
-        <v>4566.333620403612</v>
+        <v>4515.534099052815</v>
       </c>
       <c r="R11" t="n">
         <v>4692.417407580351</v>
@@ -5120,25 +5120,25 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J12" t="n">
-        <v>241.4963299034533</v>
+        <v>241.496329903453</v>
       </c>
       <c r="K12" t="n">
-        <v>572.0050724668126</v>
+        <v>572.0050724668117</v>
       </c>
       <c r="L12" t="n">
-        <v>1062.737405310565</v>
+        <v>1062.737405310563</v>
       </c>
       <c r="M12" t="n">
-        <v>1654.755759562693</v>
+        <v>1356.791087284249</v>
       </c>
       <c r="N12" t="n">
-        <v>2276.85172296203</v>
+        <v>1356.791087284249</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.812354695766</v>
+        <v>1903.667562284443</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.812354695766</v>
+        <v>2323.251080710519</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.812354695766</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>874.9184063975742</v>
+        <v>557.5875721598175</v>
       </c>
       <c r="C13" t="n">
-        <v>705.9822234696674</v>
+        <v>388.6513892319105</v>
       </c>
       <c r="D13" t="n">
-        <v>555.8655840573316</v>
+        <v>388.6513892319105</v>
       </c>
       <c r="E13" t="n">
-        <v>407.9524904749385</v>
+        <v>240.7382956495174</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0625429770282</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="G13" t="n">
         <v>93.84834815160703</v>
@@ -5199,52 +5199,52 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J13" t="n">
-        <v>172.8304710411611</v>
+        <v>172.8304710411609</v>
       </c>
       <c r="K13" t="n">
-        <v>432.4591980117251</v>
+        <v>432.4591980117246</v>
       </c>
       <c r="L13" t="n">
-        <v>820.2210160948597</v>
+        <v>820.2210160948589</v>
       </c>
       <c r="M13" t="n">
-        <v>1239.450608139319</v>
+        <v>1239.450608139318</v>
       </c>
       <c r="N13" t="n">
-        <v>1654.146473931027</v>
+        <v>1654.146473931025</v>
       </c>
       <c r="O13" t="n">
-        <v>2021.168930946057</v>
+        <v>2021.168930946055</v>
       </c>
       <c r="P13" t="n">
-        <v>2311.699365782261</v>
+        <v>2311.69936578226</v>
       </c>
       <c r="Q13" t="n">
-        <v>2429.412499335697</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="R13" t="n">
-        <v>2429.412499335697</v>
+        <v>2424.045011506413</v>
       </c>
       <c r="S13" t="n">
-        <v>2268.788485446139</v>
+        <v>2240.874821245343</v>
       </c>
       <c r="T13" t="n">
-        <v>2049.109703160521</v>
+        <v>2021.196038959725</v>
       </c>
       <c r="U13" t="n">
-        <v>1760.033489475248</v>
+        <v>1732.119825274452</v>
       </c>
       <c r="V13" t="n">
-        <v>1505.349001269361</v>
+        <v>1477.435337068565</v>
       </c>
       <c r="W13" t="n">
-        <v>1505.349001269361</v>
+        <v>1188.018167031605</v>
       </c>
       <c r="X13" t="n">
-        <v>1277.359450371344</v>
+        <v>960.0286161335873</v>
       </c>
       <c r="Y13" t="n">
-        <v>1056.566871227814</v>
+        <v>739.2360369900572</v>
       </c>
     </row>
     <row r="14">
@@ -5254,10 +5254,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2318.261193831369</v>
+        <v>2318.261193831371</v>
       </c>
       <c r="C14" t="n">
-        <v>1949.298676890958</v>
+        <v>1949.298676890959</v>
       </c>
       <c r="D14" t="n">
         <v>1591.032978284208</v>
@@ -5266,64 +5266,64 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F14" t="n">
-        <v>794.2588208963562</v>
+        <v>794.2588208963565</v>
       </c>
       <c r="G14" t="n">
-        <v>380.2757138127625</v>
+        <v>380.2757138127629</v>
       </c>
       <c r="H14" t="n">
-        <v>93.84834815160701</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I14" t="n">
-        <v>93.84834815160701</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J14" t="n">
-        <v>373.3442236507205</v>
+        <v>373.34422365072</v>
       </c>
       <c r="K14" t="n">
-        <v>842.9746074384032</v>
+        <v>842.974607438402</v>
       </c>
       <c r="L14" t="n">
-        <v>1462.494387944179</v>
+        <v>1462.494387944177</v>
       </c>
       <c r="M14" t="n">
-        <v>2183.498949883217</v>
+        <v>2183.498949883215</v>
       </c>
       <c r="N14" t="n">
-        <v>2920.783927800325</v>
+        <v>2920.783927800321</v>
       </c>
       <c r="O14" t="n">
-        <v>3603.645964259464</v>
+        <v>3603.64596425946</v>
       </c>
       <c r="P14" t="n">
-        <v>4151.951912946813</v>
+        <v>4151.951912946808</v>
       </c>
       <c r="Q14" t="n">
-        <v>4566.333620403611</v>
+        <v>4566.333620403613</v>
       </c>
       <c r="R14" t="n">
-        <v>4692.41740758035</v>
+        <v>4692.417407580351</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.950144347199</v>
+        <v>4606.950144347201</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.740996026518</v>
+        <v>4405.740996026519</v>
       </c>
       <c r="U14" t="n">
-        <v>4152.297666746068</v>
+        <v>4152.297666746069</v>
       </c>
       <c r="V14" t="n">
-        <v>3821.234779402497</v>
+        <v>3821.234779402499</v>
       </c>
       <c r="W14" t="n">
-        <v>3468.466124132383</v>
+        <v>3468.466124132384</v>
       </c>
       <c r="X14" t="n">
-        <v>3095.000365871303</v>
+        <v>3095.000365871304</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.861033895491</v>
+        <v>2704.861033895493</v>
       </c>
     </row>
     <row r="15">
@@ -5351,28 +5351,28 @@
         <v>178.7211392683894</v>
       </c>
       <c r="H15" t="n">
-        <v>93.84834815160701</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I15" t="n">
-        <v>93.84834815160701</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J15" t="n">
-        <v>241.4963299034532</v>
+        <v>241.496329903453</v>
       </c>
       <c r="K15" t="n">
-        <v>572.0050724668125</v>
+        <v>474.5240650264086</v>
       </c>
       <c r="L15" t="n">
-        <v>1062.737405310565</v>
+        <v>965.25639787016</v>
       </c>
       <c r="M15" t="n">
-        <v>1654.755759562693</v>
+        <v>965.25639787016</v>
       </c>
       <c r="N15" t="n">
-        <v>1654.755759562693</v>
+        <v>1587.352361269496</v>
       </c>
       <c r="O15" t="n">
-        <v>2201.632234562888</v>
+        <v>2134.22883626969</v>
       </c>
       <c r="P15" t="n">
         <v>2553.812354695766</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>746.1252502501707</v>
+        <v>495.0957149476001</v>
       </c>
       <c r="C16" t="n">
-        <v>699.9418468488439</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="D16" t="n">
-        <v>549.8252074365081</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="E16" t="n">
-        <v>549.8252074365081</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="F16" t="n">
-        <v>402.9352599385977</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="G16" t="n">
-        <v>235.7210651131766</v>
+        <v>158.945337194272</v>
       </c>
       <c r="H16" t="n">
-        <v>93.84834815160701</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I16" t="n">
-        <v>93.84834815160701</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J16" t="n">
-        <v>172.8304710411611</v>
+        <v>172.8304710411609</v>
       </c>
       <c r="K16" t="n">
-        <v>432.4591980117251</v>
+        <v>432.4591980117246</v>
       </c>
       <c r="L16" t="n">
-        <v>820.2210160948597</v>
+        <v>820.2210160948589</v>
       </c>
       <c r="M16" t="n">
-        <v>1239.450608139319</v>
+        <v>1239.450608139318</v>
       </c>
       <c r="N16" t="n">
-        <v>1654.146473931027</v>
+        <v>1654.146473931025</v>
       </c>
       <c r="O16" t="n">
-        <v>2021.168930946057</v>
+        <v>2021.168930946055</v>
       </c>
       <c r="P16" t="n">
-        <v>2311.699365782261</v>
+        <v>2311.69936578226</v>
       </c>
       <c r="Q16" t="n">
-        <v>2429.412499335697</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="R16" t="n">
-        <v>2429.412499335697</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="S16" t="n">
-        <v>2429.412499335697</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="T16" t="n">
-        <v>2209.733717050079</v>
+        <v>1958.704181747508</v>
       </c>
       <c r="U16" t="n">
-        <v>1920.657503364806</v>
+        <v>1669.627968062235</v>
       </c>
       <c r="V16" t="n">
-        <v>1665.973015158919</v>
+        <v>1414.943479856348</v>
       </c>
       <c r="W16" t="n">
-        <v>1376.555845121958</v>
+        <v>1125.526309819387</v>
       </c>
       <c r="X16" t="n">
-        <v>1148.566294223941</v>
+        <v>897.5367589213699</v>
       </c>
       <c r="Y16" t="n">
-        <v>927.7737150804104</v>
+        <v>676.7441797778398</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2318.261193831368</v>
+        <v>2318.261193831369</v>
       </c>
       <c r="C17" t="n">
-        <v>1949.298676890957</v>
+        <v>1949.298676890958</v>
       </c>
       <c r="D17" t="n">
-        <v>1591.032978284206</v>
+        <v>1591.032978284208</v>
       </c>
       <c r="E17" t="n">
-        <v>1205.244725685962</v>
+        <v>1205.244725685964</v>
       </c>
       <c r="F17" t="n">
-        <v>794.2588208963564</v>
+        <v>794.2588208963557</v>
       </c>
       <c r="G17" t="n">
         <v>380.2757138127629</v>
       </c>
       <c r="H17" t="n">
-        <v>93.84834815160701</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I17" t="n">
-        <v>93.84834815160701</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J17" t="n">
-        <v>373.3442236507205</v>
+        <v>373.34422365072</v>
       </c>
       <c r="K17" t="n">
-        <v>842.9746074384032</v>
+        <v>842.974607438402</v>
       </c>
       <c r="L17" t="n">
-        <v>1462.494387944179</v>
+        <v>1462.494387944177</v>
       </c>
       <c r="M17" t="n">
-        <v>2234.298471234009</v>
+        <v>2183.498949883215</v>
       </c>
       <c r="N17" t="n">
-        <v>2971.583449151115</v>
+        <v>2920.783927800321</v>
       </c>
       <c r="O17" t="n">
-        <v>3654.445485610255</v>
+        <v>3654.445485610258</v>
       </c>
       <c r="P17" t="n">
-        <v>4202.751434297604</v>
+        <v>4202.751434297606</v>
       </c>
       <c r="Q17" t="n">
-        <v>4566.333620403611</v>
+        <v>4566.333620403613</v>
       </c>
       <c r="R17" t="n">
-        <v>4692.41740758035</v>
+        <v>4692.417407580351</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.950144347199</v>
+        <v>4606.9501443472</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.740996026518</v>
+        <v>4405.740996026519</v>
       </c>
       <c r="U17" t="n">
-        <v>4152.297666746067</v>
+        <v>4152.297666746068</v>
       </c>
       <c r="V17" t="n">
-        <v>3821.234779402496</v>
+        <v>3821.234779402497</v>
       </c>
       <c r="W17" t="n">
-        <v>3468.466124132382</v>
+        <v>3468.466124132383</v>
       </c>
       <c r="X17" t="n">
-        <v>3095.000365871302</v>
+        <v>3095.000365871303</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.86103389549</v>
+        <v>2704.861033895491</v>
       </c>
     </row>
     <row r="18">
@@ -5588,31 +5588,31 @@
         <v>178.7211392683894</v>
       </c>
       <c r="H18" t="n">
-        <v>93.84834815160701</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I18" t="n">
-        <v>93.84834815160701</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J18" t="n">
-        <v>241.4963299034532</v>
+        <v>241.496329903453</v>
       </c>
       <c r="K18" t="n">
-        <v>241.4963299034532</v>
+        <v>572.0050724668117</v>
       </c>
       <c r="L18" t="n">
-        <v>241.4963299034532</v>
+        <v>965.25639787016</v>
       </c>
       <c r="M18" t="n">
-        <v>833.5146841555817</v>
+        <v>965.25639787016</v>
       </c>
       <c r="N18" t="n">
-        <v>1356.791087284247</v>
+        <v>1587.352361269496</v>
       </c>
       <c r="O18" t="n">
-        <v>1903.667562284443</v>
+        <v>2134.22883626969</v>
       </c>
       <c r="P18" t="n">
-        <v>2323.251080710519</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.812354695766</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>719.7845364488977</v>
+        <v>580.1153653172707</v>
       </c>
       <c r="C19" t="n">
-        <v>550.8483535209908</v>
+        <v>411.1791823893639</v>
       </c>
       <c r="D19" t="n">
-        <v>550.8483535209908</v>
+        <v>261.0625429770282</v>
       </c>
       <c r="E19" t="n">
-        <v>402.9352599385977</v>
+        <v>261.0625429770282</v>
       </c>
       <c r="F19" t="n">
-        <v>402.9352599385977</v>
+        <v>261.0625429770282</v>
       </c>
       <c r="G19" t="n">
-        <v>235.7210651131766</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="H19" t="n">
-        <v>93.84834815160701</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I19" t="n">
-        <v>93.84834815160701</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J19" t="n">
-        <v>172.8304710411611</v>
+        <v>172.8304710411609</v>
       </c>
       <c r="K19" t="n">
-        <v>432.4591980117251</v>
+        <v>432.4591980117246</v>
       </c>
       <c r="L19" t="n">
-        <v>820.2210160948597</v>
+        <v>820.2210160948589</v>
       </c>
       <c r="M19" t="n">
-        <v>1239.450608139319</v>
+        <v>1239.450608139318</v>
       </c>
       <c r="N19" t="n">
-        <v>1654.146473931027</v>
+        <v>1654.146473931025</v>
       </c>
       <c r="O19" t="n">
-        <v>2021.168930946057</v>
+        <v>2021.168930946055</v>
       </c>
       <c r="P19" t="n">
-        <v>2311.699365782261</v>
+        <v>2311.69936578226</v>
       </c>
       <c r="Q19" t="n">
-        <v>2429.412499335697</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="R19" t="n">
-        <v>2361.553154294199</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="S19" t="n">
-        <v>2178.382964033129</v>
+        <v>2246.242309074625</v>
       </c>
       <c r="T19" t="n">
-        <v>1958.704181747511</v>
+        <v>2026.563526789007</v>
       </c>
       <c r="U19" t="n">
-        <v>1669.627968062238</v>
+        <v>1737.487313103734</v>
       </c>
       <c r="V19" t="n">
-        <v>1418.839722214115</v>
+        <v>1482.802824897847</v>
       </c>
       <c r="W19" t="n">
-        <v>1129.422552177155</v>
+        <v>1193.385654860886</v>
       </c>
       <c r="X19" t="n">
-        <v>901.4330012791374</v>
+        <v>982.5564092910406</v>
       </c>
       <c r="Y19" t="n">
-        <v>901.4330012791374</v>
+        <v>761.7638301475105</v>
       </c>
     </row>
     <row r="20">
@@ -5734,46 +5734,46 @@
         <v>1949.298676890958</v>
       </c>
       <c r="D20" t="n">
-        <v>1591.032978284207</v>
+        <v>1591.032978284208</v>
       </c>
       <c r="E20" t="n">
-        <v>1205.244725685963</v>
+        <v>1205.244725685964</v>
       </c>
       <c r="F20" t="n">
-        <v>794.2588208963564</v>
+        <v>794.2588208963566</v>
       </c>
       <c r="G20" t="n">
-        <v>380.2757138127629</v>
+        <v>380.2757138127627</v>
       </c>
       <c r="H20" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160684</v>
       </c>
       <c r="I20" t="n">
         <v>93.84834815160703</v>
       </c>
       <c r="J20" t="n">
-        <v>373.3442236507205</v>
+        <v>373.34422365072</v>
       </c>
       <c r="K20" t="n">
-        <v>842.9746074384032</v>
+        <v>842.974607438402</v>
       </c>
       <c r="L20" t="n">
-        <v>1462.494387944179</v>
+        <v>1462.494387944177</v>
       </c>
       <c r="M20" t="n">
-        <v>2183.498949883217</v>
+        <v>2183.498949883215</v>
       </c>
       <c r="N20" t="n">
-        <v>2920.783927800325</v>
+        <v>2920.783927800321</v>
       </c>
       <c r="O20" t="n">
-        <v>3603.645964259464</v>
+        <v>3603.64596425946</v>
       </c>
       <c r="P20" t="n">
-        <v>4151.951912946813</v>
+        <v>4151.951912946808</v>
       </c>
       <c r="Q20" t="n">
-        <v>4515.53409905282</v>
+        <v>4515.534099052815</v>
       </c>
       <c r="R20" t="n">
         <v>4692.417407580351</v>
@@ -5831,22 +5831,22 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J21" t="n">
-        <v>241.4963299034533</v>
+        <v>241.496329903453</v>
       </c>
       <c r="K21" t="n">
-        <v>572.0050724668126</v>
+        <v>572.0050724668117</v>
       </c>
       <c r="L21" t="n">
-        <v>1062.737405310565</v>
+        <v>965.25639787016</v>
       </c>
       <c r="M21" t="n">
-        <v>1654.755759562693</v>
+        <v>965.25639787016</v>
       </c>
       <c r="N21" t="n">
-        <v>2006.935879695571</v>
+        <v>1587.352361269496</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.812354695766</v>
+        <v>2134.22883626969</v>
       </c>
       <c r="P21" t="n">
         <v>2553.812354695766</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>809.6361984155942</v>
+        <v>495.0957149476001</v>
       </c>
       <c r="C22" t="n">
-        <v>640.7000154876873</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="D22" t="n">
-        <v>490.5833760753516</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="E22" t="n">
-        <v>490.5833760753516</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="F22" t="n">
-        <v>343.6934285774412</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="G22" t="n">
-        <v>176.4792337520201</v>
+        <v>158.945337194272</v>
       </c>
       <c r="H22" t="n">
-        <v>176.4792337520201</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I22" t="n">
         <v>93.84834815160703</v>
       </c>
       <c r="J22" t="n">
-        <v>172.8304710411611</v>
+        <v>172.8304710411609</v>
       </c>
       <c r="K22" t="n">
-        <v>432.4591980117251</v>
+        <v>432.4591980117246</v>
       </c>
       <c r="L22" t="n">
-        <v>820.2210160948597</v>
+        <v>820.2210160948589</v>
       </c>
       <c r="M22" t="n">
-        <v>1239.450608139319</v>
+        <v>1239.450608139318</v>
       </c>
       <c r="N22" t="n">
-        <v>1654.146473931027</v>
+        <v>1654.146473931025</v>
       </c>
       <c r="O22" t="n">
-        <v>2021.168930946057</v>
+        <v>2021.168930946055</v>
       </c>
       <c r="P22" t="n">
-        <v>2311.699365782261</v>
+        <v>2311.69936578226</v>
       </c>
       <c r="Q22" t="n">
-        <v>2429.412499335697</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="R22" t="n">
-        <v>2361.553154294199</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="S22" t="n">
-        <v>2178.382964033129</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="T22" t="n">
-        <v>2178.382964033129</v>
+        <v>1958.704181747508</v>
       </c>
       <c r="U22" t="n">
-        <v>1889.306750347856</v>
+        <v>1669.627968062235</v>
       </c>
       <c r="V22" t="n">
-        <v>1634.622262141969</v>
+        <v>1414.943479856348</v>
       </c>
       <c r="W22" t="n">
-        <v>1440.066793287381</v>
+        <v>1125.526309819387</v>
       </c>
       <c r="X22" t="n">
-        <v>1212.077242389364</v>
+        <v>897.5367589213699</v>
       </c>
       <c r="Y22" t="n">
-        <v>991.2846632458339</v>
+        <v>676.7441797778398</v>
       </c>
     </row>
     <row r="23">
@@ -5977,40 +5977,40 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F23" t="n">
-        <v>794.2588208963562</v>
+        <v>794.2588208963566</v>
       </c>
       <c r="G23" t="n">
-        <v>380.2757138127629</v>
+        <v>380.2757138127627</v>
       </c>
       <c r="H23" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I23" t="n">
         <v>93.84834815160703</v>
       </c>
       <c r="J23" t="n">
-        <v>373.3442236507205</v>
+        <v>373.34422365072</v>
       </c>
       <c r="K23" t="n">
-        <v>842.9746074384032</v>
+        <v>842.974607438402</v>
       </c>
       <c r="L23" t="n">
-        <v>1462.494387944179</v>
+        <v>1462.494387944177</v>
       </c>
       <c r="M23" t="n">
-        <v>2183.498949883217</v>
+        <v>2183.498949883215</v>
       </c>
       <c r="N23" t="n">
-        <v>2920.783927800325</v>
+        <v>2920.783927800321</v>
       </c>
       <c r="O23" t="n">
-        <v>3603.645964259464</v>
+        <v>3603.64596425946</v>
       </c>
       <c r="P23" t="n">
-        <v>4151.951912946813</v>
+        <v>4151.951912946808</v>
       </c>
       <c r="Q23" t="n">
-        <v>4515.53409905282</v>
+        <v>4515.534099052815</v>
       </c>
       <c r="R23" t="n">
         <v>4692.417407580351</v>
@@ -6068,22 +6068,22 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J24" t="n">
-        <v>241.4963299034533</v>
+        <v>241.496329903453</v>
       </c>
       <c r="K24" t="n">
-        <v>241.4963299034533</v>
+        <v>572.0050724668117</v>
       </c>
       <c r="L24" t="n">
-        <v>732.2286627472052</v>
+        <v>572.0050724668117</v>
       </c>
       <c r="M24" t="n">
-        <v>1324.247016999334</v>
+        <v>1164.023426718939</v>
       </c>
       <c r="N24" t="n">
-        <v>1946.342980398671</v>
+        <v>1786.119390118276</v>
       </c>
       <c r="O24" t="n">
-        <v>2493.219455398866</v>
+        <v>2332.99586511847</v>
       </c>
       <c r="P24" t="n">
         <v>2553.812354695766</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2758.100623192258</v>
+        <v>721.9880822788404</v>
       </c>
       <c r="C25" t="n">
-        <v>2589.164440264351</v>
+        <v>553.0518993509335</v>
       </c>
       <c r="D25" t="n">
-        <v>2439.047800852015</v>
+        <v>402.9352599385978</v>
       </c>
       <c r="E25" t="n">
-        <v>2356.853256396262</v>
+        <v>402.9352599385978</v>
       </c>
       <c r="F25" t="n">
-        <v>2356.853256396262</v>
+        <v>402.9352599385978</v>
       </c>
       <c r="G25" t="n">
-        <v>2356.853256396262</v>
+        <v>235.7210651131766</v>
       </c>
       <c r="H25" t="n">
-        <v>2356.853256396262</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I25" t="n">
-        <v>2356.853256396262</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J25" t="n">
-        <v>2435.835379285816</v>
+        <v>172.8304710411609</v>
       </c>
       <c r="K25" t="n">
-        <v>2695.46410625638</v>
+        <v>432.4591980117246</v>
       </c>
       <c r="L25" t="n">
-        <v>3083.225924339514</v>
+        <v>820.2210160948589</v>
       </c>
       <c r="M25" t="n">
-        <v>3502.455516383974</v>
+        <v>1239.450608139318</v>
       </c>
       <c r="N25" t="n">
-        <v>3917.151382175681</v>
+        <v>1654.146473931025</v>
       </c>
       <c r="O25" t="n">
-        <v>4284.173839190711</v>
+        <v>2021.168930946055</v>
       </c>
       <c r="P25" t="n">
-        <v>4574.704274026916</v>
+        <v>2311.69936578226</v>
       </c>
       <c r="Q25" t="n">
-        <v>4692.417407580351</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="R25" t="n">
-        <v>4624.558062538853</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="S25" t="n">
-        <v>4441.387872277784</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="T25" t="n">
-        <v>4221.709089992166</v>
+        <v>2141.874372008578</v>
       </c>
       <c r="U25" t="n">
-        <v>3932.632876306893</v>
+        <v>1852.798158323305</v>
       </c>
       <c r="V25" t="n">
-        <v>3677.948388101006</v>
+        <v>1598.113670117418</v>
       </c>
       <c r="W25" t="n">
-        <v>3388.531218064045</v>
+        <v>1308.696500080457</v>
       </c>
       <c r="X25" t="n">
-        <v>3160.541667166028</v>
+        <v>1080.70694918244</v>
       </c>
       <c r="Y25" t="n">
-        <v>2939.749088022498</v>
+        <v>859.9143700389094</v>
       </c>
     </row>
     <row r="26">
@@ -6202,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2318.261193831369</v>
+        <v>2318.261193831371</v>
       </c>
       <c r="C26" t="n">
-        <v>1949.298676890958</v>
+        <v>1949.298676890959</v>
       </c>
       <c r="D26" t="n">
         <v>1591.032978284208</v>
@@ -6214,64 +6214,64 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F26" t="n">
-        <v>794.2588208963562</v>
+        <v>794.2588208963566</v>
       </c>
       <c r="G26" t="n">
-        <v>380.2757138127627</v>
+        <v>380.275713812763</v>
       </c>
       <c r="H26" t="n">
-        <v>93.84834815160684</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I26" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J26" t="n">
-        <v>373.3442236507205</v>
+        <v>373.3442236507201</v>
       </c>
       <c r="K26" t="n">
-        <v>842.9746074384032</v>
+        <v>842.974607438402</v>
       </c>
       <c r="L26" t="n">
-        <v>1462.494387944179</v>
+        <v>1462.494387944177</v>
       </c>
       <c r="M26" t="n">
-        <v>2183.498949883217</v>
+        <v>2234.298471234015</v>
       </c>
       <c r="N26" t="n">
-        <v>2920.783927800325</v>
+        <v>2971.583449151121</v>
       </c>
       <c r="O26" t="n">
-        <v>3603.645964259464</v>
+        <v>3654.445485610259</v>
       </c>
       <c r="P26" t="n">
-        <v>4151.951912946813</v>
+        <v>4202.751434297607</v>
       </c>
       <c r="Q26" t="n">
-        <v>4515.53409905282</v>
+        <v>4566.333620403614</v>
       </c>
       <c r="R26" t="n">
-        <v>4692.417407580351</v>
+        <v>4692.417407580352</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.9501443472</v>
+        <v>4606.950144347201</v>
       </c>
       <c r="T26" t="n">
         <v>4405.740996026519</v>
       </c>
       <c r="U26" t="n">
-        <v>4152.297666746068</v>
+        <v>4152.297666746069</v>
       </c>
       <c r="V26" t="n">
-        <v>3821.234779402497</v>
+        <v>3821.234779402499</v>
       </c>
       <c r="W26" t="n">
-        <v>3468.466124132383</v>
+        <v>3468.466124132384</v>
       </c>
       <c r="X26" t="n">
-        <v>3095.000365871303</v>
+        <v>3095.000365871304</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.861033895491</v>
+        <v>2704.861033895493</v>
       </c>
     </row>
     <row r="27">
@@ -6299,25 +6299,25 @@
         <v>178.7211392683894</v>
       </c>
       <c r="H27" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I27" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J27" t="n">
-        <v>241.4963299034533</v>
+        <v>241.496329903453</v>
       </c>
       <c r="K27" t="n">
-        <v>241.4963299034533</v>
+        <v>572.0050724668118</v>
       </c>
       <c r="L27" t="n">
-        <v>373.2380436180293</v>
+        <v>1062.737405310563</v>
       </c>
       <c r="M27" t="n">
-        <v>965.2563978701578</v>
+        <v>1654.755759562691</v>
       </c>
       <c r="N27" t="n">
-        <v>1587.352361269495</v>
+        <v>2134.22883626969</v>
       </c>
       <c r="O27" t="n">
         <v>2134.22883626969</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>965.3961039628709</v>
+        <v>495.0957149476001</v>
       </c>
       <c r="C28" t="n">
-        <v>930.48582603165</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="D28" t="n">
-        <v>780.3691866193143</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="E28" t="n">
-        <v>632.4560930369212</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="F28" t="n">
-        <v>485.5661455390108</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="G28" t="n">
-        <v>318.3519507135896</v>
+        <v>158.945337194272</v>
       </c>
       <c r="H28" t="n">
-        <v>176.4792337520201</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I28" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J28" t="n">
-        <v>172.8304710411611</v>
+        <v>172.830471041161</v>
       </c>
       <c r="K28" t="n">
-        <v>432.4591980117251</v>
+        <v>432.4591980117247</v>
       </c>
       <c r="L28" t="n">
-        <v>820.2210160948597</v>
+        <v>820.2210160948589</v>
       </c>
       <c r="M28" t="n">
-        <v>1239.450608139319</v>
+        <v>1239.450608139318</v>
       </c>
       <c r="N28" t="n">
-        <v>1654.146473931027</v>
+        <v>1654.146473931025</v>
       </c>
       <c r="O28" t="n">
-        <v>2021.168930946057</v>
+        <v>2021.168930946055</v>
       </c>
       <c r="P28" t="n">
-        <v>2311.699365782261</v>
+        <v>2311.69936578226</v>
       </c>
       <c r="Q28" t="n">
-        <v>2429.412499335697</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="R28" t="n">
-        <v>2429.412499335697</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="S28" t="n">
-        <v>2246.242309074627</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="T28" t="n">
-        <v>2026.563526789009</v>
+        <v>1958.704181747508</v>
       </c>
       <c r="U28" t="n">
-        <v>1737.487313103736</v>
+        <v>1669.627968062235</v>
       </c>
       <c r="V28" t="n">
-        <v>1482.802824897849</v>
+        <v>1414.943479856348</v>
       </c>
       <c r="W28" t="n">
-        <v>1193.385654860888</v>
+        <v>1125.526309819387</v>
       </c>
       <c r="X28" t="n">
-        <v>965.3961039628709</v>
+        <v>897.5367589213699</v>
       </c>
       <c r="Y28" t="n">
-        <v>965.3961039628709</v>
+        <v>676.7441797778398</v>
       </c>
     </row>
     <row r="29">
@@ -6451,43 +6451,43 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F29" t="n">
-        <v>794.2588208963562</v>
+        <v>794.2588208963566</v>
       </c>
       <c r="G29" t="n">
-        <v>380.2757138127626</v>
+        <v>380.275713812763</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8483481516068</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I29" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J29" t="n">
-        <v>424.1437450015126</v>
+        <v>373.3442236507201</v>
       </c>
       <c r="K29" t="n">
-        <v>893.7741287891952</v>
+        <v>842.974607438402</v>
       </c>
       <c r="L29" t="n">
-        <v>1513.293909294971</v>
+        <v>1462.494387944177</v>
       </c>
       <c r="M29" t="n">
-        <v>2234.298471234009</v>
+        <v>2183.498949883215</v>
       </c>
       <c r="N29" t="n">
-        <v>2971.583449151116</v>
+        <v>2920.783927800321</v>
       </c>
       <c r="O29" t="n">
-        <v>3654.445485610256</v>
+        <v>3603.64596425946</v>
       </c>
       <c r="P29" t="n">
-        <v>4202.751434297605</v>
+        <v>4151.951912946808</v>
       </c>
       <c r="Q29" t="n">
-        <v>4566.333620403612</v>
+        <v>4515.534099052815</v>
       </c>
       <c r="R29" t="n">
-        <v>4692.417407580351</v>
+        <v>4692.417407580352</v>
       </c>
       <c r="S29" t="n">
         <v>4606.950144347201</v>
@@ -6536,25 +6536,25 @@
         <v>178.7211392683894</v>
       </c>
       <c r="H30" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I30" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J30" t="n">
-        <v>241.4963299034533</v>
+        <v>241.496329903453</v>
       </c>
       <c r="K30" t="n">
-        <v>302.0892292003537</v>
+        <v>572.0050724668118</v>
       </c>
       <c r="L30" t="n">
-        <v>792.8215620441057</v>
+        <v>1062.737405310563</v>
       </c>
       <c r="M30" t="n">
-        <v>1384.839916296234</v>
+        <v>1654.755759562691</v>
       </c>
       <c r="N30" t="n">
-        <v>2006.935879695571</v>
+        <v>2006.935879695572</v>
       </c>
       <c r="O30" t="n">
         <v>2553.812354695766</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>723.0852658456201</v>
+        <v>562.9550599890988</v>
       </c>
       <c r="C31" t="n">
-        <v>554.1490829177133</v>
+        <v>394.0188770611919</v>
       </c>
       <c r="D31" t="n">
-        <v>404.0324435053775</v>
+        <v>243.9022376488562</v>
       </c>
       <c r="E31" t="n">
-        <v>404.0324435053775</v>
+        <v>240.7382956495174</v>
       </c>
       <c r="F31" t="n">
-        <v>404.0324435053775</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="G31" t="n">
-        <v>318.3519507135896</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="H31" t="n">
-        <v>176.4792337520201</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I31" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J31" t="n">
-        <v>172.8304710411611</v>
+        <v>172.830471041161</v>
       </c>
       <c r="K31" t="n">
-        <v>432.4591980117251</v>
+        <v>432.4591980117247</v>
       </c>
       <c r="L31" t="n">
-        <v>820.2210160948597</v>
+        <v>820.2210160948589</v>
       </c>
       <c r="M31" t="n">
-        <v>1239.450608139319</v>
+        <v>1239.450608139318</v>
       </c>
       <c r="N31" t="n">
-        <v>1654.146473931027</v>
+        <v>1654.146473931025</v>
       </c>
       <c r="O31" t="n">
-        <v>2021.168930946057</v>
+        <v>2021.168930946055</v>
       </c>
       <c r="P31" t="n">
-        <v>2311.699365782261</v>
+        <v>2311.69936578226</v>
       </c>
       <c r="Q31" t="n">
-        <v>2429.412499335697</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="R31" t="n">
-        <v>2361.553154294199</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="S31" t="n">
-        <v>2178.382964033129</v>
+        <v>2246.242309074625</v>
       </c>
       <c r="T31" t="n">
-        <v>1958.704181747511</v>
+        <v>2026.563526789007</v>
       </c>
       <c r="U31" t="n">
-        <v>1669.627968062238</v>
+        <v>1737.487313103734</v>
       </c>
       <c r="V31" t="n">
-        <v>1414.943479856351</v>
+        <v>1482.802824897847</v>
       </c>
       <c r="W31" t="n">
-        <v>1125.52630981939</v>
+        <v>1193.385654860886</v>
       </c>
       <c r="X31" t="n">
-        <v>1125.52630981939</v>
+        <v>965.3961039628687</v>
       </c>
       <c r="Y31" t="n">
-        <v>904.7337306758599</v>
+        <v>744.6035248193385</v>
       </c>
     </row>
     <row r="32">
@@ -6688,43 +6688,43 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F32" t="n">
-        <v>794.2588208963562</v>
+        <v>794.2588208963564</v>
       </c>
       <c r="G32" t="n">
-        <v>380.2757138127626</v>
+        <v>380.2757138127628</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8483481516068</v>
+        <v>93.84834815160696</v>
       </c>
       <c r="I32" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J32" t="n">
-        <v>373.3442236507205</v>
+        <v>373.3442236507201</v>
       </c>
       <c r="K32" t="n">
-        <v>842.9746074384032</v>
+        <v>842.974607438402</v>
       </c>
       <c r="L32" t="n">
-        <v>1462.494387944179</v>
+        <v>1462.494387944177</v>
       </c>
       <c r="M32" t="n">
-        <v>2183.498949883217</v>
+        <v>2183.498949883215</v>
       </c>
       <c r="N32" t="n">
-        <v>2920.783927800325</v>
+        <v>2920.783927800321</v>
       </c>
       <c r="O32" t="n">
-        <v>3603.645964259464</v>
+        <v>3603.64596425946</v>
       </c>
       <c r="P32" t="n">
-        <v>4151.951912946813</v>
+        <v>4151.951912946808</v>
       </c>
       <c r="Q32" t="n">
-        <v>4515.53409905282</v>
+        <v>4515.534099052815</v>
       </c>
       <c r="R32" t="n">
-        <v>4692.417407580351</v>
+        <v>4692.417407580352</v>
       </c>
       <c r="S32" t="n">
         <v>4606.950144347201</v>
@@ -6773,28 +6773,28 @@
         <v>178.7211392683894</v>
       </c>
       <c r="H33" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I33" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J33" t="n">
-        <v>241.4963299034533</v>
+        <v>241.496329903453</v>
       </c>
       <c r="K33" t="n">
-        <v>572.0050724668126</v>
+        <v>572.0050724668118</v>
       </c>
       <c r="L33" t="n">
-        <v>1062.737405310565</v>
+        <v>1062.737405310563</v>
       </c>
       <c r="M33" t="n">
-        <v>1654.755759562693</v>
+        <v>1654.755759562691</v>
       </c>
       <c r="N33" t="n">
-        <v>2276.85172296203</v>
+        <v>2134.22883626969</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.812354695766</v>
+        <v>2134.22883626969</v>
       </c>
       <c r="P33" t="n">
         <v>2553.812354695766</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>859.9143700389121</v>
+        <v>495.0957149476001</v>
       </c>
       <c r="C34" t="n">
-        <v>690.9781871110052</v>
+        <v>495.0957149476001</v>
       </c>
       <c r="D34" t="n">
-        <v>540.8615476986695</v>
+        <v>388.6513892319105</v>
       </c>
       <c r="E34" t="n">
-        <v>392.9484541162764</v>
+        <v>240.7382956495174</v>
       </c>
       <c r="F34" t="n">
-        <v>246.058506618366</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="G34" t="n">
-        <v>246.058506618366</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="H34" t="n">
-        <v>176.4792337520201</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I34" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J34" t="n">
-        <v>172.8304710411611</v>
+        <v>172.830471041161</v>
       </c>
       <c r="K34" t="n">
-        <v>432.4591980117251</v>
+        <v>432.4591980117247</v>
       </c>
       <c r="L34" t="n">
-        <v>820.2210160948597</v>
+        <v>820.2210160948589</v>
       </c>
       <c r="M34" t="n">
-        <v>1239.450608139319</v>
+        <v>1239.450608139318</v>
       </c>
       <c r="N34" t="n">
-        <v>1654.146473931027</v>
+        <v>1654.146473931025</v>
       </c>
       <c r="O34" t="n">
-        <v>2021.168930946057</v>
+        <v>2021.168930946055</v>
       </c>
       <c r="P34" t="n">
-        <v>2311.699365782261</v>
+        <v>2311.69936578226</v>
       </c>
       <c r="Q34" t="n">
-        <v>2429.412499335697</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="R34" t="n">
-        <v>2361.553154294199</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="S34" t="n">
-        <v>2361.553154294199</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="T34" t="n">
-        <v>2141.87437200858</v>
+        <v>1958.704181747508</v>
       </c>
       <c r="U34" t="n">
-        <v>1852.798158323307</v>
+        <v>1669.627968062235</v>
       </c>
       <c r="V34" t="n">
-        <v>1598.11367011742</v>
+        <v>1414.943479856348</v>
       </c>
       <c r="W34" t="n">
-        <v>1308.69650008046</v>
+        <v>1125.526309819387</v>
       </c>
       <c r="X34" t="n">
-        <v>1080.706949182442</v>
+        <v>897.5367589213699</v>
       </c>
       <c r="Y34" t="n">
-        <v>859.9143700389121</v>
+        <v>676.7441797778398</v>
       </c>
     </row>
     <row r="35">
@@ -6925,40 +6925,40 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F35" t="n">
-        <v>794.2588208963562</v>
+        <v>794.2588208963564</v>
       </c>
       <c r="G35" t="n">
-        <v>380.2757138127627</v>
+        <v>380.2757138127629</v>
       </c>
       <c r="H35" t="n">
-        <v>93.84834815160677</v>
+        <v>93.84834815160701</v>
       </c>
       <c r="I35" t="n">
         <v>93.84834815160703</v>
       </c>
       <c r="J35" t="n">
-        <v>373.3442236507205</v>
+        <v>373.34422365072</v>
       </c>
       <c r="K35" t="n">
-        <v>842.9746074384032</v>
+        <v>842.974607438402</v>
       </c>
       <c r="L35" t="n">
-        <v>1462.494387944179</v>
+        <v>1462.494387944177</v>
       </c>
       <c r="M35" t="n">
-        <v>2183.498949883217</v>
+        <v>2183.498949883215</v>
       </c>
       <c r="N35" t="n">
-        <v>2920.783927800325</v>
+        <v>2920.783927800321</v>
       </c>
       <c r="O35" t="n">
-        <v>3654.445485610256</v>
+        <v>3603.64596425946</v>
       </c>
       <c r="P35" t="n">
-        <v>4202.751434297605</v>
+        <v>4151.951912946808</v>
       </c>
       <c r="Q35" t="n">
-        <v>4566.333620403612</v>
+        <v>4515.534099052815</v>
       </c>
       <c r="R35" t="n">
         <v>4692.417407580351</v>
@@ -7016,25 +7016,25 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J36" t="n">
-        <v>241.4963299034533</v>
+        <v>241.496329903453</v>
       </c>
       <c r="K36" t="n">
-        <v>572.0050724668126</v>
+        <v>572.0050724668117</v>
       </c>
       <c r="L36" t="n">
-        <v>734.6951238849103</v>
+        <v>1062.737405310563</v>
       </c>
       <c r="M36" t="n">
-        <v>734.6951238849103</v>
+        <v>1654.755759562691</v>
       </c>
       <c r="N36" t="n">
-        <v>1356.791087284247</v>
+        <v>2134.22883626969</v>
       </c>
       <c r="O36" t="n">
-        <v>1903.667562284443</v>
+        <v>2134.22883626969</v>
       </c>
       <c r="P36" t="n">
-        <v>2323.251080710519</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.812354695766</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>676.7441797778425</v>
+        <v>557.5875721598175</v>
       </c>
       <c r="C37" t="n">
-        <v>676.7441797778425</v>
+        <v>388.6513892319105</v>
       </c>
       <c r="D37" t="n">
-        <v>526.6275403655068</v>
+        <v>388.6513892319105</v>
       </c>
       <c r="E37" t="n">
-        <v>378.7144467831137</v>
+        <v>240.7382956495174</v>
       </c>
       <c r="F37" t="n">
-        <v>378.7144467831137</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="G37" t="n">
-        <v>211.5002519576925</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="H37" t="n">
-        <v>176.4792337520201</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I37" t="n">
         <v>93.84834815160703</v>
       </c>
       <c r="J37" t="n">
-        <v>172.8304710411611</v>
+        <v>172.8304710411609</v>
       </c>
       <c r="K37" t="n">
-        <v>432.4591980117251</v>
+        <v>432.4591980117246</v>
       </c>
       <c r="L37" t="n">
-        <v>820.2210160948597</v>
+        <v>820.2210160948589</v>
       </c>
       <c r="M37" t="n">
-        <v>1239.450608139319</v>
+        <v>1239.450608139318</v>
       </c>
       <c r="N37" t="n">
-        <v>1654.146473931027</v>
+        <v>1654.146473931025</v>
       </c>
       <c r="O37" t="n">
-        <v>2021.168930946057</v>
+        <v>2021.168930946055</v>
       </c>
       <c r="P37" t="n">
-        <v>2311.699365782261</v>
+        <v>2311.69936578226</v>
       </c>
       <c r="Q37" t="n">
-        <v>2429.412499335697</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="R37" t="n">
-        <v>2361.553154294199</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="S37" t="n">
-        <v>2178.382964033129</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="T37" t="n">
-        <v>1958.704181747511</v>
+        <v>1958.704181747508</v>
       </c>
       <c r="U37" t="n">
-        <v>1669.627968062238</v>
+        <v>1669.627968062235</v>
       </c>
       <c r="V37" t="n">
-        <v>1414.943479856351</v>
+        <v>1414.943479856348</v>
       </c>
       <c r="W37" t="n">
-        <v>1125.52630981939</v>
+        <v>1125.526309819387</v>
       </c>
       <c r="X37" t="n">
-        <v>897.5367589213727</v>
+        <v>897.5367589213699</v>
       </c>
       <c r="Y37" t="n">
-        <v>676.7441797778425</v>
+        <v>676.7441797778398</v>
       </c>
     </row>
     <row r="38">
@@ -7150,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2318.26119383137</v>
+        <v>2318.261193831369</v>
       </c>
       <c r="C38" t="n">
-        <v>1949.298676890959</v>
+        <v>1949.298676890958</v>
       </c>
       <c r="D38" t="n">
         <v>1591.032978284208</v>
@@ -7165,37 +7165,37 @@
         <v>794.2588208963564</v>
       </c>
       <c r="G38" t="n">
-        <v>380.2757138127629</v>
+        <v>380.2757138127628</v>
       </c>
       <c r="H38" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160696</v>
       </c>
       <c r="I38" t="n">
         <v>93.84834815160703</v>
       </c>
       <c r="J38" t="n">
-        <v>373.3442236507205</v>
+        <v>373.34422365072</v>
       </c>
       <c r="K38" t="n">
-        <v>842.9746074384032</v>
+        <v>842.974607438402</v>
       </c>
       <c r="L38" t="n">
-        <v>1513.293909294971</v>
+        <v>1462.494387944177</v>
       </c>
       <c r="M38" t="n">
-        <v>2234.298471234009</v>
+        <v>2183.498949883215</v>
       </c>
       <c r="N38" t="n">
-        <v>2971.583449151116</v>
+        <v>2920.783927800321</v>
       </c>
       <c r="O38" t="n">
-        <v>3654.445485610256</v>
+        <v>3603.64596425946</v>
       </c>
       <c r="P38" t="n">
-        <v>4202.751434297605</v>
+        <v>4151.951912946808</v>
       </c>
       <c r="Q38" t="n">
-        <v>4566.333620403612</v>
+        <v>4515.534099052815</v>
       </c>
       <c r="R38" t="n">
         <v>4692.417407580351</v>
@@ -7207,19 +7207,19 @@
         <v>4405.740996026519</v>
       </c>
       <c r="U38" t="n">
-        <v>4152.297666746069</v>
+        <v>4152.297666746068</v>
       </c>
       <c r="V38" t="n">
-        <v>3821.234779402498</v>
+        <v>3821.234779402497</v>
       </c>
       <c r="W38" t="n">
-        <v>3468.466124132384</v>
+        <v>3468.466124132383</v>
       </c>
       <c r="X38" t="n">
-        <v>3095.000365871304</v>
+        <v>3095.000365871303</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.861033895492</v>
+        <v>2704.861033895491</v>
       </c>
     </row>
     <row r="39">
@@ -7253,25 +7253,25 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J39" t="n">
-        <v>241.4963299034533</v>
+        <v>241.496329903453</v>
       </c>
       <c r="K39" t="n">
-        <v>572.0050724668126</v>
+        <v>572.0050724668117</v>
       </c>
       <c r="L39" t="n">
-        <v>1062.737405310565</v>
+        <v>1062.737405310563</v>
       </c>
       <c r="M39" t="n">
-        <v>1654.755759562693</v>
+        <v>1654.755759562691</v>
       </c>
       <c r="N39" t="n">
-        <v>1903.667562284443</v>
+        <v>2276.851722962027</v>
       </c>
       <c r="O39" t="n">
-        <v>1903.667562284443</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="P39" t="n">
-        <v>2323.251080710519</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.812354695766</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>676.7441797778425</v>
+        <v>562.9550599890988</v>
       </c>
       <c r="C40" t="n">
-        <v>676.7441797778425</v>
+        <v>394.0188770611919</v>
       </c>
       <c r="D40" t="n">
-        <v>526.6275403655068</v>
+        <v>324.3923273344133</v>
       </c>
       <c r="E40" t="n">
-        <v>378.7144467831137</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="F40" t="n">
-        <v>378.7144467831137</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="G40" t="n">
-        <v>318.3519507135896</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="H40" t="n">
-        <v>176.4792337520201</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="I40" t="n">
         <v>93.84834815160703</v>
       </c>
       <c r="J40" t="n">
-        <v>172.8304710411611</v>
+        <v>172.8304710411609</v>
       </c>
       <c r="K40" t="n">
-        <v>432.4591980117251</v>
+        <v>432.4591980117246</v>
       </c>
       <c r="L40" t="n">
-        <v>820.2210160948597</v>
+        <v>820.2210160948589</v>
       </c>
       <c r="M40" t="n">
-        <v>1239.450608139319</v>
+        <v>1239.450608139318</v>
       </c>
       <c r="N40" t="n">
-        <v>1654.146473931027</v>
+        <v>1654.146473931025</v>
       </c>
       <c r="O40" t="n">
-        <v>2021.168930946057</v>
+        <v>2021.168930946055</v>
       </c>
       <c r="P40" t="n">
-        <v>2311.699365782261</v>
+        <v>2311.69936578226</v>
       </c>
       <c r="Q40" t="n">
-        <v>2429.412499335697</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="R40" t="n">
-        <v>2361.553154294199</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="S40" t="n">
-        <v>2178.382964033129</v>
+        <v>2246.242309074625</v>
       </c>
       <c r="T40" t="n">
-        <v>1958.704181747511</v>
+        <v>2026.563526789007</v>
       </c>
       <c r="U40" t="n">
-        <v>1669.627968062238</v>
+        <v>1737.487313103734</v>
       </c>
       <c r="V40" t="n">
-        <v>1414.943479856351</v>
+        <v>1482.802824897847</v>
       </c>
       <c r="W40" t="n">
-        <v>1125.52630981939</v>
+        <v>1193.385654860886</v>
       </c>
       <c r="X40" t="n">
-        <v>897.5367589213727</v>
+        <v>965.3961039628687</v>
       </c>
       <c r="Y40" t="n">
-        <v>676.7441797778425</v>
+        <v>744.6035248193385</v>
       </c>
     </row>
     <row r="41">
@@ -7399,40 +7399,40 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F41" t="n">
-        <v>794.2588208963562</v>
+        <v>794.2588208963566</v>
       </c>
       <c r="G41" t="n">
-        <v>380.2757138127629</v>
+        <v>380.2757138127627</v>
       </c>
       <c r="H41" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160684</v>
       </c>
       <c r="I41" t="n">
         <v>93.84834815160703</v>
       </c>
       <c r="J41" t="n">
-        <v>373.3442236507205</v>
+        <v>373.34422365072</v>
       </c>
       <c r="K41" t="n">
-        <v>842.9746074384032</v>
+        <v>842.974607438402</v>
       </c>
       <c r="L41" t="n">
-        <v>1462.494387944179</v>
+        <v>1462.494387944177</v>
       </c>
       <c r="M41" t="n">
-        <v>2183.498949883217</v>
+        <v>2183.498949883215</v>
       </c>
       <c r="N41" t="n">
-        <v>2920.783927800325</v>
+        <v>2920.783927800321</v>
       </c>
       <c r="O41" t="n">
-        <v>3654.445485610256</v>
+        <v>3603.64596425946</v>
       </c>
       <c r="P41" t="n">
-        <v>4202.751434297605</v>
+        <v>4151.951912946808</v>
       </c>
       <c r="Q41" t="n">
-        <v>4566.333620403612</v>
+        <v>4515.534099052815</v>
       </c>
       <c r="R41" t="n">
         <v>4692.417407580351</v>
@@ -7490,19 +7490,19 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J42" t="n">
-        <v>241.4963299034533</v>
+        <v>241.496329903453</v>
       </c>
       <c r="K42" t="n">
-        <v>572.0050724668126</v>
+        <v>572.0050724668117</v>
       </c>
       <c r="L42" t="n">
-        <v>1062.737405310565</v>
+        <v>1062.737405310563</v>
       </c>
       <c r="M42" t="n">
-        <v>1654.755759562693</v>
+        <v>1356.791087284249</v>
       </c>
       <c r="N42" t="n">
-        <v>1654.755759562693</v>
+        <v>1356.791087284249</v>
       </c>
       <c r="O42" t="n">
         <v>1903.667562284443</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>495.0957149476028</v>
+        <v>654.5023284669178</v>
       </c>
       <c r="C43" t="n">
-        <v>326.1595320196959</v>
+        <v>485.5661455390109</v>
       </c>
       <c r="D43" t="n">
-        <v>176.0428926073602</v>
+        <v>485.5661455390109</v>
       </c>
       <c r="E43" t="n">
-        <v>93.84834815160703</v>
+        <v>485.5661455390109</v>
       </c>
       <c r="F43" t="n">
-        <v>93.84834815160703</v>
+        <v>485.5661455390109</v>
       </c>
       <c r="G43" t="n">
-        <v>93.84834815160703</v>
+        <v>318.3519507135898</v>
       </c>
       <c r="H43" t="n">
-        <v>93.84834815160703</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="I43" t="n">
         <v>93.84834815160703</v>
       </c>
       <c r="J43" t="n">
-        <v>172.8304710411611</v>
+        <v>172.8304710411609</v>
       </c>
       <c r="K43" t="n">
-        <v>432.4591980117251</v>
+        <v>432.4591980117246</v>
       </c>
       <c r="L43" t="n">
-        <v>820.2210160948597</v>
+        <v>820.2210160948589</v>
       </c>
       <c r="M43" t="n">
-        <v>1239.450608139319</v>
+        <v>1239.450608139318</v>
       </c>
       <c r="N43" t="n">
-        <v>1654.146473931027</v>
+        <v>1654.146473931025</v>
       </c>
       <c r="O43" t="n">
-        <v>2021.168930946057</v>
+        <v>2021.168930946055</v>
       </c>
       <c r="P43" t="n">
-        <v>2311.699365782261</v>
+        <v>2311.69936578226</v>
       </c>
       <c r="Q43" t="n">
-        <v>2429.412499335697</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="R43" t="n">
-        <v>2361.553154294199</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="S43" t="n">
-        <v>2178.382964033129</v>
+        <v>2246.242309074625</v>
       </c>
       <c r="T43" t="n">
-        <v>1958.704181747511</v>
+        <v>2026.563526789007</v>
       </c>
       <c r="U43" t="n">
-        <v>1669.627968062238</v>
+        <v>1829.034581581553</v>
       </c>
       <c r="V43" t="n">
-        <v>1414.943479856351</v>
+        <v>1574.350093375666</v>
       </c>
       <c r="W43" t="n">
-        <v>1125.52630981939</v>
+        <v>1284.932923338705</v>
       </c>
       <c r="X43" t="n">
-        <v>897.5367589213727</v>
+        <v>1056.943372440688</v>
       </c>
       <c r="Y43" t="n">
-        <v>676.7441797778425</v>
+        <v>836.1507932971575</v>
       </c>
     </row>
     <row r="44">
@@ -7636,46 +7636,46 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F44" t="n">
-        <v>794.2588208963562</v>
+        <v>794.2588208963566</v>
       </c>
       <c r="G44" t="n">
-        <v>380.2757138127626</v>
+        <v>380.2757138127627</v>
       </c>
       <c r="H44" t="n">
-        <v>93.84834815160701</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I44" t="n">
-        <v>93.84834815160819</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J44" t="n">
-        <v>373.3442236507238</v>
+        <v>373.34422365072</v>
       </c>
       <c r="K44" t="n">
-        <v>842.9746074384095</v>
+        <v>842.974607438402</v>
       </c>
       <c r="L44" t="n">
-        <v>1462.494387944189</v>
+        <v>1462.494387944177</v>
       </c>
       <c r="M44" t="n">
-        <v>2234.298471233993</v>
+        <v>2183.498949883215</v>
       </c>
       <c r="N44" t="n">
-        <v>2971.583449151104</v>
+        <v>2920.783927800321</v>
       </c>
       <c r="O44" t="n">
-        <v>3654.445485610247</v>
+        <v>3603.64596425946</v>
       </c>
       <c r="P44" t="n">
-        <v>4202.7514342976</v>
+        <v>4151.951912946808</v>
       </c>
       <c r="Q44" t="n">
-        <v>4566.33362040361</v>
+        <v>4515.534099052815</v>
       </c>
       <c r="R44" t="n">
-        <v>4692.41740758035</v>
+        <v>4692.417407580351</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.950144347199</v>
+        <v>4606.9501443472</v>
       </c>
       <c r="T44" t="n">
         <v>4405.740996026519</v>
@@ -7703,46 +7703,46 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>943.6608414294084</v>
+        <v>943.6608414294086</v>
       </c>
       <c r="C45" t="n">
-        <v>769.2078121482814</v>
+        <v>769.2078121482816</v>
       </c>
       <c r="D45" t="n">
-        <v>620.2734024870301</v>
+        <v>620.2734024870304</v>
       </c>
       <c r="E45" t="n">
-        <v>461.0359474815747</v>
+        <v>461.0359474815749</v>
       </c>
       <c r="F45" t="n">
-        <v>314.5013895084596</v>
+        <v>314.5013895084599</v>
       </c>
       <c r="G45" t="n">
-        <v>178.7211392683892</v>
+        <v>178.7211392683894</v>
       </c>
       <c r="H45" t="n">
-        <v>93.84834815160701</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I45" t="n">
-        <v>93.84834815160701</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J45" t="n">
-        <v>241.4963299034545</v>
+        <v>241.496329903453</v>
       </c>
       <c r="K45" t="n">
-        <v>302.0892292003404</v>
+        <v>241.496329903453</v>
       </c>
       <c r="L45" t="n">
-        <v>792.8215620440952</v>
+        <v>732.2286627472043</v>
       </c>
       <c r="M45" t="n">
-        <v>1384.839916296227</v>
+        <v>1324.247016999332</v>
       </c>
       <c r="N45" t="n">
-        <v>2006.935879695568</v>
+        <v>1946.342980398668</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.812354695766</v>
+        <v>2493.219455398862</v>
       </c>
       <c r="P45" t="n">
         <v>2553.812354695766</v>
@@ -7760,7 +7760,7 @@
         <v>2244.906943855537</v>
       </c>
       <c r="U45" t="n">
-        <v>2016.877442379907</v>
+        <v>2016.877442379908</v>
       </c>
       <c r="V45" t="n">
         <v>1781.725334148165</v>
@@ -7772,7 +7772,7 @@
         <v>1319.63647721443</v>
       </c>
       <c r="Y45" t="n">
-        <v>1111.876178449476</v>
+        <v>1111.876178449477</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>702.6869810358122</v>
+        <v>495.0957149476001</v>
       </c>
       <c r="C46" t="n">
-        <v>533.7507981079053</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="D46" t="n">
-        <v>383.6341586955696</v>
+        <v>176.0428926073575</v>
       </c>
       <c r="E46" t="n">
-        <v>235.7210651131765</v>
+        <v>176.0428926073575</v>
       </c>
       <c r="F46" t="n">
-        <v>235.7210651131765</v>
+        <v>176.0428926073575</v>
       </c>
       <c r="G46" t="n">
-        <v>235.7210651131765</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="H46" t="n">
-        <v>93.84834815160701</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I46" t="n">
-        <v>93.84834815160701</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J46" t="n">
-        <v>172.8304710411619</v>
+        <v>172.8304710411609</v>
       </c>
       <c r="K46" t="n">
-        <v>432.4591980117272</v>
+        <v>432.4591980117246</v>
       </c>
       <c r="L46" t="n">
-        <v>820.2210160948634</v>
+        <v>820.2210160948589</v>
       </c>
       <c r="M46" t="n">
-        <v>1239.450608139325</v>
+        <v>1239.450608139318</v>
       </c>
       <c r="N46" t="n">
-        <v>1654.146473931034</v>
+        <v>1654.146473931025</v>
       </c>
       <c r="O46" t="n">
-        <v>2021.168930946065</v>
+        <v>2021.168930946055</v>
       </c>
       <c r="P46" t="n">
-        <v>2311.699365782271</v>
+        <v>2311.69936578226</v>
       </c>
       <c r="Q46" t="n">
-        <v>2429.412499335708</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="R46" t="n">
-        <v>2361.55315429421</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="S46" t="n">
-        <v>2178.382964033141</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="T46" t="n">
-        <v>1958.704181747523</v>
+        <v>1958.704181747508</v>
       </c>
       <c r="U46" t="n">
-        <v>1877.219234150447</v>
+        <v>1669.627968062235</v>
       </c>
       <c r="V46" t="n">
-        <v>1622.53474594456</v>
+        <v>1414.943479856348</v>
       </c>
       <c r="W46" t="n">
-        <v>1333.117575907599</v>
+        <v>1125.526309819387</v>
       </c>
       <c r="X46" t="n">
-        <v>1105.128025009582</v>
+        <v>897.5367589213699</v>
       </c>
       <c r="Y46" t="n">
-        <v>884.3354458660519</v>
+        <v>676.7441797778398</v>
       </c>
     </row>
   </sheetData>
@@ -8057,13 +8057,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>327.4218609627885</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747075</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8303,10 +8303,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516228</v>
       </c>
       <c r="N6" t="n">
-        <v>359.9065542451761</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8473,7 +8473,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599048</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747169</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8689,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>51.31264782908289</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -8713,7 +8713,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>51.312647829089</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8947,7 +8947,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>51.31264782908187</v>
+        <v>51.31264782908892</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -9172,13 +9172,13 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>51.31264782908181</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>51.31264782908966</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>51.31264782908309</v>
+        <v>51.312647829089</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>51.31264782908309</v>
+        <v>51.312647829089</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9883,7 +9883,7 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>51.31264782909125</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -9898,7 +9898,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>51.31264782908309</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>51.31264782908289</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>51.31264782908991</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>51.31264782908309</v>
+        <v>51.31264782908991</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10600,7 +10600,7 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>51.31264782908238</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>51.312647829089</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10828,7 +10828,7 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>51.31264782908283</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>51.312647829089</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11074,7 +11074,7 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>51.31264782908238</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>51.312647829089</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11305,7 +11305,7 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>51.31264782905112</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -11320,7 +11320,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>51.312647829089</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23266,7 +23266,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>1.080024958355352e-12</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23421,7 +23421,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23430,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H13" t="n">
         <v>140.4539897919539</v>
       </c>
       <c r="I13" t="n">
-        <v>81.80457674440895</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>67.18075159108344</v>
+        <v>61.86693864009501</v>
       </c>
       <c r="S13" t="n">
-        <v>22.32071460779719</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23478,7 +23478,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23655,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>121.5252517313143</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>76.00797063971555</v>
       </c>
       <c r="I16" t="n">
-        <v>81.80457674440895</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>67.18075159108344</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.3384883584589</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23895,10 +23895,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I19" t="n">
-        <v>81.80457674440895</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23949,16 +23949,16 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>3.857279934187062</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>16.98870227489022</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.4539897919539</v>
+        <v>76.00797063971555</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24180,7 +24180,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4819944627618</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24189,7 +24189,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>93.91308417054972</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>43.28495529946895</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24372,19 +24372,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>65.06136363537306</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.80457674440895</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,7 +24414,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>132.6856459467191</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>76.00797063971557</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>67.18075159108344</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24846,19 +24846,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>143.3016600672238</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>80.71836501329695</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25074,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>43.23559055967969</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25092,10 +25092,10 @@
         <v>165.5420528771669</v>
       </c>
       <c r="H34" t="n">
-        <v>71.57050965427143</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,7 +25125,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.3384883584589</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>61.86693864009519</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H37" t="n">
-        <v>105.7831817683382</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25548,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>79.6851887887015</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25563,10 +25563,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>105.7831817683382</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>65.06136363537355</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.80457674440895</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>90.63179579304079</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26031,19 +26031,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5420528771669</v>
+        <v>84.16945386597401</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I46" t="n">
-        <v>81.80457674440861</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>205.5153534273155</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>831834.444485869</v>
+        <v>831834.4444858688</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>831834.4444858688</v>
+        <v>831834.4444858689</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>831834.444485869</v>
+        <v>831834.4444858689</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>831834.444485869</v>
+        <v>831834.4444858689</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>831834.4444858691</v>
+        <v>831834.4444858689</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>831834.4444858691</v>
+        <v>831834.4444858688</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>831834.4444858691</v>
+        <v>831834.4444858689</v>
       </c>
     </row>
     <row r="15">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>595255.2831516047</v>
+        <v>595255.2831516049</v>
       </c>
       <c r="C2" t="n">
-        <v>595255.2831516049</v>
+        <v>595255.2831516046</v>
       </c>
       <c r="D2" t="n">
-        <v>595255.2831516046</v>
+        <v>595255.2831516053</v>
       </c>
       <c r="E2" t="n">
-        <v>584845.1584109558</v>
+        <v>584845.1584109551</v>
       </c>
       <c r="F2" t="n">
-        <v>584845.1584109553</v>
+        <v>584845.1584109552</v>
       </c>
       <c r="G2" t="n">
-        <v>584845.1584109555</v>
+        <v>584845.1584109551</v>
       </c>
       <c r="H2" t="n">
         <v>584845.1584109553</v>
       </c>
       <c r="I2" t="n">
-        <v>584845.1584109556</v>
+        <v>584845.1584109551</v>
       </c>
       <c r="J2" t="n">
         <v>584845.1584109555</v>
       </c>
       <c r="K2" t="n">
-        <v>584845.1584109555</v>
+        <v>584845.158410955</v>
       </c>
       <c r="L2" t="n">
-        <v>584845.1584109553</v>
+        <v>584845.1584109552</v>
       </c>
       <c r="M2" t="n">
-        <v>584845.1584109553</v>
+        <v>584845.1584109552</v>
       </c>
       <c r="N2" t="n">
-        <v>584845.1584109555</v>
+        <v>584845.1584109552</v>
       </c>
       <c r="O2" t="n">
-        <v>584845.1584109556</v>
+        <v>584845.1584109552</v>
       </c>
       <c r="P2" t="n">
-        <v>584845.1584109556</v>
+        <v>584845.1584109551</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>936509.6654545135</v>
+        <v>936509.6654545122</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>124307.2113901372</v>
+        <v>124307.2113901371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>4.086030457983724e-09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>201064.5059277316</v>
+        <v>201064.5059277315</v>
       </c>
       <c r="C4" t="n">
         <v>201064.5059277315</v>
@@ -26426,40 +26426,40 @@
         <v>201064.5059277315</v>
       </c>
       <c r="E4" t="n">
-        <v>5781.971894855003</v>
+        <v>5781.971894855089</v>
       </c>
       <c r="F4" t="n">
-        <v>5781.971894854989</v>
+        <v>5781.971894855087</v>
       </c>
       <c r="G4" t="n">
-        <v>5781.971894855071</v>
+        <v>5781.971894855098</v>
       </c>
       <c r="H4" t="n">
-        <v>5781.971894855047</v>
+        <v>5781.971894855088</v>
       </c>
       <c r="I4" t="n">
-        <v>5781.971894855006</v>
+        <v>5781.971894855089</v>
       </c>
       <c r="J4" t="n">
-        <v>5781.971894855007</v>
+        <v>5781.97189485512</v>
       </c>
       <c r="K4" t="n">
-        <v>5781.971894855003</v>
+        <v>5781.971894855101</v>
       </c>
       <c r="L4" t="n">
-        <v>5781.971894855006</v>
+        <v>5781.971894855102</v>
       </c>
       <c r="M4" t="n">
-        <v>5781.971894854996</v>
+        <v>5781.971894855089</v>
       </c>
       <c r="N4" t="n">
-        <v>5781.971894855002</v>
+        <v>5781.971894855089</v>
       </c>
       <c r="O4" t="n">
-        <v>5781.971894854996</v>
+        <v>5781.971894855089</v>
       </c>
       <c r="P4" t="n">
-        <v>5781.971894854561</v>
+        <v>5781.971894855089</v>
       </c>
     </row>
     <row r="5">
@@ -26478,19 +26478,19 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>100930.0394572386</v>
+        <v>100930.0394572385</v>
       </c>
       <c r="F5" t="n">
-        <v>100930.0394572386</v>
+        <v>100930.0394572385</v>
       </c>
       <c r="G5" t="n">
-        <v>100930.0394572386</v>
+        <v>100930.0394572385</v>
       </c>
       <c r="H5" t="n">
-        <v>100930.0394572386</v>
+        <v>100930.0394572385</v>
       </c>
       <c r="I5" t="n">
-        <v>100930.0394572386</v>
+        <v>100930.0394572385</v>
       </c>
       <c r="J5" t="n">
         <v>100930.0394572386</v>
@@ -26502,16 +26502,16 @@
         <v>100930.0394572386</v>
       </c>
       <c r="M5" t="n">
-        <v>100930.0394572386</v>
+        <v>100930.0394572385</v>
       </c>
       <c r="N5" t="n">
-        <v>100930.0394572386</v>
+        <v>100930.0394572385</v>
       </c>
       <c r="O5" t="n">
-        <v>100930.0394572386</v>
+        <v>100930.0394572385</v>
       </c>
       <c r="P5" t="n">
-        <v>100930.0394572387</v>
+        <v>100930.0394572385</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-278636.1800540808</v>
+        <v>-278636.1800540805</v>
       </c>
       <c r="C6" t="n">
-        <v>311331.699160464</v>
+        <v>311331.6991604636</v>
       </c>
       <c r="D6" t="n">
-        <v>311331.6991604636</v>
+        <v>311331.6991604643</v>
       </c>
       <c r="E6" t="n">
-        <v>-458376.5183956513</v>
+        <v>-458735.4882142939</v>
       </c>
       <c r="F6" t="n">
-        <v>478133.1470588617</v>
+        <v>477774.1772402184</v>
       </c>
       <c r="G6" t="n">
-        <v>478133.1470588619</v>
+        <v>477774.1772402183</v>
       </c>
       <c r="H6" t="n">
-        <v>478133.1470588617</v>
+        <v>477774.1772402186</v>
       </c>
       <c r="I6" t="n">
-        <v>478133.147058862</v>
+        <v>477774.1772402183</v>
       </c>
       <c r="J6" t="n">
-        <v>301709.9278662689</v>
+        <v>301350.9580476256</v>
       </c>
       <c r="K6" t="n">
-        <v>478133.1470588619</v>
+        <v>477774.1772402182</v>
       </c>
       <c r="L6" t="n">
-        <v>478133.1470588617</v>
+        <v>477774.1772402184</v>
       </c>
       <c r="M6" t="n">
-        <v>353825.9356687246</v>
+        <v>353466.9658500814</v>
       </c>
       <c r="N6" t="n">
-        <v>478133.1470588619</v>
+        <v>477774.1772402184</v>
       </c>
       <c r="O6" t="n">
-        <v>478133.147058862</v>
+        <v>477774.1772402184</v>
       </c>
       <c r="P6" t="n">
-        <v>478133.1470588582</v>
+        <v>477774.1772402183</v>
       </c>
     </row>
   </sheetData>
@@ -26746,40 +26746,40 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>1358.041048716387</v>
+        <v>1358.041048716386</v>
       </c>
       <c r="F3" t="n">
-        <v>1358.041048716387</v>
+        <v>1358.041048716386</v>
       </c>
       <c r="G3" t="n">
-        <v>1358.041048716387</v>
+        <v>1358.041048716386</v>
       </c>
       <c r="H3" t="n">
-        <v>1358.041048716387</v>
+        <v>1358.041048716386</v>
       </c>
       <c r="I3" t="n">
-        <v>1358.041048716387</v>
+        <v>1358.041048716386</v>
       </c>
       <c r="J3" t="n">
-        <v>1358.041048716387</v>
+        <v>1358.041048716386</v>
       </c>
       <c r="K3" t="n">
-        <v>1358.041048716387</v>
+        <v>1358.041048716386</v>
       </c>
       <c r="L3" t="n">
-        <v>1358.041048716387</v>
+        <v>1358.041048716386</v>
       </c>
       <c r="M3" t="n">
-        <v>1358.041048716387</v>
+        <v>1358.041048716386</v>
       </c>
       <c r="N3" t="n">
-        <v>1358.041048716387</v>
+        <v>1358.041048716386</v>
       </c>
       <c r="O3" t="n">
-        <v>1358.041048716387</v>
+        <v>1358.041048716386</v>
       </c>
       <c r="P3" t="n">
-        <v>1358.041048716393</v>
+        <v>1358.041048716386</v>
       </c>
     </row>
     <row r="4">
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>980.2973844993006</v>
+        <v>980.2973844992991</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>6.139089236967266e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.8170791405322</v>
+        <v>498.817079140532</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27387,19 +27387,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>108.2443142804547</v>
+        <v>70.43694860033645</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,22 +27432,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27545,22 +27545,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>1.882105749397752</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27602,10 +27602,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>190.4709048993123</v>
       </c>
     </row>
     <row r="5">
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>384.5561768218181</v>
       </c>
       <c r="G5" t="n">
-        <v>291.4390974301041</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27675,13 +27675,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27779,7 +27779,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27794,10 +27794,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,13 +27818,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27836,10 +27836,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>94.15468145987359</v>
       </c>
       <c r="X7" t="n">
-        <v>22.54869530067501</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>365.5596161926475</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>393.7163208359958</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,19 +27900,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28019,7 +28019,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28028,13 +28028,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28073,13 +28073,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>147.3933628517834</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>1.882105749397226</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28575,7 +28575,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>1.818989403545856e-12</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -28812,7 +28812,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -31278,13 +31278,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31302,22 +31302,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31390,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,13 +31460,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31475,7 +31475,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31515,13 +31515,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31539,22 +31539,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31627,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,13 +31697,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31712,7 +31712,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.459461502377432</v>
+        <v>5.459461502377426</v>
       </c>
       <c r="H11" t="n">
-        <v>55.91171011122289</v>
+        <v>55.91171011122283</v>
       </c>
       <c r="I11" t="n">
-        <v>210.4758895704061</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
-        <v>463.364970687407</v>
+        <v>463.3649706874065</v>
       </c>
       <c r="K11" t="n">
-        <v>694.4639760830438</v>
+        <v>694.4639760830431</v>
       </c>
       <c r="L11" t="n">
-        <v>861.5439710364274</v>
+        <v>861.5439710364265</v>
       </c>
       <c r="M11" t="n">
-        <v>958.6336695293319</v>
+        <v>958.633669529331</v>
       </c>
       <c r="N11" t="n">
-        <v>974.1453645229619</v>
+        <v>974.1453645229609</v>
       </c>
       <c r="O11" t="n">
-        <v>919.8578442086962</v>
+        <v>919.8578442086953</v>
       </c>
       <c r="P11" t="n">
-        <v>785.0773883687533</v>
+        <v>785.0773883687525</v>
       </c>
       <c r="Q11" t="n">
-        <v>589.5604233148613</v>
+        <v>589.5604233148607</v>
       </c>
       <c r="R11" t="n">
-        <v>342.9428985987167</v>
+        <v>342.9428985987163</v>
       </c>
       <c r="S11" t="n">
-        <v>124.4074789854259</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T11" t="n">
-        <v>23.89879272665722</v>
+        <v>23.8987927266572</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4367569201901945</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.921069425540908</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H12" t="n">
-        <v>28.21138103088193</v>
+        <v>28.21138103088191</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>275.9770021735821</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K12" t="n">
-        <v>471.688653684823</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L12" t="n">
-        <v>634.2436048745732</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M12" t="n">
-        <v>740.1323715504309</v>
+        <v>439.1579551075595</v>
       </c>
       <c r="N12" t="n">
-        <v>759.7214730927647</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>422.3544583169052</v>
+        <v>694.9967242426205</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>557.7961431982454</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286953</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.25758340862166</v>
+        <v>54.25758340862161</v>
       </c>
       <c r="T12" t="n">
-        <v>11.77395965821094</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1921756201013756</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.448926481291846</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H13" t="n">
-        <v>21.7731827154857</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I13" t="n">
-        <v>73.64589818284934</v>
+        <v>73.64589818284927</v>
       </c>
       <c r="J13" t="n">
-        <v>173.1391022273335</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K13" t="n">
-        <v>284.5207311900889</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L13" t="n">
-        <v>364.0885788640622</v>
+        <v>364.0885788640619</v>
       </c>
       <c r="M13" t="n">
-        <v>383.8803574265026</v>
+        <v>383.8803574265022</v>
       </c>
       <c r="N13" t="n">
-        <v>374.7525405416878</v>
+        <v>374.7525405416875</v>
       </c>
       <c r="O13" t="n">
-        <v>346.1446266465966</v>
+        <v>346.1446266465963</v>
       </c>
       <c r="P13" t="n">
-        <v>296.1865264282427</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q13" t="n">
-        <v>205.0641983561745</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R13" t="n">
-        <v>110.112639786086</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S13" t="n">
-        <v>42.67810967851333</v>
+        <v>42.67810967851329</v>
       </c>
       <c r="T13" t="n">
-        <v>10.4635949655197</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1335778080704645</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.459461502377432</v>
+        <v>5.459461502377426</v>
       </c>
       <c r="H14" t="n">
-        <v>55.91171011122289</v>
+        <v>55.91171011122283</v>
       </c>
       <c r="I14" t="n">
-        <v>210.4758895704061</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>463.364970687407</v>
+        <v>463.3649706874065</v>
       </c>
       <c r="K14" t="n">
-        <v>694.4639760830438</v>
+        <v>694.4639760830431</v>
       </c>
       <c r="L14" t="n">
-        <v>861.5439710364274</v>
+        <v>861.5439710364265</v>
       </c>
       <c r="M14" t="n">
-        <v>958.6336695293319</v>
+        <v>958.633669529331</v>
       </c>
       <c r="N14" t="n">
-        <v>974.1453645229619</v>
+        <v>974.1453645229609</v>
       </c>
       <c r="O14" t="n">
-        <v>919.8578442086962</v>
+        <v>919.8578442086953</v>
       </c>
       <c r="P14" t="n">
-        <v>785.0773883687533</v>
+        <v>785.0773883687525</v>
       </c>
       <c r="Q14" t="n">
-        <v>589.5604233148613</v>
+        <v>589.5604233148607</v>
       </c>
       <c r="R14" t="n">
-        <v>342.9428985987167</v>
+        <v>342.9428985987163</v>
       </c>
       <c r="S14" t="n">
-        <v>124.4074789854259</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T14" t="n">
-        <v>23.89879272665722</v>
+        <v>23.8987927266572</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4367569201901945</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,34 +32068,34 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.921069425540908</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H15" t="n">
-        <v>28.21138103088193</v>
+        <v>28.21138103088191</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>275.9770021735821</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K15" t="n">
-        <v>471.688653684823</v>
+        <v>373.2229896036071</v>
       </c>
       <c r="L15" t="n">
-        <v>634.2436048745732</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M15" t="n">
-        <v>740.1323715504309</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>759.7214730927639</v>
       </c>
       <c r="O15" t="n">
-        <v>694.9967242426213</v>
+        <v>694.9967242426205</v>
       </c>
       <c r="P15" t="n">
-        <v>489.7119024980454</v>
+        <v>557.7961431982454</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.25758340862166</v>
+        <v>54.25758340862161</v>
       </c>
       <c r="T15" t="n">
-        <v>11.77395965821094</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1921756201013756</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.448926481291846</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H16" t="n">
-        <v>21.7731827154857</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I16" t="n">
-        <v>73.64589818284934</v>
+        <v>73.64589818284927</v>
       </c>
       <c r="J16" t="n">
-        <v>173.1391022273335</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K16" t="n">
-        <v>284.5207311900889</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L16" t="n">
-        <v>364.0885788640622</v>
+        <v>364.0885788640619</v>
       </c>
       <c r="M16" t="n">
-        <v>383.8803574265026</v>
+        <v>383.8803574265022</v>
       </c>
       <c r="N16" t="n">
-        <v>374.7525405416878</v>
+        <v>374.7525405416875</v>
       </c>
       <c r="O16" t="n">
-        <v>346.1446266465966</v>
+        <v>346.1446266465963</v>
       </c>
       <c r="P16" t="n">
-        <v>296.1865264282427</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q16" t="n">
-        <v>205.0641983561745</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R16" t="n">
-        <v>110.112639786086</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S16" t="n">
-        <v>42.67810967851333</v>
+        <v>42.67810967851329</v>
       </c>
       <c r="T16" t="n">
-        <v>10.4635949655197</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1335778080704645</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.459461502377432</v>
+        <v>5.459461502377426</v>
       </c>
       <c r="H17" t="n">
-        <v>55.91171011122289</v>
+        <v>55.91171011122283</v>
       </c>
       <c r="I17" t="n">
-        <v>210.4758895704061</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>463.364970687407</v>
+        <v>463.3649706874065</v>
       </c>
       <c r="K17" t="n">
-        <v>694.4639760830438</v>
+        <v>694.4639760830431</v>
       </c>
       <c r="L17" t="n">
-        <v>861.5439710364274</v>
+        <v>861.5439710364265</v>
       </c>
       <c r="M17" t="n">
-        <v>958.6336695293319</v>
+        <v>958.633669529331</v>
       </c>
       <c r="N17" t="n">
-        <v>974.1453645229619</v>
+        <v>974.1453645229609</v>
       </c>
       <c r="O17" t="n">
-        <v>919.8578442086962</v>
+        <v>919.8578442086953</v>
       </c>
       <c r="P17" t="n">
-        <v>785.0773883687533</v>
+        <v>785.0773883687525</v>
       </c>
       <c r="Q17" t="n">
-        <v>589.5604233148613</v>
+        <v>589.5604233148607</v>
       </c>
       <c r="R17" t="n">
-        <v>342.9428985987167</v>
+        <v>342.9428985987163</v>
       </c>
       <c r="S17" t="n">
-        <v>124.4074789854259</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T17" t="n">
-        <v>23.89879272665722</v>
+        <v>23.8987927266572</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4367569201901945</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.921069425540908</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H18" t="n">
-        <v>28.21138103088193</v>
+        <v>28.21138103088191</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>275.9770021735821</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>535.7779407933572</v>
       </c>
       <c r="M18" t="n">
-        <v>740.1323715504309</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>659.9037354456219</v>
+        <v>759.7214730927639</v>
       </c>
       <c r="O18" t="n">
-        <v>694.9967242426213</v>
+        <v>694.9967242426205</v>
       </c>
       <c r="P18" t="n">
-        <v>557.796143198246</v>
+        <v>557.7961431982454</v>
       </c>
       <c r="Q18" t="n">
-        <v>372.8719498286956</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.25758340862166</v>
+        <v>54.25758340862161</v>
       </c>
       <c r="T18" t="n">
-        <v>11.77395965821094</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1921756201013756</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.448926481291846</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H19" t="n">
-        <v>21.7731827154857</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I19" t="n">
-        <v>73.64589818284934</v>
+        <v>73.64589818284927</v>
       </c>
       <c r="J19" t="n">
-        <v>173.1391022273335</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K19" t="n">
-        <v>284.5207311900889</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L19" t="n">
-        <v>364.0885788640622</v>
+        <v>364.0885788640619</v>
       </c>
       <c r="M19" t="n">
-        <v>383.8803574265026</v>
+        <v>383.8803574265022</v>
       </c>
       <c r="N19" t="n">
-        <v>374.7525405416878</v>
+        <v>374.7525405416875</v>
       </c>
       <c r="O19" t="n">
-        <v>346.1446266465966</v>
+        <v>346.1446266465963</v>
       </c>
       <c r="P19" t="n">
-        <v>296.1865264282427</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q19" t="n">
-        <v>205.0641983561745</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R19" t="n">
-        <v>110.112639786086</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S19" t="n">
-        <v>42.67810967851333</v>
+        <v>42.67810967851329</v>
       </c>
       <c r="T19" t="n">
-        <v>10.4635949655197</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1335778080704645</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.459461502377432</v>
+        <v>5.459461502377426</v>
       </c>
       <c r="H20" t="n">
-        <v>55.91171011122289</v>
+        <v>55.91171011122283</v>
       </c>
       <c r="I20" t="n">
-        <v>210.4758895704061</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
-        <v>463.364970687407</v>
+        <v>463.3649706874065</v>
       </c>
       <c r="K20" t="n">
-        <v>694.4639760830438</v>
+        <v>694.4639760830431</v>
       </c>
       <c r="L20" t="n">
-        <v>861.5439710364274</v>
+        <v>861.5439710364265</v>
       </c>
       <c r="M20" t="n">
-        <v>958.6336695293319</v>
+        <v>958.633669529331</v>
       </c>
       <c r="N20" t="n">
-        <v>974.1453645229619</v>
+        <v>974.1453645229609</v>
       </c>
       <c r="O20" t="n">
-        <v>919.8578442086962</v>
+        <v>919.8578442086953</v>
       </c>
       <c r="P20" t="n">
-        <v>785.0773883687533</v>
+        <v>785.0773883687525</v>
       </c>
       <c r="Q20" t="n">
-        <v>589.5604233148613</v>
+        <v>589.5604233148607</v>
       </c>
       <c r="R20" t="n">
-        <v>342.9428985987167</v>
+        <v>342.9428985987163</v>
       </c>
       <c r="S20" t="n">
-        <v>124.4074789854259</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T20" t="n">
-        <v>23.89879272665722</v>
+        <v>23.8987927266572</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4367569201901945</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,34 +32542,34 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.921069425540908</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H21" t="n">
-        <v>28.21138103088193</v>
+        <v>28.21138103088191</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>275.9770021735821</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K21" t="n">
-        <v>471.688653684823</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L21" t="n">
-        <v>634.2436048745732</v>
+        <v>535.7779407933572</v>
       </c>
       <c r="M21" t="n">
-        <v>740.1323715504309</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>487.0792071670485</v>
+        <v>759.7214730927639</v>
       </c>
       <c r="O21" t="n">
-        <v>694.9967242426213</v>
+        <v>694.9967242426205</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>557.7961431982454</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.25758340862166</v>
+        <v>54.25758340862161</v>
       </c>
       <c r="T21" t="n">
-        <v>11.77395965821094</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1921756201013756</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.448926481291846</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H22" t="n">
-        <v>21.7731827154857</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I22" t="n">
-        <v>73.64589818284934</v>
+        <v>73.64589818284927</v>
       </c>
       <c r="J22" t="n">
-        <v>173.1391022273335</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K22" t="n">
-        <v>284.5207311900889</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L22" t="n">
-        <v>364.0885788640622</v>
+        <v>364.0885788640619</v>
       </c>
       <c r="M22" t="n">
-        <v>383.8803574265026</v>
+        <v>383.8803574265022</v>
       </c>
       <c r="N22" t="n">
-        <v>374.7525405416878</v>
+        <v>374.7525405416875</v>
       </c>
       <c r="O22" t="n">
-        <v>346.1446266465966</v>
+        <v>346.1446266465963</v>
       </c>
       <c r="P22" t="n">
-        <v>296.1865264282427</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q22" t="n">
-        <v>205.0641983561745</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R22" t="n">
-        <v>110.112639786086</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S22" t="n">
-        <v>42.67810967851333</v>
+        <v>42.67810967851329</v>
       </c>
       <c r="T22" t="n">
-        <v>10.4635949655197</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1335778080704645</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.459461502377432</v>
+        <v>5.459461502377426</v>
       </c>
       <c r="H23" t="n">
-        <v>55.91171011122289</v>
+        <v>55.91171011122283</v>
       </c>
       <c r="I23" t="n">
-        <v>210.4758895704061</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
-        <v>463.364970687407</v>
+        <v>463.3649706874065</v>
       </c>
       <c r="K23" t="n">
-        <v>694.4639760830438</v>
+        <v>694.4639760830431</v>
       </c>
       <c r="L23" t="n">
-        <v>861.5439710364274</v>
+        <v>861.5439710364265</v>
       </c>
       <c r="M23" t="n">
-        <v>958.6336695293319</v>
+        <v>958.633669529331</v>
       </c>
       <c r="N23" t="n">
-        <v>974.1453645229619</v>
+        <v>974.1453645229609</v>
       </c>
       <c r="O23" t="n">
-        <v>919.8578442086962</v>
+        <v>919.8578442086953</v>
       </c>
       <c r="P23" t="n">
-        <v>785.0773883687533</v>
+        <v>785.0773883687525</v>
       </c>
       <c r="Q23" t="n">
-        <v>589.5604233148613</v>
+        <v>589.5604233148607</v>
       </c>
       <c r="R23" t="n">
-        <v>342.9428985987167</v>
+        <v>342.9428985987163</v>
       </c>
       <c r="S23" t="n">
-        <v>124.4074789854259</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T23" t="n">
-        <v>23.89879272665722</v>
+        <v>23.8987927266572</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4367569201901945</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,34 +32779,34 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.921069425540908</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H24" t="n">
-        <v>28.21138103088193</v>
+        <v>28.21138103088191</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>275.9770021735821</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L24" t="n">
-        <v>634.2436048745732</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>740.1323715504309</v>
+        <v>740.1323715504302</v>
       </c>
       <c r="N24" t="n">
-        <v>759.7214730927647</v>
+        <v>759.7214730927639</v>
       </c>
       <c r="O24" t="n">
-        <v>694.9967242426213</v>
+        <v>694.9967242426205</v>
       </c>
       <c r="P24" t="n">
-        <v>195.1793561990784</v>
+        <v>357.0213665833166</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.25758340862166</v>
+        <v>54.25758340862161</v>
       </c>
       <c r="T24" t="n">
-        <v>11.77395965821094</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1921756201013756</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.448926481291846</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H25" t="n">
-        <v>21.7731827154857</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I25" t="n">
-        <v>73.64589818284934</v>
+        <v>73.64589818284927</v>
       </c>
       <c r="J25" t="n">
-        <v>173.1391022273335</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K25" t="n">
-        <v>284.5207311900889</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L25" t="n">
-        <v>364.0885788640622</v>
+        <v>364.0885788640619</v>
       </c>
       <c r="M25" t="n">
-        <v>383.8803574265026</v>
+        <v>383.8803574265022</v>
       </c>
       <c r="N25" t="n">
-        <v>374.7525405416878</v>
+        <v>374.7525405416875</v>
       </c>
       <c r="O25" t="n">
-        <v>346.1446266465966</v>
+        <v>346.1446266465963</v>
       </c>
       <c r="P25" t="n">
-        <v>296.1865264282427</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q25" t="n">
-        <v>205.0641983561745</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R25" t="n">
-        <v>110.112639786086</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S25" t="n">
-        <v>42.67810967851333</v>
+        <v>42.67810967851329</v>
       </c>
       <c r="T25" t="n">
-        <v>10.4635949655197</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1335778080704645</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.459461502377432</v>
+        <v>5.459461502377426</v>
       </c>
       <c r="H26" t="n">
-        <v>55.91171011122289</v>
+        <v>55.91171011122283</v>
       </c>
       <c r="I26" t="n">
-        <v>210.4758895704061</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
-        <v>463.364970687407</v>
+        <v>463.3649706874065</v>
       </c>
       <c r="K26" t="n">
-        <v>694.4639760830438</v>
+        <v>694.4639760830431</v>
       </c>
       <c r="L26" t="n">
-        <v>861.5439710364274</v>
+        <v>861.5439710364265</v>
       </c>
       <c r="M26" t="n">
-        <v>958.6336695293319</v>
+        <v>958.633669529331</v>
       </c>
       <c r="N26" t="n">
-        <v>974.1453645229619</v>
+        <v>974.1453645229609</v>
       </c>
       <c r="O26" t="n">
-        <v>919.8578442086962</v>
+        <v>919.8578442086953</v>
       </c>
       <c r="P26" t="n">
-        <v>785.0773883687533</v>
+        <v>785.0773883687525</v>
       </c>
       <c r="Q26" t="n">
-        <v>589.5604233148613</v>
+        <v>589.5604233148607</v>
       </c>
       <c r="R26" t="n">
-        <v>342.9428985987167</v>
+        <v>342.9428985987163</v>
       </c>
       <c r="S26" t="n">
-        <v>124.4074789854259</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T26" t="n">
-        <v>23.89879272665722</v>
+        <v>23.8987927266572</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4367569201901945</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,34 +33016,34 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.921069425540908</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H27" t="n">
-        <v>28.21138103088193</v>
+        <v>28.21138103088191</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>275.9770021735821</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L27" t="n">
-        <v>271.6268178754055</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M27" t="n">
-        <v>740.1323715504309</v>
+        <v>740.1323715504302</v>
       </c>
       <c r="N27" t="n">
-        <v>759.7214730927647</v>
+        <v>615.6579511813127</v>
       </c>
       <c r="O27" t="n">
-        <v>694.9967242426213</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>557.796143198246</v>
+        <v>557.7961431982454</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.25758340862166</v>
+        <v>54.25758340862161</v>
       </c>
       <c r="T27" t="n">
-        <v>11.77395965821094</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1921756201013756</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2.448926481291846</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H28" t="n">
-        <v>21.7731827154857</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I28" t="n">
-        <v>73.64589818284934</v>
+        <v>73.64589818284927</v>
       </c>
       <c r="J28" t="n">
-        <v>173.1391022273335</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K28" t="n">
-        <v>284.5207311900889</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L28" t="n">
-        <v>364.0885788640622</v>
+        <v>364.0885788640619</v>
       </c>
       <c r="M28" t="n">
-        <v>383.8803574265026</v>
+        <v>383.8803574265022</v>
       </c>
       <c r="N28" t="n">
-        <v>374.7525405416878</v>
+        <v>374.7525405416875</v>
       </c>
       <c r="O28" t="n">
-        <v>346.1446266465966</v>
+        <v>346.1446266465963</v>
       </c>
       <c r="P28" t="n">
-        <v>296.1865264282427</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q28" t="n">
-        <v>205.0641983561745</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R28" t="n">
-        <v>110.112639786086</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S28" t="n">
-        <v>42.67810967851333</v>
+        <v>42.67810967851329</v>
       </c>
       <c r="T28" t="n">
-        <v>10.4635949655197</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1335778080704645</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.459461502377432</v>
+        <v>5.459461502377426</v>
       </c>
       <c r="H29" t="n">
-        <v>55.91171011122289</v>
+        <v>55.91171011122283</v>
       </c>
       <c r="I29" t="n">
-        <v>210.4758895704061</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
-        <v>463.364970687407</v>
+        <v>463.3649706874065</v>
       </c>
       <c r="K29" t="n">
-        <v>694.4639760830438</v>
+        <v>694.4639760830431</v>
       </c>
       <c r="L29" t="n">
-        <v>861.5439710364274</v>
+        <v>861.5439710364265</v>
       </c>
       <c r="M29" t="n">
-        <v>958.6336695293319</v>
+        <v>958.633669529331</v>
       </c>
       <c r="N29" t="n">
-        <v>974.1453645229619</v>
+        <v>974.1453645229609</v>
       </c>
       <c r="O29" t="n">
-        <v>919.8578442086962</v>
+        <v>919.8578442086953</v>
       </c>
       <c r="P29" t="n">
-        <v>785.0773883687533</v>
+        <v>785.0773883687525</v>
       </c>
       <c r="Q29" t="n">
-        <v>589.5604233148613</v>
+        <v>589.5604233148607</v>
       </c>
       <c r="R29" t="n">
-        <v>342.9428985987167</v>
+        <v>342.9428985987163</v>
       </c>
       <c r="S29" t="n">
-        <v>124.4074789854259</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T29" t="n">
-        <v>23.89879272665722</v>
+        <v>23.8987927266572</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4367569201901945</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,31 +33253,31 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.921069425540908</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H30" t="n">
-        <v>28.21138103088193</v>
+        <v>28.21138103088191</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>275.9770021735821</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K30" t="n">
-        <v>199.0463877591069</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L30" t="n">
-        <v>634.2436048745732</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M30" t="n">
-        <v>740.1323715504309</v>
+        <v>740.1323715504302</v>
       </c>
       <c r="N30" t="n">
-        <v>759.7214730927647</v>
+        <v>487.0792071670518</v>
       </c>
       <c r="O30" t="n">
-        <v>694.9967242426213</v>
+        <v>694.9967242426205</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.25758340862166</v>
+        <v>54.25758340862161</v>
       </c>
       <c r="T30" t="n">
-        <v>11.77395965821094</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1921756201013756</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.448926481291846</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H31" t="n">
-        <v>21.7731827154857</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I31" t="n">
-        <v>73.64589818284934</v>
+        <v>73.64589818284927</v>
       </c>
       <c r="J31" t="n">
-        <v>173.1391022273335</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K31" t="n">
-        <v>284.5207311900889</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L31" t="n">
-        <v>364.0885788640622</v>
+        <v>364.0885788640619</v>
       </c>
       <c r="M31" t="n">
-        <v>383.8803574265026</v>
+        <v>383.8803574265022</v>
       </c>
       <c r="N31" t="n">
-        <v>374.7525405416878</v>
+        <v>374.7525405416875</v>
       </c>
       <c r="O31" t="n">
-        <v>346.1446266465966</v>
+        <v>346.1446266465963</v>
       </c>
       <c r="P31" t="n">
-        <v>296.1865264282427</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q31" t="n">
-        <v>205.0641983561745</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R31" t="n">
-        <v>110.112639786086</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S31" t="n">
-        <v>42.67810967851333</v>
+        <v>42.67810967851329</v>
       </c>
       <c r="T31" t="n">
-        <v>10.4635949655197</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1335778080704645</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.459461502377432</v>
+        <v>5.459461502377426</v>
       </c>
       <c r="H32" t="n">
-        <v>55.91171011122289</v>
+        <v>55.91171011122283</v>
       </c>
       <c r="I32" t="n">
-        <v>210.4758895704061</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
-        <v>463.364970687407</v>
+        <v>463.3649706874065</v>
       </c>
       <c r="K32" t="n">
-        <v>694.4639760830438</v>
+        <v>694.4639760830431</v>
       </c>
       <c r="L32" t="n">
-        <v>861.5439710364274</v>
+        <v>861.5439710364265</v>
       </c>
       <c r="M32" t="n">
-        <v>958.6336695293319</v>
+        <v>958.633669529331</v>
       </c>
       <c r="N32" t="n">
-        <v>974.1453645229619</v>
+        <v>974.1453645229609</v>
       </c>
       <c r="O32" t="n">
-        <v>919.8578442086962</v>
+        <v>919.8578442086953</v>
       </c>
       <c r="P32" t="n">
-        <v>785.0773883687533</v>
+        <v>785.0773883687525</v>
       </c>
       <c r="Q32" t="n">
-        <v>589.5604233148613</v>
+        <v>589.5604233148607</v>
       </c>
       <c r="R32" t="n">
-        <v>342.9428985987167</v>
+        <v>342.9428985987163</v>
       </c>
       <c r="S32" t="n">
-        <v>124.4074789854259</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T32" t="n">
-        <v>23.89879272665722</v>
+        <v>23.8987927266572</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4367569201901945</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,34 +33490,34 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.921069425540908</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H33" t="n">
-        <v>28.21138103088193</v>
+        <v>28.21138103088191</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>275.9770021735821</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K33" t="n">
-        <v>471.688653684823</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L33" t="n">
-        <v>634.2436048745732</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M33" t="n">
-        <v>740.1323715504309</v>
+        <v>740.1323715504302</v>
       </c>
       <c r="N33" t="n">
-        <v>759.7214730927647</v>
+        <v>615.6579511813127</v>
       </c>
       <c r="O33" t="n">
-        <v>422.3544583169052</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>557.7961431982454</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.25758340862166</v>
+        <v>54.25758340862161</v>
       </c>
       <c r="T33" t="n">
-        <v>11.77395965821094</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1921756201013756</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.448926481291846</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H34" t="n">
-        <v>21.7731827154857</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I34" t="n">
-        <v>73.64589818284934</v>
+        <v>73.64589818284927</v>
       </c>
       <c r="J34" t="n">
-        <v>173.1391022273335</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K34" t="n">
-        <v>284.5207311900889</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L34" t="n">
-        <v>364.0885788640622</v>
+        <v>364.0885788640619</v>
       </c>
       <c r="M34" t="n">
-        <v>383.8803574265026</v>
+        <v>383.8803574265022</v>
       </c>
       <c r="N34" t="n">
-        <v>374.7525405416878</v>
+        <v>374.7525405416875</v>
       </c>
       <c r="O34" t="n">
-        <v>346.1446266465966</v>
+        <v>346.1446266465963</v>
       </c>
       <c r="P34" t="n">
-        <v>296.1865264282427</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q34" t="n">
-        <v>205.0641983561745</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R34" t="n">
-        <v>110.112639786086</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S34" t="n">
-        <v>42.67810967851333</v>
+        <v>42.67810967851329</v>
       </c>
       <c r="T34" t="n">
-        <v>10.4635949655197</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1335778080704645</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.459461502377432</v>
+        <v>5.459461502377426</v>
       </c>
       <c r="H35" t="n">
-        <v>55.91171011122289</v>
+        <v>55.91171011122283</v>
       </c>
       <c r="I35" t="n">
-        <v>210.4758895704061</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
-        <v>463.364970687407</v>
+        <v>463.3649706874065</v>
       </c>
       <c r="K35" t="n">
-        <v>694.4639760830438</v>
+        <v>694.4639760830431</v>
       </c>
       <c r="L35" t="n">
-        <v>861.5439710364274</v>
+        <v>861.5439710364265</v>
       </c>
       <c r="M35" t="n">
-        <v>958.6336695293319</v>
+        <v>958.633669529331</v>
       </c>
       <c r="N35" t="n">
-        <v>974.1453645229619</v>
+        <v>974.1453645229609</v>
       </c>
       <c r="O35" t="n">
-        <v>919.8578442086962</v>
+        <v>919.8578442086953</v>
       </c>
       <c r="P35" t="n">
-        <v>785.0773883687533</v>
+        <v>785.0773883687525</v>
       </c>
       <c r="Q35" t="n">
-        <v>589.5604233148613</v>
+        <v>589.5604233148607</v>
       </c>
       <c r="R35" t="n">
-        <v>342.9428985987167</v>
+        <v>342.9428985987163</v>
       </c>
       <c r="S35" t="n">
-        <v>124.4074789854259</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T35" t="n">
-        <v>23.89879272665722</v>
+        <v>23.8987927266572</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4367569201901945</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.921069425540908</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H36" t="n">
-        <v>28.21138103088193</v>
+        <v>28.21138103088191</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>275.9770021735821</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K36" t="n">
-        <v>471.688653684823</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L36" t="n">
-        <v>302.8877650506799</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>740.1323715504302</v>
       </c>
       <c r="N36" t="n">
-        <v>759.7214730927647</v>
+        <v>615.6579511813127</v>
       </c>
       <c r="O36" t="n">
-        <v>694.9967242426213</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>557.796143198246</v>
+        <v>557.7961431982454</v>
       </c>
       <c r="Q36" t="n">
-        <v>372.8719498286956</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.25758340862166</v>
+        <v>54.25758340862161</v>
       </c>
       <c r="T36" t="n">
-        <v>11.77395965821094</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1921756201013756</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.448926481291846</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H37" t="n">
-        <v>21.7731827154857</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I37" t="n">
-        <v>73.64589818284934</v>
+        <v>73.64589818284927</v>
       </c>
       <c r="J37" t="n">
-        <v>173.1391022273335</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K37" t="n">
-        <v>284.5207311900889</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L37" t="n">
-        <v>364.0885788640622</v>
+        <v>364.0885788640619</v>
       </c>
       <c r="M37" t="n">
-        <v>383.8803574265026</v>
+        <v>383.8803574265022</v>
       </c>
       <c r="N37" t="n">
-        <v>374.7525405416878</v>
+        <v>374.7525405416875</v>
       </c>
       <c r="O37" t="n">
-        <v>346.1446266465966</v>
+        <v>346.1446266465963</v>
       </c>
       <c r="P37" t="n">
-        <v>296.1865264282427</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q37" t="n">
-        <v>205.0641983561745</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R37" t="n">
-        <v>110.112639786086</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S37" t="n">
-        <v>42.67810967851333</v>
+        <v>42.67810967851329</v>
       </c>
       <c r="T37" t="n">
-        <v>10.4635949655197</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1335778080704645</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.459461502377432</v>
+        <v>5.459461502377426</v>
       </c>
       <c r="H38" t="n">
-        <v>55.91171011122289</v>
+        <v>55.91171011122283</v>
       </c>
       <c r="I38" t="n">
-        <v>210.4758895704061</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
-        <v>463.364970687407</v>
+        <v>463.3649706874065</v>
       </c>
       <c r="K38" t="n">
-        <v>694.4639760830438</v>
+        <v>694.4639760830431</v>
       </c>
       <c r="L38" t="n">
-        <v>861.5439710364274</v>
+        <v>861.5439710364265</v>
       </c>
       <c r="M38" t="n">
-        <v>958.6336695293319</v>
+        <v>958.633669529331</v>
       </c>
       <c r="N38" t="n">
-        <v>974.1453645229619</v>
+        <v>974.1453645229609</v>
       </c>
       <c r="O38" t="n">
-        <v>919.8578442086962</v>
+        <v>919.8578442086953</v>
       </c>
       <c r="P38" t="n">
-        <v>785.0773883687533</v>
+        <v>785.0773883687525</v>
       </c>
       <c r="Q38" t="n">
-        <v>589.5604233148613</v>
+        <v>589.5604233148607</v>
       </c>
       <c r="R38" t="n">
-        <v>342.9428985987167</v>
+        <v>342.9428985987163</v>
       </c>
       <c r="S38" t="n">
-        <v>124.4074789854259</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T38" t="n">
-        <v>23.89879272665722</v>
+        <v>23.8987927266572</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4367569201901945</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.921069425540908</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H39" t="n">
-        <v>28.21138103088193</v>
+        <v>28.21138103088191</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>275.9770021735821</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K39" t="n">
-        <v>471.688653684823</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L39" t="n">
-        <v>634.2436048745732</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M39" t="n">
-        <v>740.1323715504309</v>
+        <v>740.1323715504302</v>
       </c>
       <c r="N39" t="n">
-        <v>382.7677754386357</v>
+        <v>759.7214730927639</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>422.3544583169084</v>
       </c>
       <c r="P39" t="n">
-        <v>557.796143198246</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>372.8719498286956</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.25758340862166</v>
+        <v>54.25758340862161</v>
       </c>
       <c r="T39" t="n">
-        <v>11.77395965821094</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1921756201013756</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.448926481291846</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H40" t="n">
-        <v>21.7731827154857</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I40" t="n">
-        <v>73.64589818284934</v>
+        <v>73.64589818284927</v>
       </c>
       <c r="J40" t="n">
-        <v>173.1391022273335</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K40" t="n">
-        <v>284.5207311900889</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L40" t="n">
-        <v>364.0885788640622</v>
+        <v>364.0885788640619</v>
       </c>
       <c r="M40" t="n">
-        <v>383.8803574265026</v>
+        <v>383.8803574265022</v>
       </c>
       <c r="N40" t="n">
-        <v>374.7525405416878</v>
+        <v>374.7525405416875</v>
       </c>
       <c r="O40" t="n">
-        <v>346.1446266465966</v>
+        <v>346.1446266465963</v>
       </c>
       <c r="P40" t="n">
-        <v>296.1865264282427</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q40" t="n">
-        <v>205.0641983561745</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R40" t="n">
-        <v>110.112639786086</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S40" t="n">
-        <v>42.67810967851333</v>
+        <v>42.67810967851329</v>
       </c>
       <c r="T40" t="n">
-        <v>10.4635949655197</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1335778080704645</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.459461502377432</v>
+        <v>5.459461502377426</v>
       </c>
       <c r="H41" t="n">
-        <v>55.91171011122289</v>
+        <v>55.91171011122283</v>
       </c>
       <c r="I41" t="n">
-        <v>210.4758895704061</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
-        <v>463.364970687407</v>
+        <v>463.3649706874065</v>
       </c>
       <c r="K41" t="n">
-        <v>694.4639760830438</v>
+        <v>694.4639760830431</v>
       </c>
       <c r="L41" t="n">
-        <v>861.5439710364274</v>
+        <v>861.5439710364265</v>
       </c>
       <c r="M41" t="n">
-        <v>958.6336695293319</v>
+        <v>958.633669529331</v>
       </c>
       <c r="N41" t="n">
-        <v>974.1453645229619</v>
+        <v>974.1453645229609</v>
       </c>
       <c r="O41" t="n">
-        <v>919.8578442086962</v>
+        <v>919.8578442086953</v>
       </c>
       <c r="P41" t="n">
-        <v>785.0773883687533</v>
+        <v>785.0773883687525</v>
       </c>
       <c r="Q41" t="n">
-        <v>589.5604233148613</v>
+        <v>589.5604233148607</v>
       </c>
       <c r="R41" t="n">
-        <v>342.9428985987167</v>
+        <v>342.9428985987163</v>
       </c>
       <c r="S41" t="n">
-        <v>124.4074789854259</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T41" t="n">
-        <v>23.89879272665722</v>
+        <v>23.8987927266572</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4367569201901945</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.921069425540908</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H42" t="n">
-        <v>28.21138103088193</v>
+        <v>28.21138103088191</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>275.9770021735821</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K42" t="n">
-        <v>471.688653684823</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L42" t="n">
-        <v>634.2436048745732</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M42" t="n">
-        <v>740.1323715504309</v>
+        <v>439.1579551075595</v>
       </c>
       <c r="N42" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>394.0223077997468</v>
+        <v>694.9967242426205</v>
       </c>
       <c r="P42" t="n">
-        <v>557.796143198246</v>
+        <v>557.7961431982454</v>
       </c>
       <c r="Q42" t="n">
-        <v>372.8719498286956</v>
+        <v>372.8719498286953</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.25758340862166</v>
+        <v>54.25758340862161</v>
       </c>
       <c r="T42" t="n">
-        <v>11.77395965821094</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1921756201013756</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.448926481291846</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H43" t="n">
-        <v>21.7731827154857</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I43" t="n">
-        <v>73.64589818284934</v>
+        <v>73.64589818284927</v>
       </c>
       <c r="J43" t="n">
-        <v>173.1391022273335</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K43" t="n">
-        <v>284.5207311900889</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L43" t="n">
-        <v>364.0885788640622</v>
+        <v>364.0885788640619</v>
       </c>
       <c r="M43" t="n">
-        <v>383.8803574265026</v>
+        <v>383.8803574265022</v>
       </c>
       <c r="N43" t="n">
-        <v>374.7525405416878</v>
+        <v>374.7525405416875</v>
       </c>
       <c r="O43" t="n">
-        <v>346.1446266465966</v>
+        <v>346.1446266465963</v>
       </c>
       <c r="P43" t="n">
-        <v>296.1865264282427</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q43" t="n">
-        <v>205.0641983561745</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R43" t="n">
-        <v>110.112639786086</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S43" t="n">
-        <v>42.67810967851333</v>
+        <v>42.67810967851329</v>
       </c>
       <c r="T43" t="n">
-        <v>10.4635949655197</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1335778080704645</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.459461502377456</v>
+        <v>5.459461502377426</v>
       </c>
       <c r="H44" t="n">
-        <v>55.91171011122314</v>
+        <v>55.91171011122283</v>
       </c>
       <c r="I44" t="n">
-        <v>210.4758895704071</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>463.3649706874091</v>
+        <v>463.3649706874065</v>
       </c>
       <c r="K44" t="n">
-        <v>694.463976083047</v>
+        <v>694.4639760830431</v>
       </c>
       <c r="L44" t="n">
-        <v>861.5439710364312</v>
+        <v>861.5439710364265</v>
       </c>
       <c r="M44" t="n">
-        <v>958.6336695293362</v>
+        <v>958.633669529331</v>
       </c>
       <c r="N44" t="n">
-        <v>974.1453645229662</v>
+        <v>974.1453645229609</v>
       </c>
       <c r="O44" t="n">
-        <v>919.8578442087004</v>
+        <v>919.8578442086953</v>
       </c>
       <c r="P44" t="n">
-        <v>785.0773883687568</v>
+        <v>785.0773883687525</v>
       </c>
       <c r="Q44" t="n">
-        <v>589.560423314864</v>
+        <v>589.5604233148607</v>
       </c>
       <c r="R44" t="n">
-        <v>342.9428985987182</v>
+        <v>342.9428985987163</v>
       </c>
       <c r="S44" t="n">
-        <v>124.4074789854264</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T44" t="n">
-        <v>23.89879272665733</v>
+        <v>23.8987927266572</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4367569201901964</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,34 +34438,34 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.921069425540922</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H45" t="n">
-        <v>28.21138103088206</v>
+        <v>28.21138103088191</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>275.9770021735833</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K45" t="n">
-        <v>199.0463877590923</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>634.243604874576</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M45" t="n">
-        <v>740.1323715504343</v>
+        <v>740.1323715504302</v>
       </c>
       <c r="N45" t="n">
-        <v>759.7214730927681</v>
+        <v>759.7214730927639</v>
       </c>
       <c r="O45" t="n">
-        <v>694.9967242426244</v>
+        <v>694.9967242426205</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>195.1793561990816</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.2575834086219</v>
+        <v>54.25758340862161</v>
       </c>
       <c r="T45" t="n">
-        <v>11.77395965821099</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1921756201013765</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.448926481291857</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H46" t="n">
-        <v>21.7731827154858</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I46" t="n">
-        <v>73.64589818284968</v>
+        <v>73.64589818284927</v>
       </c>
       <c r="J46" t="n">
-        <v>173.1391022273343</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K46" t="n">
-        <v>284.5207311900902</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L46" t="n">
-        <v>364.0885788640639</v>
+        <v>364.0885788640619</v>
       </c>
       <c r="M46" t="n">
-        <v>383.8803574265044</v>
+        <v>383.8803574265022</v>
       </c>
       <c r="N46" t="n">
-        <v>374.7525405416895</v>
+        <v>374.7525405416875</v>
       </c>
       <c r="O46" t="n">
-        <v>346.1446266465982</v>
+        <v>346.1446266465963</v>
       </c>
       <c r="P46" t="n">
-        <v>296.1865264282441</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q46" t="n">
-        <v>205.0641983561754</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R46" t="n">
-        <v>110.1126397860865</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S46" t="n">
-        <v>42.67810967851352</v>
+        <v>42.67810967851329</v>
       </c>
       <c r="T46" t="n">
-        <v>10.46359496551975</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1335778080704651</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34777,13 +34777,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>365.284463230715</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
@@ -34798,7 +34798,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34950,10 +34950,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35023,13 +35023,13 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279167</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35187,13 +35187,13 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35266,7 +35266,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>333.6317139898036</v>
+        <v>282.3190661607202</v>
       </c>
       <c r="K11" t="n">
-        <v>474.3741250380633</v>
+        <v>474.3741250380626</v>
       </c>
       <c r="L11" t="n">
-        <v>625.7775560664402</v>
+        <v>625.7775560664393</v>
       </c>
       <c r="M11" t="n">
-        <v>728.2874363020592</v>
+        <v>728.2874363020583</v>
       </c>
       <c r="N11" t="n">
-        <v>744.732300926371</v>
+        <v>744.73230092637</v>
       </c>
       <c r="O11" t="n">
-        <v>689.7596327870094</v>
+        <v>689.7596327870085</v>
       </c>
       <c r="P11" t="n">
-        <v>553.8443926134837</v>
+        <v>553.844392613483</v>
       </c>
       <c r="Q11" t="n">
-        <v>367.2547334404118</v>
+        <v>367.2547334404112</v>
       </c>
       <c r="R11" t="n">
-        <v>127.3573607845846</v>
+        <v>178.6700086136732</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>149.1393755069154</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K12" t="n">
-        <v>333.847214710464</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L12" t="n">
-        <v>495.689225094699</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M12" t="n">
-        <v>597.9983376284126</v>
+        <v>297.0239211855412</v>
       </c>
       <c r="N12" t="n">
-        <v>628.3797610094314</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>279.7582138724608</v>
+        <v>552.4004797981761</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>423.8217357839152</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>232.8901757426738</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>79.77992211066069</v>
+        <v>79.77992211066052</v>
       </c>
       <c r="K13" t="n">
-        <v>262.2512393642061</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L13" t="n">
-        <v>391.6786041243784</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M13" t="n">
-        <v>423.4642343883432</v>
+        <v>423.4642343883428</v>
       </c>
       <c r="N13" t="n">
-        <v>418.8847129209164</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O13" t="n">
-        <v>370.7297545606363</v>
+        <v>370.729754560636</v>
       </c>
       <c r="P13" t="n">
-        <v>293.4650856931362</v>
+        <v>293.4650856931359</v>
       </c>
       <c r="Q13" t="n">
-        <v>118.9021551044801</v>
+        <v>118.9021551044799</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>282.3190661607207</v>
+        <v>282.3190661607202</v>
       </c>
       <c r="K14" t="n">
-        <v>474.3741250380633</v>
+        <v>474.3741250380626</v>
       </c>
       <c r="L14" t="n">
-        <v>625.7775560664402</v>
+        <v>625.7775560664393</v>
       </c>
       <c r="M14" t="n">
-        <v>728.2874363020592</v>
+        <v>728.2874363020583</v>
       </c>
       <c r="N14" t="n">
-        <v>744.732300926371</v>
+        <v>744.73230092637</v>
       </c>
       <c r="O14" t="n">
-        <v>689.7596327870094</v>
+        <v>689.7596327870085</v>
       </c>
       <c r="P14" t="n">
-        <v>553.8443926134837</v>
+        <v>553.844392613483</v>
       </c>
       <c r="Q14" t="n">
-        <v>418.5673812694936</v>
+        <v>418.5673812695001</v>
       </c>
       <c r="R14" t="n">
-        <v>127.3573607845846</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,25 +35725,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>149.1393755069154</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K15" t="n">
-        <v>333.847214710464</v>
+        <v>235.3815506292481</v>
       </c>
       <c r="L15" t="n">
-        <v>495.689225094699</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M15" t="n">
-        <v>597.9983376284126</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>628.3797610094306</v>
       </c>
       <c r="O15" t="n">
-        <v>552.4004797981769</v>
+        <v>552.4004797981761</v>
       </c>
       <c r="P15" t="n">
-        <v>355.7374950837152</v>
+        <v>423.8217357839152</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>79.77992211066069</v>
+        <v>79.77992211066052</v>
       </c>
       <c r="K16" t="n">
-        <v>262.2512393642061</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L16" t="n">
-        <v>391.6786041243784</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M16" t="n">
-        <v>423.4642343883432</v>
+        <v>423.4642343883428</v>
       </c>
       <c r="N16" t="n">
-        <v>418.8847129209164</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O16" t="n">
-        <v>370.7297545606363</v>
+        <v>370.729754560636</v>
       </c>
       <c r="P16" t="n">
-        <v>293.4650856931362</v>
+        <v>293.4650856931359</v>
       </c>
       <c r="Q16" t="n">
-        <v>118.9021551044801</v>
+        <v>118.9021551044799</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>282.3190661607207</v>
+        <v>282.3190661607202</v>
       </c>
       <c r="K17" t="n">
-        <v>474.3741250380633</v>
+        <v>474.3741250380626</v>
       </c>
       <c r="L17" t="n">
-        <v>625.7775560664402</v>
+        <v>625.7775560664393</v>
       </c>
       <c r="M17" t="n">
-        <v>779.600084131141</v>
+        <v>728.2874363020583</v>
       </c>
       <c r="N17" t="n">
-        <v>744.732300926371</v>
+        <v>744.73230092637</v>
       </c>
       <c r="O17" t="n">
-        <v>689.7596327870094</v>
+        <v>741.0722806160982</v>
       </c>
       <c r="P17" t="n">
-        <v>553.8443926134837</v>
+        <v>553.844392613483</v>
       </c>
       <c r="Q17" t="n">
-        <v>367.2547334404118</v>
+        <v>367.2547334404112</v>
       </c>
       <c r="R17" t="n">
-        <v>127.3573607845846</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>149.1393755069154</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>397.223561013483</v>
       </c>
       <c r="M18" t="n">
-        <v>597.9983376284126</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>528.5620233622886</v>
+        <v>628.3797610094306</v>
       </c>
       <c r="O18" t="n">
-        <v>552.4004797981769</v>
+        <v>552.4004797981761</v>
       </c>
       <c r="P18" t="n">
-        <v>423.8217357839158</v>
+        <v>423.8217357839152</v>
       </c>
       <c r="Q18" t="n">
-        <v>232.8901757426741</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>79.77992211066069</v>
+        <v>79.77992211066052</v>
       </c>
       <c r="K19" t="n">
-        <v>262.2512393642061</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L19" t="n">
-        <v>391.6786041243784</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M19" t="n">
-        <v>423.4642343883432</v>
+        <v>423.4642343883428</v>
       </c>
       <c r="N19" t="n">
-        <v>418.8847129209164</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O19" t="n">
-        <v>370.7297545606363</v>
+        <v>370.729754560636</v>
       </c>
       <c r="P19" t="n">
-        <v>293.4650856931362</v>
+        <v>293.4650856931359</v>
       </c>
       <c r="Q19" t="n">
-        <v>118.9021551044801</v>
+        <v>118.9021551044799</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>282.3190661607207</v>
+        <v>282.3190661607202</v>
       </c>
       <c r="K20" t="n">
-        <v>474.3741250380633</v>
+        <v>474.3741250380626</v>
       </c>
       <c r="L20" t="n">
-        <v>625.7775560664402</v>
+        <v>625.7775560664393</v>
       </c>
       <c r="M20" t="n">
-        <v>728.2874363020592</v>
+        <v>728.2874363020583</v>
       </c>
       <c r="N20" t="n">
-        <v>744.732300926371</v>
+        <v>744.73230092637</v>
       </c>
       <c r="O20" t="n">
-        <v>689.7596327870094</v>
+        <v>689.7596327870085</v>
       </c>
       <c r="P20" t="n">
-        <v>553.8443926134837</v>
+        <v>553.844392613483</v>
       </c>
       <c r="Q20" t="n">
-        <v>367.2547334404118</v>
+        <v>367.2547334404112</v>
       </c>
       <c r="R20" t="n">
-        <v>178.6700086136676</v>
+        <v>178.6700086136732</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,25 +36199,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>149.1393755069154</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K21" t="n">
-        <v>333.847214710464</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L21" t="n">
-        <v>495.689225094699</v>
+        <v>397.223561013483</v>
       </c>
       <c r="M21" t="n">
-        <v>597.9983376284126</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>355.7374950837152</v>
+        <v>628.3797610094306</v>
       </c>
       <c r="O21" t="n">
-        <v>552.4004797981769</v>
+        <v>552.4004797981761</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>423.8217357839152</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>79.77992211066069</v>
+        <v>79.77992211066052</v>
       </c>
       <c r="K22" t="n">
-        <v>262.2512393642061</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L22" t="n">
-        <v>391.6786041243784</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M22" t="n">
-        <v>423.4642343883432</v>
+        <v>423.4642343883428</v>
       </c>
       <c r="N22" t="n">
-        <v>418.8847129209164</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O22" t="n">
-        <v>370.7297545606363</v>
+        <v>370.729754560636</v>
       </c>
       <c r="P22" t="n">
-        <v>293.4650856931362</v>
+        <v>293.4650856931359</v>
       </c>
       <c r="Q22" t="n">
-        <v>118.9021551044801</v>
+        <v>118.9021551044799</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>282.3190661607207</v>
+        <v>282.3190661607202</v>
       </c>
       <c r="K23" t="n">
-        <v>474.3741250380633</v>
+        <v>474.3741250380626</v>
       </c>
       <c r="L23" t="n">
-        <v>625.7775560664402</v>
+        <v>625.7775560664393</v>
       </c>
       <c r="M23" t="n">
-        <v>728.2874363020592</v>
+        <v>728.2874363020583</v>
       </c>
       <c r="N23" t="n">
-        <v>744.732300926371</v>
+        <v>744.73230092637</v>
       </c>
       <c r="O23" t="n">
-        <v>689.7596327870094</v>
+        <v>689.7596327870085</v>
       </c>
       <c r="P23" t="n">
-        <v>553.8443926134837</v>
+        <v>553.844392613483</v>
       </c>
       <c r="Q23" t="n">
-        <v>367.2547334404118</v>
+        <v>367.2547334404112</v>
       </c>
       <c r="R23" t="n">
-        <v>178.6700086136676</v>
+        <v>178.6700086136732</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,25 +36436,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>149.1393755069154</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L24" t="n">
-        <v>495.689225094699</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>597.9983376284126</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N24" t="n">
-        <v>628.3797610094314</v>
+        <v>628.3797610094306</v>
       </c>
       <c r="O24" t="n">
-        <v>552.4004797981769</v>
+        <v>552.4004797981761</v>
       </c>
       <c r="P24" t="n">
-        <v>61.20494878474815</v>
+        <v>223.0469591689864</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>79.77992211066069</v>
+        <v>79.77992211066052</v>
       </c>
       <c r="K25" t="n">
-        <v>262.2512393642061</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L25" t="n">
-        <v>391.6786041243784</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M25" t="n">
-        <v>423.4642343883432</v>
+        <v>423.4642343883428</v>
       </c>
       <c r="N25" t="n">
-        <v>418.8847129209164</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O25" t="n">
-        <v>370.7297545606363</v>
+        <v>370.729754560636</v>
       </c>
       <c r="P25" t="n">
-        <v>293.4650856931362</v>
+        <v>293.4650856931359</v>
       </c>
       <c r="Q25" t="n">
-        <v>118.9021551044801</v>
+        <v>118.9021551044799</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>282.3190661607207</v>
+        <v>282.3190661607202</v>
       </c>
       <c r="K26" t="n">
-        <v>474.3741250380633</v>
+        <v>474.3741250380626</v>
       </c>
       <c r="L26" t="n">
-        <v>625.7775560664402</v>
+        <v>625.7775560664393</v>
       </c>
       <c r="M26" t="n">
-        <v>728.2874363020592</v>
+        <v>779.6000841311495</v>
       </c>
       <c r="N26" t="n">
-        <v>744.732300926371</v>
+        <v>744.73230092637</v>
       </c>
       <c r="O26" t="n">
-        <v>689.7596327870094</v>
+        <v>689.7596327870085</v>
       </c>
       <c r="P26" t="n">
-        <v>553.8443926134837</v>
+        <v>553.844392613483</v>
       </c>
       <c r="Q26" t="n">
-        <v>367.2547334404118</v>
+        <v>367.2547334404112</v>
       </c>
       <c r="R26" t="n">
-        <v>178.6700086136676</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,25 +36673,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>149.1393755069154</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L27" t="n">
-        <v>133.0724380955314</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M27" t="n">
-        <v>597.9983376284126</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N27" t="n">
-        <v>628.3797610094314</v>
+        <v>484.3162390979793</v>
       </c>
       <c r="O27" t="n">
-        <v>552.4004797981769</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>423.8217357839158</v>
+        <v>423.8217357839152</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>79.77992211066069</v>
+        <v>79.77992211066052</v>
       </c>
       <c r="K28" t="n">
-        <v>262.2512393642061</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L28" t="n">
-        <v>391.6786041243784</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M28" t="n">
-        <v>423.4642343883432</v>
+        <v>423.4642343883428</v>
       </c>
       <c r="N28" t="n">
-        <v>418.8847129209164</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O28" t="n">
-        <v>370.7297545606363</v>
+        <v>370.729754560636</v>
       </c>
       <c r="P28" t="n">
-        <v>293.4650856931362</v>
+        <v>293.4650856931359</v>
       </c>
       <c r="Q28" t="n">
-        <v>118.9021551044801</v>
+        <v>118.9021551044799</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>333.6317139898036</v>
+        <v>282.3190661607202</v>
       </c>
       <c r="K29" t="n">
-        <v>474.3741250380633</v>
+        <v>474.3741250380626</v>
       </c>
       <c r="L29" t="n">
-        <v>625.7775560664402</v>
+        <v>625.7775560664393</v>
       </c>
       <c r="M29" t="n">
-        <v>728.2874363020592</v>
+        <v>728.2874363020583</v>
       </c>
       <c r="N29" t="n">
-        <v>744.732300926371</v>
+        <v>744.73230092637</v>
       </c>
       <c r="O29" t="n">
-        <v>689.7596327870094</v>
+        <v>689.7596327870085</v>
       </c>
       <c r="P29" t="n">
-        <v>553.8443926134837</v>
+        <v>553.844392613483</v>
       </c>
       <c r="Q29" t="n">
-        <v>367.2547334404118</v>
+        <v>367.2547334404112</v>
       </c>
       <c r="R29" t="n">
-        <v>127.3573607845846</v>
+        <v>178.6700086136741</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,22 +36910,22 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>149.1393755069154</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K30" t="n">
-        <v>61.20494878474792</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L30" t="n">
-        <v>495.689225094699</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M30" t="n">
-        <v>597.9983376284126</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N30" t="n">
-        <v>628.3797610094314</v>
+        <v>355.7374950837184</v>
       </c>
       <c r="O30" t="n">
-        <v>552.4004797981769</v>
+        <v>552.4004797981761</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>79.77992211066069</v>
+        <v>79.77992211066052</v>
       </c>
       <c r="K31" t="n">
-        <v>262.2512393642061</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L31" t="n">
-        <v>391.6786041243784</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M31" t="n">
-        <v>423.4642343883432</v>
+        <v>423.4642343883428</v>
       </c>
       <c r="N31" t="n">
-        <v>418.8847129209164</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O31" t="n">
-        <v>370.7297545606363</v>
+        <v>370.729754560636</v>
       </c>
       <c r="P31" t="n">
-        <v>293.4650856931362</v>
+        <v>293.4650856931359</v>
       </c>
       <c r="Q31" t="n">
-        <v>118.9021551044801</v>
+        <v>118.9021551044799</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>282.3190661607207</v>
+        <v>282.3190661607202</v>
       </c>
       <c r="K32" t="n">
-        <v>474.3741250380633</v>
+        <v>474.3741250380626</v>
       </c>
       <c r="L32" t="n">
-        <v>625.7775560664402</v>
+        <v>625.7775560664393</v>
       </c>
       <c r="M32" t="n">
-        <v>728.2874363020592</v>
+        <v>728.2874363020583</v>
       </c>
       <c r="N32" t="n">
-        <v>744.732300926371</v>
+        <v>744.73230092637</v>
       </c>
       <c r="O32" t="n">
-        <v>689.7596327870094</v>
+        <v>689.7596327870085</v>
       </c>
       <c r="P32" t="n">
-        <v>553.8443926134837</v>
+        <v>553.844392613483</v>
       </c>
       <c r="Q32" t="n">
-        <v>367.2547334404118</v>
+        <v>367.2547334404112</v>
       </c>
       <c r="R32" t="n">
-        <v>178.6700086136676</v>
+        <v>178.6700086136741</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,25 +37147,25 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>149.1393755069154</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K33" t="n">
-        <v>333.847214710464</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L33" t="n">
-        <v>495.689225094699</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M33" t="n">
-        <v>597.9983376284126</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N33" t="n">
-        <v>628.3797610094314</v>
+        <v>484.3162390979793</v>
       </c>
       <c r="O33" t="n">
-        <v>279.7582138724608</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>423.8217357839152</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>79.77992211066069</v>
+        <v>79.77992211066052</v>
       </c>
       <c r="K34" t="n">
-        <v>262.2512393642061</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L34" t="n">
-        <v>391.6786041243784</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M34" t="n">
-        <v>423.4642343883432</v>
+        <v>423.4642343883428</v>
       </c>
       <c r="N34" t="n">
-        <v>418.8847129209164</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O34" t="n">
-        <v>370.7297545606363</v>
+        <v>370.729754560636</v>
       </c>
       <c r="P34" t="n">
-        <v>293.4650856931362</v>
+        <v>293.4650856931359</v>
       </c>
       <c r="Q34" t="n">
-        <v>118.9021551044801</v>
+        <v>118.9021551044799</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>282.3190661607207</v>
+        <v>282.3190661607202</v>
       </c>
       <c r="K35" t="n">
-        <v>474.3741250380633</v>
+        <v>474.3741250380626</v>
       </c>
       <c r="L35" t="n">
-        <v>625.7775560664402</v>
+        <v>625.7775560664393</v>
       </c>
       <c r="M35" t="n">
-        <v>728.2874363020592</v>
+        <v>728.2874363020583</v>
       </c>
       <c r="N35" t="n">
-        <v>744.732300926371</v>
+        <v>744.73230092637</v>
       </c>
       <c r="O35" t="n">
-        <v>741.0722806160918</v>
+        <v>689.7596327870085</v>
       </c>
       <c r="P35" t="n">
-        <v>553.8443926134837</v>
+        <v>553.844392613483</v>
       </c>
       <c r="Q35" t="n">
-        <v>367.2547334404118</v>
+        <v>367.2547334404112</v>
       </c>
       <c r="R35" t="n">
-        <v>127.3573607845846</v>
+        <v>178.6700086136732</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>149.1393755069154</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K36" t="n">
-        <v>333.847214710464</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L36" t="n">
-        <v>164.3333852708058</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N36" t="n">
-        <v>628.3797610094314</v>
+        <v>484.3162390979793</v>
       </c>
       <c r="O36" t="n">
-        <v>552.4004797981769</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>423.8217357839158</v>
+        <v>423.8217357839152</v>
       </c>
       <c r="Q36" t="n">
-        <v>232.8901757426741</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>79.77992211066069</v>
+        <v>79.77992211066052</v>
       </c>
       <c r="K37" t="n">
-        <v>262.2512393642061</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L37" t="n">
-        <v>391.6786041243784</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M37" t="n">
-        <v>423.4642343883432</v>
+        <v>423.4642343883428</v>
       </c>
       <c r="N37" t="n">
-        <v>418.8847129209164</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O37" t="n">
-        <v>370.7297545606363</v>
+        <v>370.729754560636</v>
       </c>
       <c r="P37" t="n">
-        <v>293.4650856931362</v>
+        <v>293.4650856931359</v>
       </c>
       <c r="Q37" t="n">
-        <v>118.9021551044801</v>
+        <v>118.9021551044799</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>282.3190661607207</v>
+        <v>282.3190661607202</v>
       </c>
       <c r="K38" t="n">
-        <v>474.3741250380633</v>
+        <v>474.3741250380626</v>
       </c>
       <c r="L38" t="n">
-        <v>677.090203895523</v>
+        <v>625.7775560664393</v>
       </c>
       <c r="M38" t="n">
-        <v>728.2874363020592</v>
+        <v>728.2874363020583</v>
       </c>
       <c r="N38" t="n">
-        <v>744.732300926371</v>
+        <v>744.73230092637</v>
       </c>
       <c r="O38" t="n">
-        <v>689.7596327870094</v>
+        <v>689.7596327870085</v>
       </c>
       <c r="P38" t="n">
-        <v>553.8443926134837</v>
+        <v>553.844392613483</v>
       </c>
       <c r="Q38" t="n">
-        <v>367.2547334404118</v>
+        <v>367.2547334404112</v>
       </c>
       <c r="R38" t="n">
-        <v>127.3573607845846</v>
+        <v>178.6700086136732</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>149.1393755069154</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K39" t="n">
-        <v>333.847214710464</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L39" t="n">
-        <v>495.689225094699</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M39" t="n">
-        <v>597.9983376284126</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N39" t="n">
-        <v>251.4260633553024</v>
+        <v>628.3797610094306</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>279.758213872464</v>
       </c>
       <c r="P39" t="n">
-        <v>423.8217357839158</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>232.8901757426741</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>79.77992211066069</v>
+        <v>79.77992211066052</v>
       </c>
       <c r="K40" t="n">
-        <v>262.2512393642061</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L40" t="n">
-        <v>391.6786041243784</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M40" t="n">
-        <v>423.4642343883432</v>
+        <v>423.4642343883428</v>
       </c>
       <c r="N40" t="n">
-        <v>418.8847129209164</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O40" t="n">
-        <v>370.7297545606363</v>
+        <v>370.729754560636</v>
       </c>
       <c r="P40" t="n">
-        <v>293.4650856931362</v>
+        <v>293.4650856931359</v>
       </c>
       <c r="Q40" t="n">
-        <v>118.9021551044801</v>
+        <v>118.9021551044799</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>282.3190661607207</v>
+        <v>282.3190661607202</v>
       </c>
       <c r="K41" t="n">
-        <v>474.3741250380633</v>
+        <v>474.3741250380626</v>
       </c>
       <c r="L41" t="n">
-        <v>625.7775560664402</v>
+        <v>625.7775560664393</v>
       </c>
       <c r="M41" t="n">
-        <v>728.2874363020592</v>
+        <v>728.2874363020583</v>
       </c>
       <c r="N41" t="n">
-        <v>744.732300926371</v>
+        <v>744.73230092637</v>
       </c>
       <c r="O41" t="n">
-        <v>741.0722806160918</v>
+        <v>689.7596327870085</v>
       </c>
       <c r="P41" t="n">
-        <v>553.8443926134837</v>
+        <v>553.844392613483</v>
       </c>
       <c r="Q41" t="n">
-        <v>367.2547334404118</v>
+        <v>367.2547334404112</v>
       </c>
       <c r="R41" t="n">
-        <v>127.3573607845846</v>
+        <v>178.6700086136732</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>149.1393755069154</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K42" t="n">
-        <v>333.847214710464</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L42" t="n">
-        <v>495.689225094699</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M42" t="n">
-        <v>597.9983376284126</v>
+        <v>297.0239211855412</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>251.4260633553024</v>
+        <v>552.4004797981761</v>
       </c>
       <c r="P42" t="n">
-        <v>423.8217357839158</v>
+        <v>423.8217357839152</v>
       </c>
       <c r="Q42" t="n">
-        <v>232.8901757426741</v>
+        <v>232.8901757426738</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>79.77992211066069</v>
+        <v>79.77992211066052</v>
       </c>
       <c r="K43" t="n">
-        <v>262.2512393642061</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L43" t="n">
-        <v>391.6786041243784</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M43" t="n">
-        <v>423.4642343883432</v>
+        <v>423.4642343883428</v>
       </c>
       <c r="N43" t="n">
-        <v>418.8847129209164</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O43" t="n">
-        <v>370.7297545606363</v>
+        <v>370.729754560636</v>
       </c>
       <c r="P43" t="n">
-        <v>293.4650856931362</v>
+        <v>293.4650856931359</v>
       </c>
       <c r="Q43" t="n">
-        <v>118.9021551044801</v>
+        <v>118.9021551044799</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>282.3190661607228</v>
+        <v>282.3190661607202</v>
       </c>
       <c r="K44" t="n">
-        <v>474.3741250380664</v>
+        <v>474.3741250380626</v>
       </c>
       <c r="L44" t="n">
-        <v>625.777556066444</v>
+        <v>625.7775560664393</v>
       </c>
       <c r="M44" t="n">
-        <v>779.6000841311146</v>
+        <v>728.2874363020583</v>
       </c>
       <c r="N44" t="n">
-        <v>744.7323009263753</v>
+        <v>744.73230092637</v>
       </c>
       <c r="O44" t="n">
-        <v>689.7596327870136</v>
+        <v>689.7596327870085</v>
       </c>
       <c r="P44" t="n">
-        <v>553.8443926134873</v>
+        <v>553.844392613483</v>
       </c>
       <c r="Q44" t="n">
-        <v>367.2547334404145</v>
+        <v>367.2547334404112</v>
       </c>
       <c r="R44" t="n">
-        <v>127.3573607845861</v>
+        <v>178.6700086136732</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,25 +38095,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>149.1393755069167</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K45" t="n">
-        <v>61.20494878473325</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>495.6892250947018</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M45" t="n">
-        <v>597.998337628416</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N45" t="n">
-        <v>628.3797610094348</v>
+        <v>628.3797610094306</v>
       </c>
       <c r="O45" t="n">
-        <v>552.40047979818</v>
+        <v>552.4004797981761</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>61.20494878475137</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>79.77992211066149</v>
+        <v>79.77992211066052</v>
       </c>
       <c r="K46" t="n">
-        <v>262.2512393642073</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L46" t="n">
-        <v>391.6786041243801</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M46" t="n">
-        <v>423.4642343883449</v>
+        <v>423.4642343883428</v>
       </c>
       <c r="N46" t="n">
-        <v>418.8847129209181</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O46" t="n">
-        <v>370.7297545606378</v>
+        <v>370.729754560636</v>
       </c>
       <c r="P46" t="n">
-        <v>293.4650856931376</v>
+        <v>293.4650856931359</v>
       </c>
       <c r="Q46" t="n">
-        <v>118.902155104481</v>
+        <v>118.9021551044799</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_7_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_7_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2244442.422297552</v>
+        <v>2246261.693988593</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9964927.035287932</v>
+        <v>9964927.035287928</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>430763.7823717227</v>
+        <v>430763.782371723</v>
       </c>
     </row>
     <row r="9">
@@ -661,10 +661,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>65.9418277868885</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -673,7 +673,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>343.3472214204585</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -706,10 +706,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -831,13 +831,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>111.8045191520768</v>
       </c>
       <c r="J4" t="n">
         <v>45.199959188537</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>28.11374845278253</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -907,16 +907,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>22.31986891989336</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>184.6634064364108</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>59.72683757586842</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1113,10 +1113,10 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>192.3683168767174</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1147,13 +1147,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>20.06784918479925</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>126.6305324976337</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1195,7 +1195,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1302,7 +1302,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1356,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>223.8275496396399</v>
+        <v>123.6064608052457</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1378,7 +1378,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722607</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1533,7 +1533,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1542,10 +1542,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>115.0648329620392</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>5.313812950988531</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.338488358459</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4819944627618</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1854515484204</v>
+        <v>286.1854515484244</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>84.61259060081882</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T14" t="n">
         <v>199.1970568374742</v>
@@ -1767,25 +1767,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>5.030437841646962</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5420528771669</v>
       </c>
       <c r="H16" t="n">
-        <v>64.44601915223836</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1818,7 +1818,7 @@
         <v>181.338488358459</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4819944627618</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.1854515484204</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8432760127578</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H17" t="n">
         <v>283.5630920045443</v>
@@ -2007,7 +2007,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2019,7 +2019,7 @@
         <v>165.5420528771669</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S19" t="n">
         <v>181.338488358459</v>
@@ -2058,7 +2058,7 @@
         <v>217.4819944627618</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1854515484204</v>
+        <v>210.177480908705</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>208.7209531141469</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2244,22 +2244,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5420528771669</v>
+        <v>78.73408213754522</v>
       </c>
       <c r="H22" t="n">
-        <v>64.44601915223836</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>67.18075159108355</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.338488358459</v>
@@ -2304,10 +2304,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2475,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>136.5470248824683</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2493,7 +2493,7 @@
         <v>165.5420528771669</v>
       </c>
       <c r="H25" t="n">
-        <v>140.4539897919539</v>
+        <v>131.6267707433221</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>67.18075159108355</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T25" t="n">
         <v>217.4819944627618</v>
@@ -2611,7 +2611,7 @@
         <v>199.1970568374742</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9088959876461</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2715,22 +2715,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>86.27179222793485</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5420528771669</v>
       </c>
       <c r="H28" t="n">
-        <v>64.44601915223835</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2955,16 +2955,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>3.132302579345401</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S31" t="n">
         <v>181.338488358459</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4819944627618</v>
+        <v>136.5069655920689</v>
       </c>
       <c r="U31" t="n">
         <v>286.1854515484204</v>
@@ -3189,25 +3189,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>105.3798824585327</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>7.729505493042395</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>117.9650415418421</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -3432,13 +3432,13 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>131.6267707433221</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>67.18075159108355</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>181.338488358459</v>
@@ -3520,7 +3520,7 @@
         <v>409.8432760127576</v>
       </c>
       <c r="H38" t="n">
-        <v>283.5630920045443</v>
+        <v>283.5630920045434</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3663,22 +3663,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>68.93028422951086</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>9.434273714503275</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I40" t="n">
         <v>81.80457674440902</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S40" t="n">
         <v>181.338488358459</v>
@@ -3754,7 +3754,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8432760127576</v>
+        <v>409.8432760127566</v>
       </c>
       <c r="H41" t="n">
         <v>283.5630920045443</v>
@@ -3909,7 +3909,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>60.77210596797029</v>
       </c>
       <c r="G43" t="n">
         <v>165.5420528771669</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S43" t="n">
         <v>181.338488358459</v>
@@ -3954,7 +3954,7 @@
         <v>217.4819944627618</v>
       </c>
       <c r="U43" t="n">
-        <v>195.5536557553796</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>115.995896579035</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>81.37259901119292</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1893.689751284805</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="C2" t="n">
-        <v>1524.727234344394</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="D2" t="n">
-        <v>1524.727234344394</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="E2" t="n">
-        <v>1138.938981746149</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F2" t="n">
-        <v>727.953076956542</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G2" t="n">
         <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2478.514423990285</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2224.752638628376</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>1893.689751284805</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1893.689751284805</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X2" t="n">
-        <v>1893.689751284805</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="Y2" t="n">
-        <v>1893.689751284805</v>
+        <v>1662.48357412947</v>
       </c>
     </row>
     <row r="3">
@@ -4385,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170821</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359551</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747037</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692481</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961333</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102423999</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4436,25 +4436,25 @@
         <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073962</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196741</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U3" t="n">
-        <v>2061.714576167581</v>
+        <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935838</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.71331223715</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>699.7312584965529</v>
+        <v>507.3364050629041</v>
       </c>
       <c r="C4" t="n">
-        <v>699.7312584965529</v>
+        <v>507.3364050629041</v>
       </c>
       <c r="D4" t="n">
-        <v>699.7312584965529</v>
+        <v>507.3364050629041</v>
       </c>
       <c r="E4" t="n">
-        <v>551.8181649141598</v>
+        <v>359.423311480511</v>
       </c>
       <c r="F4" t="n">
-        <v>404.9282174162494</v>
+        <v>212.5333639826006</v>
       </c>
       <c r="G4" t="n">
-        <v>235.9284171545818</v>
+        <v>212.5333639826006</v>
       </c>
       <c r="H4" t="n">
-        <v>235.9284171545818</v>
+        <v>212.5333639826006</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323009</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
@@ -4533,7 +4533,7 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>699.7312584965529</v>
+        <v>507.3364050629041</v>
       </c>
     </row>
     <row r="5">
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1391.972039273389</v>
+        <v>1395.511531185079</v>
       </c>
       <c r="C5" t="n">
-        <v>1391.972039273389</v>
+        <v>1395.511531185079</v>
       </c>
       <c r="D5" t="n">
-        <v>1033.706340666639</v>
+        <v>1037.245832578328</v>
       </c>
       <c r="E5" t="n">
-        <v>647.9180880683944</v>
+        <v>651.4575799800839</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>240.4716751904763</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533141</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="U5" t="n">
-        <v>2465.942913862886</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="V5" t="n">
-        <v>2134.880026519315</v>
+        <v>2134.880026519314</v>
       </c>
       <c r="W5" t="n">
-        <v>1782.111371249201</v>
+        <v>1782.1113712492</v>
       </c>
       <c r="X5" t="n">
-        <v>1782.111371249201</v>
+        <v>1782.1113712492</v>
       </c>
       <c r="Y5" t="n">
-        <v>1391.972039273389</v>
+        <v>1782.1113712492</v>
       </c>
     </row>
     <row r="6">
@@ -4643,28 +4643,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>249.7161456655658</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C7" t="n">
-        <v>249.7161456655658</v>
+        <v>559.1928012785273</v>
       </c>
       <c r="D7" t="n">
-        <v>99.59950625323012</v>
+        <v>409.0761618661916</v>
       </c>
       <c r="E7" t="n">
-        <v>99.59950625323012</v>
+        <v>261.1630682837985</v>
       </c>
       <c r="F7" t="n">
-        <v>99.59950625323012</v>
+        <v>114.2731207858881</v>
       </c>
       <c r="G7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>444.0275768541693</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>249.7161456655658</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>249.7161456655658</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>249.7161456655658</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4780,40 +4780,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1194.175505447095</v>
+        <v>1315.737983561872</v>
       </c>
       <c r="C8" t="n">
-        <v>825.2129885066831</v>
+        <v>946.7754666214603</v>
       </c>
       <c r="D8" t="n">
-        <v>466.9472898999326</v>
+        <v>588.5097680147098</v>
       </c>
       <c r="E8" t="n">
-        <v>81.15903730168839</v>
+        <v>202.7215154164656</v>
       </c>
       <c r="F8" t="n">
-        <v>74.21353655248491</v>
+        <v>195.7760146672621</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>181.852610605853</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>181.852610605853</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533135</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.961649073312</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224068</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280442</v>
       </c>
       <c r="N8" t="n">
         <v>1836.345445977174</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="W8" t="n">
-        <v>2344.380435748108</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="X8" t="n">
-        <v>1970.914677487028</v>
+        <v>2092.477155601805</v>
       </c>
       <c r="Y8" t="n">
-        <v>1580.775345511217</v>
+        <v>1702.337823625994</v>
       </c>
     </row>
     <row r="9">
@@ -4880,7 +4880,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4898,10 +4898,10 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>99.59950625323012</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="C10" t="n">
-        <v>99.59950625323012</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="D10" t="n">
-        <v>99.59950625323012</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E10" t="n">
-        <v>99.59950625323012</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -5004,10 +5004,10 @@
         <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>502.0405502269999</v>
+        <v>603.2739732920446</v>
       </c>
       <c r="Y10" t="n">
-        <v>281.2479710834698</v>
+        <v>382.4813941485145</v>
       </c>
     </row>
     <row r="11">
@@ -5017,13 +5017,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2318.261193831369</v>
+        <v>2318.261193831371</v>
       </c>
       <c r="C11" t="n">
-        <v>1949.298676890958</v>
+        <v>1949.298676890959</v>
       </c>
       <c r="D11" t="n">
-        <v>1591.032978284207</v>
+        <v>1591.032978284208</v>
       </c>
       <c r="E11" t="n">
         <v>1205.244725685964</v>
@@ -5123,22 +5123,22 @@
         <v>241.496329903453</v>
       </c>
       <c r="K12" t="n">
-        <v>572.0050724668117</v>
+        <v>241.496329903453</v>
       </c>
       <c r="L12" t="n">
-        <v>1062.737405310563</v>
+        <v>732.2286627472043</v>
       </c>
       <c r="M12" t="n">
-        <v>1356.791087284249</v>
+        <v>1324.247016999332</v>
       </c>
       <c r="N12" t="n">
-        <v>1356.791087284249</v>
+        <v>1946.342980398668</v>
       </c>
       <c r="O12" t="n">
-        <v>1903.667562284443</v>
+        <v>2493.219455398862</v>
       </c>
       <c r="P12" t="n">
-        <v>2323.251080710519</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.812354695766</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>557.5875721598175</v>
+        <v>965.8040325357825</v>
       </c>
       <c r="C13" t="n">
-        <v>388.6513892319105</v>
+        <v>796.8678496078757</v>
       </c>
       <c r="D13" t="n">
-        <v>388.6513892319105</v>
+        <v>646.7512101955399</v>
       </c>
       <c r="E13" t="n">
-        <v>240.7382956495174</v>
+        <v>498.8381166131468</v>
       </c>
       <c r="F13" t="n">
-        <v>93.84834815160703</v>
+        <v>351.9481691152364</v>
       </c>
       <c r="G13" t="n">
-        <v>93.84834815160703</v>
+        <v>235.7210651131766</v>
       </c>
       <c r="H13" t="n">
         <v>93.84834815160703</v>
@@ -5223,28 +5223,28 @@
         <v>2429.412499335695</v>
       </c>
       <c r="R13" t="n">
-        <v>2424.045011506413</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="S13" t="n">
-        <v>2240.874821245343</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="T13" t="n">
-        <v>2021.196038959725</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="U13" t="n">
-        <v>1732.119825274452</v>
+        <v>2140.336285650417</v>
       </c>
       <c r="V13" t="n">
-        <v>1477.435337068565</v>
+        <v>1885.65179744453</v>
       </c>
       <c r="W13" t="n">
-        <v>1188.018167031605</v>
+        <v>1596.23462740757</v>
       </c>
       <c r="X13" t="n">
-        <v>960.0286161335873</v>
+        <v>1368.245076509552</v>
       </c>
       <c r="Y13" t="n">
-        <v>739.2360369900572</v>
+        <v>1147.452497366022</v>
       </c>
     </row>
     <row r="14">
@@ -5254,7 +5254,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2318.261193831371</v>
+        <v>2318.26119383137</v>
       </c>
       <c r="C14" t="n">
         <v>1949.298676890959</v>
@@ -5266,13 +5266,13 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F14" t="n">
-        <v>794.2588208963565</v>
+        <v>794.2588208963564</v>
       </c>
       <c r="G14" t="n">
         <v>380.2757138127629</v>
       </c>
       <c r="H14" t="n">
-        <v>93.84834815160703</v>
+        <v>93.848348151607</v>
       </c>
       <c r="I14" t="n">
         <v>93.84834815160703</v>
@@ -5287,16 +5287,16 @@
         <v>1462.494387944177</v>
       </c>
       <c r="M14" t="n">
-        <v>2183.498949883215</v>
+        <v>2234.298471234014</v>
       </c>
       <c r="N14" t="n">
-        <v>2920.783927800321</v>
+        <v>2971.58344915112</v>
       </c>
       <c r="O14" t="n">
-        <v>3603.64596425946</v>
+        <v>3654.445485610258</v>
       </c>
       <c r="P14" t="n">
-        <v>4151.951912946808</v>
+        <v>4202.751434297606</v>
       </c>
       <c r="Q14" t="n">
         <v>4566.333620403613</v>
@@ -5305,16 +5305,16 @@
         <v>4692.417407580351</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.950144347201</v>
+        <v>4606.9501443472</v>
       </c>
       <c r="T14" t="n">
         <v>4405.740996026519</v>
       </c>
       <c r="U14" t="n">
-        <v>4152.297666746069</v>
+        <v>4152.297666746068</v>
       </c>
       <c r="V14" t="n">
-        <v>3821.234779402499</v>
+        <v>3821.234779402498</v>
       </c>
       <c r="W14" t="n">
         <v>3468.466124132384</v>
@@ -5323,7 +5323,7 @@
         <v>3095.000365871304</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.861033895493</v>
+        <v>2704.861033895492</v>
       </c>
     </row>
     <row r="15">
@@ -5360,19 +5360,19 @@
         <v>241.496329903453</v>
       </c>
       <c r="K15" t="n">
-        <v>474.5240650264086</v>
+        <v>572.0050724668117</v>
       </c>
       <c r="L15" t="n">
-        <v>965.25639787016</v>
+        <v>1062.737405310563</v>
       </c>
       <c r="M15" t="n">
-        <v>965.25639787016</v>
+        <v>1654.755759562691</v>
       </c>
       <c r="N15" t="n">
-        <v>1587.352361269496</v>
+        <v>2276.851722962027</v>
       </c>
       <c r="O15" t="n">
-        <v>2134.22883626969</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="P15" t="n">
         <v>2553.812354695766</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>495.0957149476001</v>
+        <v>935.5670763767481</v>
       </c>
       <c r="C16" t="n">
-        <v>326.1595320196932</v>
+        <v>930.4858260316502</v>
       </c>
       <c r="D16" t="n">
-        <v>326.1595320196932</v>
+        <v>780.3691866193144</v>
       </c>
       <c r="E16" t="n">
-        <v>326.1595320196932</v>
+        <v>632.4560930369213</v>
       </c>
       <c r="F16" t="n">
-        <v>326.1595320196932</v>
+        <v>485.5661455390109</v>
       </c>
       <c r="G16" t="n">
-        <v>158.945337194272</v>
+        <v>318.3519507135898</v>
       </c>
       <c r="H16" t="n">
-        <v>93.84834815160703</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="I16" t="n">
         <v>93.84834815160703</v>
@@ -5466,22 +5466,22 @@
         <v>2178.382964033126</v>
       </c>
       <c r="T16" t="n">
-        <v>1958.704181747508</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="U16" t="n">
-        <v>1669.627968062235</v>
+        <v>1889.306750347853</v>
       </c>
       <c r="V16" t="n">
-        <v>1414.943479856348</v>
+        <v>1634.622262141966</v>
       </c>
       <c r="W16" t="n">
-        <v>1125.526309819387</v>
+        <v>1345.205092105005</v>
       </c>
       <c r="X16" t="n">
-        <v>897.5367589213699</v>
+        <v>1117.215541206988</v>
       </c>
       <c r="Y16" t="n">
-        <v>676.7441797778398</v>
+        <v>1117.215541206988</v>
       </c>
     </row>
     <row r="17">
@@ -5503,13 +5503,13 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F17" t="n">
-        <v>794.2588208963557</v>
+        <v>794.2588208963562</v>
       </c>
       <c r="G17" t="n">
-        <v>380.2757138127629</v>
+        <v>380.2757138127627</v>
       </c>
       <c r="H17" t="n">
-        <v>93.84834815160703</v>
+        <v>93.848348151607</v>
       </c>
       <c r="I17" t="n">
         <v>93.84834815160703</v>
@@ -5530,13 +5530,13 @@
         <v>2920.783927800321</v>
       </c>
       <c r="O17" t="n">
-        <v>3654.445485610258</v>
+        <v>3603.64596425946</v>
       </c>
       <c r="P17" t="n">
-        <v>4202.751434297606</v>
+        <v>4151.951912946808</v>
       </c>
       <c r="Q17" t="n">
-        <v>4566.333620403613</v>
+        <v>4515.534099052815</v>
       </c>
       <c r="R17" t="n">
         <v>4692.417407580351</v>
@@ -5600,16 +5600,16 @@
         <v>572.0050724668117</v>
       </c>
       <c r="L18" t="n">
-        <v>965.25639787016</v>
+        <v>1062.737405310563</v>
       </c>
       <c r="M18" t="n">
-        <v>965.25639787016</v>
+        <v>1654.755759562691</v>
       </c>
       <c r="N18" t="n">
-        <v>1587.352361269496</v>
+        <v>2276.851722962027</v>
       </c>
       <c r="O18" t="n">
-        <v>2134.22883626969</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="P18" t="n">
         <v>2553.812354695766</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>580.1153653172707</v>
+        <v>571.8714428665047</v>
       </c>
       <c r="C19" t="n">
-        <v>411.1791823893639</v>
+        <v>402.9352599385978</v>
       </c>
       <c r="D19" t="n">
-        <v>261.0625429770282</v>
+        <v>402.9352599385978</v>
       </c>
       <c r="E19" t="n">
-        <v>261.0625429770282</v>
+        <v>402.9352599385978</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0625429770282</v>
+        <v>402.9352599385978</v>
       </c>
       <c r="G19" t="n">
-        <v>93.84834815160703</v>
+        <v>235.7210651131766</v>
       </c>
       <c r="H19" t="n">
         <v>93.84834815160703</v>
@@ -5697,28 +5697,28 @@
         <v>2429.412499335695</v>
       </c>
       <c r="R19" t="n">
-        <v>2429.412499335695</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="S19" t="n">
-        <v>2246.242309074625</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="T19" t="n">
-        <v>2026.563526789007</v>
+        <v>1958.704181747508</v>
       </c>
       <c r="U19" t="n">
-        <v>1737.487313103734</v>
+        <v>1746.403695981139</v>
       </c>
       <c r="V19" t="n">
-        <v>1482.802824897847</v>
+        <v>1491.719207775252</v>
       </c>
       <c r="W19" t="n">
-        <v>1193.385654860886</v>
+        <v>1202.302037738292</v>
       </c>
       <c r="X19" t="n">
-        <v>982.5564092910406</v>
+        <v>974.3124868402746</v>
       </c>
       <c r="Y19" t="n">
-        <v>761.7638301475105</v>
+        <v>753.5199076967444</v>
       </c>
     </row>
     <row r="20">
@@ -5740,19 +5740,19 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F20" t="n">
-        <v>794.2588208963566</v>
+        <v>794.2588208963564</v>
       </c>
       <c r="G20" t="n">
-        <v>380.2757138127627</v>
+        <v>380.2757138127628</v>
       </c>
       <c r="H20" t="n">
-        <v>93.84834815160684</v>
+        <v>93.84834815160701</v>
       </c>
       <c r="I20" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J20" t="n">
-        <v>373.34422365072</v>
+        <v>373.3442236507201</v>
       </c>
       <c r="K20" t="n">
         <v>842.974607438402</v>
@@ -5776,10 +5776,10 @@
         <v>4515.534099052815</v>
       </c>
       <c r="R20" t="n">
-        <v>4692.417407580351</v>
+        <v>4692.417407580352</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.9501443472</v>
+        <v>4606.950144347201</v>
       </c>
       <c r="T20" t="n">
         <v>4405.740996026519</v>
@@ -5825,31 +5825,31 @@
         <v>178.7211392683894</v>
       </c>
       <c r="H21" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I21" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J21" t="n">
         <v>241.496329903453</v>
       </c>
       <c r="K21" t="n">
-        <v>572.0050724668117</v>
+        <v>572.0050724668118</v>
       </c>
       <c r="L21" t="n">
-        <v>965.25639787016</v>
+        <v>572.0050724668118</v>
       </c>
       <c r="M21" t="n">
-        <v>965.25639787016</v>
+        <v>734.6951238849127</v>
       </c>
       <c r="N21" t="n">
-        <v>1587.352361269496</v>
+        <v>1356.791087284249</v>
       </c>
       <c r="O21" t="n">
-        <v>2134.22883626969</v>
+        <v>1903.667562284443</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.812354695766</v>
+        <v>2323.251080710519</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.812354695766</v>
@@ -5886,34 +5886,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>495.0957149476001</v>
+        <v>1011.737190030646</v>
       </c>
       <c r="C22" t="n">
-        <v>326.1595320196932</v>
+        <v>842.8010071027394</v>
       </c>
       <c r="D22" t="n">
-        <v>326.1595320196932</v>
+        <v>692.6843676904036</v>
       </c>
       <c r="E22" t="n">
-        <v>326.1595320196932</v>
+        <v>544.7712741080105</v>
       </c>
       <c r="F22" t="n">
-        <v>326.1595320196932</v>
+        <v>397.8813266101001</v>
       </c>
       <c r="G22" t="n">
-        <v>158.945337194272</v>
+        <v>318.3519507135898</v>
       </c>
       <c r="H22" t="n">
-        <v>93.84834815160703</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="I22" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J22" t="n">
-        <v>172.8304710411609</v>
+        <v>172.830471041161</v>
       </c>
       <c r="K22" t="n">
-        <v>432.4591980117246</v>
+        <v>432.4591980117247</v>
       </c>
       <c r="L22" t="n">
         <v>820.2210160948589</v>
@@ -5934,28 +5934,28 @@
         <v>2429.412499335695</v>
       </c>
       <c r="R22" t="n">
-        <v>2361.553154294196</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="S22" t="n">
-        <v>2178.382964033126</v>
+        <v>2246.242309074625</v>
       </c>
       <c r="T22" t="n">
-        <v>1958.704181747508</v>
+        <v>2026.563526789007</v>
       </c>
       <c r="U22" t="n">
-        <v>1669.627968062235</v>
+        <v>1737.487313103734</v>
       </c>
       <c r="V22" t="n">
-        <v>1414.943479856348</v>
+        <v>1482.802824897847</v>
       </c>
       <c r="W22" t="n">
-        <v>1125.526309819387</v>
+        <v>1193.385654860886</v>
       </c>
       <c r="X22" t="n">
-        <v>897.5367589213699</v>
+        <v>1193.385654860886</v>
       </c>
       <c r="Y22" t="n">
-        <v>676.7441797778398</v>
+        <v>1193.385654860886</v>
       </c>
     </row>
     <row r="23">
@@ -5977,46 +5977,46 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F23" t="n">
-        <v>794.2588208963566</v>
+        <v>794.2588208963564</v>
       </c>
       <c r="G23" t="n">
-        <v>380.2757138127627</v>
+        <v>380.2757138127628</v>
       </c>
       <c r="H23" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160701</v>
       </c>
       <c r="I23" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J23" t="n">
-        <v>373.34422365072</v>
+        <v>373.3442236507201</v>
       </c>
       <c r="K23" t="n">
         <v>842.974607438402</v>
       </c>
       <c r="L23" t="n">
-        <v>1462.494387944177</v>
+        <v>1513.293909294977</v>
       </c>
       <c r="M23" t="n">
-        <v>2183.498949883215</v>
+        <v>2234.298471234015</v>
       </c>
       <c r="N23" t="n">
-        <v>2920.783927800321</v>
+        <v>2971.583449151121</v>
       </c>
       <c r="O23" t="n">
-        <v>3603.64596425946</v>
+        <v>3654.445485610259</v>
       </c>
       <c r="P23" t="n">
-        <v>4151.951912946808</v>
+        <v>4202.751434297607</v>
       </c>
       <c r="Q23" t="n">
-        <v>4515.534099052815</v>
+        <v>4566.333620403614</v>
       </c>
       <c r="R23" t="n">
-        <v>4692.417407580351</v>
+        <v>4692.417407580352</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.9501443472</v>
+        <v>4606.950144347201</v>
       </c>
       <c r="T23" t="n">
         <v>4405.740996026519</v>
@@ -6062,31 +6062,31 @@
         <v>178.7211392683894</v>
       </c>
       <c r="H24" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I24" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J24" t="n">
         <v>241.496329903453</v>
       </c>
       <c r="K24" t="n">
-        <v>572.0050724668117</v>
+        <v>572.0050724668118</v>
       </c>
       <c r="L24" t="n">
-        <v>572.0050724668117</v>
+        <v>1062.737405310563</v>
       </c>
       <c r="M24" t="n">
-        <v>1164.023426718939</v>
+        <v>1356.791087284249</v>
       </c>
       <c r="N24" t="n">
-        <v>1786.119390118276</v>
+        <v>1356.791087284249</v>
       </c>
       <c r="O24" t="n">
-        <v>2332.99586511847</v>
+        <v>1903.667562284443</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.812354695766</v>
+        <v>2323.251080710519</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.812354695766</v>
@@ -6123,34 +6123,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>721.9880822788404</v>
+        <v>562.9550599890988</v>
       </c>
       <c r="C25" t="n">
-        <v>553.0518993509335</v>
+        <v>394.0188770611919</v>
       </c>
       <c r="D25" t="n">
-        <v>402.9352599385978</v>
+        <v>394.0188770611919</v>
       </c>
       <c r="E25" t="n">
-        <v>402.9352599385978</v>
+        <v>394.0188770611919</v>
       </c>
       <c r="F25" t="n">
-        <v>402.9352599385978</v>
+        <v>394.0188770611919</v>
       </c>
       <c r="G25" t="n">
-        <v>235.7210651131766</v>
+        <v>226.8046822357708</v>
       </c>
       <c r="H25" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I25" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J25" t="n">
-        <v>172.8304710411609</v>
+        <v>172.830471041161</v>
       </c>
       <c r="K25" t="n">
-        <v>432.4591980117246</v>
+        <v>432.4591980117247</v>
       </c>
       <c r="L25" t="n">
         <v>820.2210160948589</v>
@@ -6171,28 +6171,28 @@
         <v>2429.412499335695</v>
       </c>
       <c r="R25" t="n">
-        <v>2361.553154294196</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="S25" t="n">
-        <v>2361.553154294196</v>
+        <v>2246.242309074625</v>
       </c>
       <c r="T25" t="n">
-        <v>2141.874372008578</v>
+        <v>2026.563526789007</v>
       </c>
       <c r="U25" t="n">
-        <v>1852.798158323305</v>
+        <v>1737.487313103734</v>
       </c>
       <c r="V25" t="n">
-        <v>1598.113670117418</v>
+        <v>1482.802824897847</v>
       </c>
       <c r="W25" t="n">
-        <v>1308.696500080457</v>
+        <v>1193.385654860886</v>
       </c>
       <c r="X25" t="n">
-        <v>1080.70694918244</v>
+        <v>965.3961039628687</v>
       </c>
       <c r="Y25" t="n">
-        <v>859.9143700389094</v>
+        <v>744.6035248193385</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2318.261193831371</v>
+        <v>2318.26119383137</v>
       </c>
       <c r="C26" t="n">
         <v>1949.298676890959</v>
       </c>
       <c r="D26" t="n">
-        <v>1591.032978284208</v>
+        <v>1591.032978284209</v>
       </c>
       <c r="E26" t="n">
-        <v>1205.244725685964</v>
+        <v>1205.244725685965</v>
       </c>
       <c r="F26" t="n">
-        <v>794.2588208963566</v>
+        <v>794.2588208963571</v>
       </c>
       <c r="G26" t="n">
-        <v>380.275713812763</v>
+        <v>380.2757138127629</v>
       </c>
       <c r="H26" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160701</v>
       </c>
       <c r="I26" t="n">
         <v>93.84834815160704</v>
@@ -6235,16 +6235,16 @@
         <v>1462.494387944177</v>
       </c>
       <c r="M26" t="n">
-        <v>2234.298471234015</v>
+        <v>2183.498949883215</v>
       </c>
       <c r="N26" t="n">
-        <v>2971.583449151121</v>
+        <v>2920.783927800321</v>
       </c>
       <c r="O26" t="n">
-        <v>3654.445485610259</v>
+        <v>3603.64596425946</v>
       </c>
       <c r="P26" t="n">
-        <v>4202.751434297607</v>
+        <v>4151.951912946808</v>
       </c>
       <c r="Q26" t="n">
         <v>4566.333620403614</v>
@@ -6262,7 +6262,7 @@
         <v>4152.297666746069</v>
       </c>
       <c r="V26" t="n">
-        <v>3821.234779402499</v>
+        <v>3821.234779402498</v>
       </c>
       <c r="W26" t="n">
         <v>3468.466124132384</v>
@@ -6271,7 +6271,7 @@
         <v>3095.000365871304</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.861033895493</v>
+        <v>2704.861033895492</v>
       </c>
     </row>
     <row r="27">
@@ -6317,10 +6317,10 @@
         <v>1654.755759562691</v>
       </c>
       <c r="N27" t="n">
-        <v>2134.22883626969</v>
+        <v>2276.851722962027</v>
       </c>
       <c r="O27" t="n">
-        <v>2134.22883626969</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="P27" t="n">
         <v>2553.812354695766</v>
@@ -6363,19 +6363,19 @@
         <v>495.0957149476001</v>
       </c>
       <c r="C28" t="n">
-        <v>326.1595320196932</v>
+        <v>495.0957149476001</v>
       </c>
       <c r="D28" t="n">
-        <v>326.1595320196932</v>
+        <v>407.9524904749386</v>
       </c>
       <c r="E28" t="n">
-        <v>326.1595320196932</v>
+        <v>407.9524904749386</v>
       </c>
       <c r="F28" t="n">
-        <v>326.1595320196932</v>
+        <v>261.0625429770282</v>
       </c>
       <c r="G28" t="n">
-        <v>158.945337194272</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="H28" t="n">
         <v>93.84834815160704</v>
@@ -6451,19 +6451,19 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F29" t="n">
-        <v>794.2588208963566</v>
+        <v>794.2588208963562</v>
       </c>
       <c r="G29" t="n">
-        <v>380.275713812763</v>
+        <v>380.2757138127627</v>
       </c>
       <c r="H29" t="n">
-        <v>93.84834815160704</v>
+        <v>93.848348151607</v>
       </c>
       <c r="I29" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J29" t="n">
-        <v>373.3442236507201</v>
+        <v>373.34422365072</v>
       </c>
       <c r="K29" t="n">
         <v>842.974607438402</v>
@@ -6487,10 +6487,10 @@
         <v>4515.534099052815</v>
       </c>
       <c r="R29" t="n">
-        <v>4692.417407580352</v>
+        <v>4692.417407580351</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.950144347201</v>
+        <v>4606.9501443472</v>
       </c>
       <c r="T29" t="n">
         <v>4405.740996026519</v>
@@ -6536,16 +6536,16 @@
         <v>178.7211392683894</v>
       </c>
       <c r="H30" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I30" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J30" t="n">
         <v>241.496329903453</v>
       </c>
       <c r="K30" t="n">
-        <v>572.0050724668118</v>
+        <v>572.0050724668117</v>
       </c>
       <c r="L30" t="n">
         <v>1062.737405310563</v>
@@ -6554,7 +6554,7 @@
         <v>1654.755759562691</v>
       </c>
       <c r="N30" t="n">
-        <v>2006.935879695572</v>
+        <v>2276.851722962027</v>
       </c>
       <c r="O30" t="n">
         <v>2553.812354695766</v>
@@ -6597,34 +6597,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>562.9550599890988</v>
+        <v>576.8886734028454</v>
       </c>
       <c r="C31" t="n">
-        <v>394.0188770611919</v>
+        <v>407.9524904749385</v>
       </c>
       <c r="D31" t="n">
-        <v>243.9022376488562</v>
+        <v>407.9524904749385</v>
       </c>
       <c r="E31" t="n">
-        <v>240.7382956495174</v>
+        <v>407.9524904749385</v>
       </c>
       <c r="F31" t="n">
-        <v>93.84834815160704</v>
+        <v>261.0625429770282</v>
       </c>
       <c r="G31" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="H31" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I31" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J31" t="n">
-        <v>172.830471041161</v>
+        <v>172.8304710411609</v>
       </c>
       <c r="K31" t="n">
-        <v>432.4591980117247</v>
+        <v>432.4591980117246</v>
       </c>
       <c r="L31" t="n">
         <v>820.2210160948589</v>
@@ -6645,28 +6645,28 @@
         <v>2429.412499335695</v>
       </c>
       <c r="R31" t="n">
-        <v>2429.412499335695</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="S31" t="n">
-        <v>2246.242309074625</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="T31" t="n">
-        <v>2026.563526789007</v>
+        <v>2040.497140202753</v>
       </c>
       <c r="U31" t="n">
-        <v>1737.487313103734</v>
+        <v>1751.42092651748</v>
       </c>
       <c r="V31" t="n">
-        <v>1482.802824897847</v>
+        <v>1496.736438311593</v>
       </c>
       <c r="W31" t="n">
-        <v>1193.385654860886</v>
+        <v>1207.319268274633</v>
       </c>
       <c r="X31" t="n">
-        <v>965.3961039628687</v>
+        <v>979.3297173766152</v>
       </c>
       <c r="Y31" t="n">
-        <v>744.6035248193385</v>
+        <v>758.5371382330851</v>
       </c>
     </row>
     <row r="32">
@@ -6688,19 +6688,19 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F32" t="n">
-        <v>794.2588208963564</v>
+        <v>794.2588208963562</v>
       </c>
       <c r="G32" t="n">
-        <v>380.2757138127628</v>
+        <v>380.2757138127627</v>
       </c>
       <c r="H32" t="n">
-        <v>93.84834815160696</v>
+        <v>93.84834815160701</v>
       </c>
       <c r="I32" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J32" t="n">
-        <v>373.3442236507201</v>
+        <v>373.34422365072</v>
       </c>
       <c r="K32" t="n">
         <v>842.974607438402</v>
@@ -6724,10 +6724,10 @@
         <v>4515.534099052815</v>
       </c>
       <c r="R32" t="n">
-        <v>4692.417407580352</v>
+        <v>4692.417407580351</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.950144347201</v>
+        <v>4606.9501443472</v>
       </c>
       <c r="T32" t="n">
         <v>4405.740996026519</v>
@@ -6773,31 +6773,31 @@
         <v>178.7211392683894</v>
       </c>
       <c r="H33" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I33" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J33" t="n">
         <v>241.496329903453</v>
       </c>
       <c r="K33" t="n">
-        <v>572.0050724668118</v>
+        <v>241.496329903453</v>
       </c>
       <c r="L33" t="n">
-        <v>1062.737405310563</v>
+        <v>562.260288058861</v>
       </c>
       <c r="M33" t="n">
-        <v>1654.755759562691</v>
+        <v>1154.278642310989</v>
       </c>
       <c r="N33" t="n">
-        <v>2134.22883626969</v>
+        <v>1776.374605710325</v>
       </c>
       <c r="O33" t="n">
-        <v>2134.22883626969</v>
+        <v>2323.251080710519</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.812354695766</v>
+        <v>2323.251080710519</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.812354695766</v>
@@ -6837,31 +6837,31 @@
         <v>495.0957149476001</v>
       </c>
       <c r="C34" t="n">
-        <v>495.0957149476001</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="D34" t="n">
-        <v>388.6513892319105</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="E34" t="n">
-        <v>240.7382956495174</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="F34" t="n">
-        <v>93.84834815160704</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="G34" t="n">
-        <v>93.84834815160704</v>
+        <v>318.3519507135898</v>
       </c>
       <c r="H34" t="n">
-        <v>93.84834815160704</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="I34" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J34" t="n">
-        <v>172.830471041161</v>
+        <v>172.8304710411609</v>
       </c>
       <c r="K34" t="n">
-        <v>432.4591980117247</v>
+        <v>432.4591980117246</v>
       </c>
       <c r="L34" t="n">
         <v>820.2210160948589</v>
@@ -6913,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2318.261193831369</v>
+        <v>2318.26119383137</v>
       </c>
       <c r="C35" t="n">
-        <v>1949.298676890958</v>
+        <v>1949.298676890959</v>
       </c>
       <c r="D35" t="n">
         <v>1591.032978284208</v>
@@ -6931,7 +6931,7 @@
         <v>380.2757138127629</v>
       </c>
       <c r="H35" t="n">
-        <v>93.84834815160701</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I35" t="n">
         <v>93.84834815160703</v>
@@ -7019,22 +7019,22 @@
         <v>241.496329903453</v>
       </c>
       <c r="K36" t="n">
-        <v>572.0050724668117</v>
+        <v>241.496329903453</v>
       </c>
       <c r="L36" t="n">
-        <v>1062.737405310563</v>
+        <v>241.496329903453</v>
       </c>
       <c r="M36" t="n">
-        <v>1654.755759562691</v>
+        <v>734.6951238849127</v>
       </c>
       <c r="N36" t="n">
-        <v>2134.22883626969</v>
+        <v>1356.791087284249</v>
       </c>
       <c r="O36" t="n">
-        <v>2134.22883626969</v>
+        <v>1903.667562284443</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.812354695766</v>
+        <v>2323.251080710519</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.812354695766</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>557.5875721598175</v>
+        <v>562.9550599890988</v>
       </c>
       <c r="C37" t="n">
-        <v>388.6513892319105</v>
+        <v>394.0188770611919</v>
       </c>
       <c r="D37" t="n">
-        <v>388.6513892319105</v>
+        <v>394.0188770611919</v>
       </c>
       <c r="E37" t="n">
-        <v>240.7382956495174</v>
+        <v>394.0188770611919</v>
       </c>
       <c r="F37" t="n">
-        <v>93.84834815160703</v>
+        <v>261.0625429770282</v>
       </c>
       <c r="G37" t="n">
         <v>93.84834815160703</v>
@@ -7119,28 +7119,28 @@
         <v>2429.412499335695</v>
       </c>
       <c r="R37" t="n">
-        <v>2361.553154294196</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="S37" t="n">
-        <v>2178.382964033126</v>
+        <v>2246.242309074625</v>
       </c>
       <c r="T37" t="n">
-        <v>1958.704181747508</v>
+        <v>2026.563526789007</v>
       </c>
       <c r="U37" t="n">
-        <v>1669.627968062235</v>
+        <v>1737.487313103734</v>
       </c>
       <c r="V37" t="n">
-        <v>1414.943479856348</v>
+        <v>1482.802824897847</v>
       </c>
       <c r="W37" t="n">
-        <v>1125.526309819387</v>
+        <v>1193.385654860886</v>
       </c>
       <c r="X37" t="n">
-        <v>897.5367589213699</v>
+        <v>965.3961039628687</v>
       </c>
       <c r="Y37" t="n">
-        <v>676.7441797778398</v>
+        <v>744.6035248193385</v>
       </c>
     </row>
     <row r="38">
@@ -7156,19 +7156,19 @@
         <v>1949.298676890958</v>
       </c>
       <c r="D38" t="n">
-        <v>1591.032978284208</v>
+        <v>1591.032978284207</v>
       </c>
       <c r="E38" t="n">
-        <v>1205.244725685964</v>
+        <v>1205.244725685963</v>
       </c>
       <c r="F38" t="n">
-        <v>794.2588208963564</v>
+        <v>794.2588208963555</v>
       </c>
       <c r="G38" t="n">
-        <v>380.2757138127628</v>
+        <v>380.2757138127619</v>
       </c>
       <c r="H38" t="n">
-        <v>93.84834815160696</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I38" t="n">
         <v>93.84834815160703</v>
@@ -7201,7 +7201,7 @@
         <v>4692.417407580351</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.950144347201</v>
+        <v>4606.9501443472</v>
       </c>
       <c r="T38" t="n">
         <v>4405.740996026519</v>
@@ -7265,13 +7265,13 @@
         <v>1654.755759562691</v>
       </c>
       <c r="N39" t="n">
-        <v>2276.851722962027</v>
+        <v>1654.755759562691</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.812354695766</v>
+        <v>1903.667562284443</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.812354695766</v>
+        <v>2323.251080710519</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.812354695766</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>562.9550599890988</v>
+        <v>495.0957149476001</v>
       </c>
       <c r="C40" t="n">
-        <v>394.0188770611919</v>
+        <v>495.0957149476001</v>
       </c>
       <c r="D40" t="n">
-        <v>324.3923273344133</v>
+        <v>495.0957149476001</v>
       </c>
       <c r="E40" t="n">
-        <v>176.4792337520202</v>
+        <v>495.0957149476001</v>
       </c>
       <c r="F40" t="n">
-        <v>176.4792337520202</v>
+        <v>485.5661455390109</v>
       </c>
       <c r="G40" t="n">
-        <v>176.4792337520202</v>
+        <v>318.3519507135898</v>
       </c>
       <c r="H40" t="n">
         <v>176.4792337520202</v>
@@ -7356,28 +7356,28 @@
         <v>2429.412499335695</v>
       </c>
       <c r="R40" t="n">
-        <v>2429.412499335695</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="S40" t="n">
-        <v>2246.242309074625</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="T40" t="n">
-        <v>2026.563526789007</v>
+        <v>1958.704181747508</v>
       </c>
       <c r="U40" t="n">
-        <v>1737.487313103734</v>
+        <v>1669.627968062235</v>
       </c>
       <c r="V40" t="n">
-        <v>1482.802824897847</v>
+        <v>1414.943479856348</v>
       </c>
       <c r="W40" t="n">
-        <v>1193.385654860886</v>
+        <v>1125.526309819387</v>
       </c>
       <c r="X40" t="n">
-        <v>965.3961039628687</v>
+        <v>897.5367589213699</v>
       </c>
       <c r="Y40" t="n">
-        <v>744.6035248193385</v>
+        <v>676.7441797778398</v>
       </c>
     </row>
     <row r="41">
@@ -7393,19 +7393,19 @@
         <v>1949.298676890958</v>
       </c>
       <c r="D41" t="n">
-        <v>1591.032978284208</v>
+        <v>1591.032978284207</v>
       </c>
       <c r="E41" t="n">
-        <v>1205.244725685964</v>
+        <v>1205.244725685963</v>
       </c>
       <c r="F41" t="n">
-        <v>794.2588208963566</v>
+        <v>794.2588208963555</v>
       </c>
       <c r="G41" t="n">
-        <v>380.2757138127627</v>
+        <v>380.2757138127629</v>
       </c>
       <c r="H41" t="n">
-        <v>93.84834815160684</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I41" t="n">
         <v>93.84834815160703</v>
@@ -7493,13 +7493,13 @@
         <v>241.496329903453</v>
       </c>
       <c r="K42" t="n">
-        <v>572.0050724668117</v>
+        <v>241.496329903453</v>
       </c>
       <c r="L42" t="n">
-        <v>1062.737405310563</v>
+        <v>241.496329903453</v>
       </c>
       <c r="M42" t="n">
-        <v>1356.791087284249</v>
+        <v>734.6951238849127</v>
       </c>
       <c r="N42" t="n">
         <v>1356.791087284249</v>
@@ -7545,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>654.5023284669178</v>
+        <v>715.8882940911302</v>
       </c>
       <c r="C43" t="n">
-        <v>485.5661455390109</v>
+        <v>546.9521111632233</v>
       </c>
       <c r="D43" t="n">
-        <v>485.5661455390109</v>
+        <v>546.9521111632233</v>
       </c>
       <c r="E43" t="n">
-        <v>485.5661455390109</v>
+        <v>546.9521111632233</v>
       </c>
       <c r="F43" t="n">
         <v>485.5661455390109</v>
@@ -7593,28 +7593,28 @@
         <v>2429.412499335695</v>
       </c>
       <c r="R43" t="n">
-        <v>2429.412499335695</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="S43" t="n">
-        <v>2246.242309074625</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="T43" t="n">
-        <v>2026.563526789007</v>
+        <v>1958.704181747508</v>
       </c>
       <c r="U43" t="n">
-        <v>1829.034581581553</v>
+        <v>1669.627968062235</v>
       </c>
       <c r="V43" t="n">
-        <v>1574.350093375666</v>
+        <v>1414.943479856348</v>
       </c>
       <c r="W43" t="n">
-        <v>1284.932923338705</v>
+        <v>1125.526309819387</v>
       </c>
       <c r="X43" t="n">
-        <v>1056.943372440688</v>
+        <v>897.5367589213699</v>
       </c>
       <c r="Y43" t="n">
-        <v>836.1507932971575</v>
+        <v>897.5367589213699</v>
       </c>
     </row>
     <row r="44">
@@ -7636,19 +7636,19 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F44" t="n">
-        <v>794.2588208963566</v>
+        <v>794.2588208963565</v>
       </c>
       <c r="G44" t="n">
-        <v>380.2757138127627</v>
+        <v>380.2757138127629</v>
       </c>
       <c r="H44" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160707</v>
       </c>
       <c r="I44" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J44" t="n">
-        <v>373.34422365072</v>
+        <v>373.3442236507201</v>
       </c>
       <c r="K44" t="n">
         <v>842.974607438402</v>
@@ -7672,10 +7672,10 @@
         <v>4515.534099052815</v>
       </c>
       <c r="R44" t="n">
-        <v>4692.417407580351</v>
+        <v>4692.417407580352</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.9501443472</v>
+        <v>4606.950144347201</v>
       </c>
       <c r="T44" t="n">
         <v>4405.740996026519</v>
@@ -7721,28 +7721,28 @@
         <v>178.7211392683894</v>
       </c>
       <c r="H45" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I45" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J45" t="n">
         <v>241.496329903453</v>
       </c>
       <c r="K45" t="n">
-        <v>241.496329903453</v>
+        <v>572.0050724668118</v>
       </c>
       <c r="L45" t="n">
-        <v>732.2286627472043</v>
+        <v>1062.737405310563</v>
       </c>
       <c r="M45" t="n">
-        <v>1324.247016999332</v>
+        <v>1654.755759562691</v>
       </c>
       <c r="N45" t="n">
-        <v>1946.342980398668</v>
+        <v>2276.851722962027</v>
       </c>
       <c r="O45" t="n">
-        <v>2493.219455398862</v>
+        <v>2276.851722962027</v>
       </c>
       <c r="P45" t="n">
         <v>2553.812354695766</v>
@@ -7782,34 +7782,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>495.0957149476001</v>
+        <v>897.5367589213699</v>
       </c>
       <c r="C46" t="n">
-        <v>326.1595320196932</v>
+        <v>897.5367589213699</v>
       </c>
       <c r="D46" t="n">
-        <v>176.0428926073575</v>
+        <v>780.3691866193144</v>
       </c>
       <c r="E46" t="n">
-        <v>176.0428926073575</v>
+        <v>632.4560930369213</v>
       </c>
       <c r="F46" t="n">
-        <v>176.0428926073575</v>
+        <v>485.566145539011</v>
       </c>
       <c r="G46" t="n">
-        <v>93.84834815160703</v>
+        <v>318.3519507135898</v>
       </c>
       <c r="H46" t="n">
-        <v>93.84834815160703</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="I46" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J46" t="n">
-        <v>172.8304710411609</v>
+        <v>172.830471041161</v>
       </c>
       <c r="K46" t="n">
-        <v>432.4591980117246</v>
+        <v>432.4591980117247</v>
       </c>
       <c r="L46" t="n">
         <v>820.2210160948589</v>
@@ -7851,7 +7851,7 @@
         <v>897.5367589213699</v>
       </c>
       <c r="Y46" t="n">
-        <v>676.7441797778398</v>
+        <v>897.5367589213699</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747075</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8303,7 +8303,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>346.2692436516228</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8452,7 +8452,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720731</v>
       </c>
       <c r="K8" t="n">
         <v>324.1454125711647</v>
@@ -8473,7 +8473,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
-        <v>212.3149906599048</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8546,13 +8546,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783523</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747166</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8935,7 +8935,7 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>51.31264782909034</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -8947,7 +8947,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>51.31264782908892</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -9178,7 +9178,7 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>51.31264782908966</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -9187,7 +9187,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>51.312647829089</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>51.312647829089</v>
+        <v>51.31264782908991</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9643,7 +9643,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>51.31264782909136</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>51.312647829089</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9883,7 +9883,7 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>51.31264782909125</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -9895,7 +9895,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>51.31264782908983</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>51.31264782908991</v>
+        <v>51.312647829089</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>51.31264782908991</v>
+        <v>51.312647829089</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -11320,7 +11320,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>51.312647829089</v>
+        <v>51.31264782908991</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23266,7 +23266,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>1.080024958355352e-12</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23421,7 +23421,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23430,10 +23430,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5420528771669</v>
+        <v>50.47721991512775</v>
       </c>
       <c r="H13" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>81.80457674440902</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>61.86693864009501</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23655,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>162.2163832569809</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>76.00797063971555</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.80457674440902</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23706,7 +23706,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23895,7 +23895,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23907,7 +23907,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>81.80457674440902</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>67.18075159108355</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23946,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>76.00797063971547</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>16.98870227489022</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>86.80797073962171</v>
       </c>
       <c r="H22" t="n">
-        <v>76.00797063971555</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.80457674440902</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24192,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24363,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>43.28495529946895</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24381,7 +24381,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>8.827219048631832</v>
       </c>
       <c r="I25" t="n">
         <v>81.80457674440902</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S25" t="n">
-        <v>181.338488358459</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24603,22 +24603,22 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>62.3436807902775</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>76.00797063971557</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I28" t="n">
         <v>81.80457674440902</v>
@@ -24843,16 +24843,16 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>143.3016600672238</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>140.4539897919539</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>67.18075159108355</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>80.97502887069294</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25077,25 +25077,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>43.23559055967969</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5420528771669</v>
+        <v>157.8125473841245</v>
       </c>
       <c r="H34" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.80457674440902</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>61.86693864009519</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25320,13 +25320,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>13.79427727960913</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>140.4539897919539</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25551,22 +25551,22 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>79.6851887887015</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>135.986774308428</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>67.18075159108355</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25797,7 +25797,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>84.64894205496095</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>67.18075159108355</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>90.63179579304079</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>32.61957643917738</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>84.16945386597401</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.80457674440902</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>831834.4444858688</v>
+        <v>831834.4444858689</v>
       </c>
     </row>
     <row r="6">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>831834.444485869</v>
+        <v>831834.4444858689</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>831834.4444858689</v>
+        <v>831834.4444858688</v>
       </c>
     </row>
     <row r="12">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>831834.4444858689</v>
+        <v>831834.444485869</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>595255.2831516048</v>
+      </c>
+      <c r="C2" t="n">
         <v>595255.2831516049</v>
       </c>
-      <c r="C2" t="n">
-        <v>595255.2831516046</v>
-      </c>
       <c r="D2" t="n">
-        <v>595255.2831516053</v>
+        <v>595255.2831516052</v>
       </c>
       <c r="E2" t="n">
-        <v>584845.1584109551</v>
+        <v>584845.1584109552</v>
       </c>
       <c r="F2" t="n">
         <v>584845.1584109552</v>
       </c>
       <c r="G2" t="n">
+        <v>584845.1584109552</v>
+      </c>
+      <c r="H2" t="n">
+        <v>584845.158410955</v>
+      </c>
+      <c r="I2" t="n">
+        <v>584845.1584109556</v>
+      </c>
+      <c r="J2" t="n">
         <v>584845.1584109551</v>
       </c>
-      <c r="H2" t="n">
+      <c r="K2" t="n">
         <v>584845.1584109553</v>
       </c>
-      <c r="I2" t="n">
-        <v>584845.1584109551</v>
-      </c>
-      <c r="J2" t="n">
-        <v>584845.1584109555</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>584845.158410955</v>
-      </c>
-      <c r="L2" t="n">
-        <v>584845.1584109552</v>
       </c>
       <c r="M2" t="n">
         <v>584845.1584109552</v>
       </c>
       <c r="N2" t="n">
-        <v>584845.1584109552</v>
+        <v>584845.1584109551</v>
       </c>
       <c r="O2" t="n">
-        <v>584845.1584109552</v>
+        <v>584845.158410955</v>
       </c>
       <c r="P2" t="n">
-        <v>584845.1584109551</v>
+        <v>584845.158410955</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>936509.6654545122</v>
+        <v>936509.6654545125</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>124307.2113901371</v>
+        <v>124307.2113901372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,40 +26426,40 @@
         <v>201064.5059277315</v>
       </c>
       <c r="E4" t="n">
+        <v>5781.971894855088</v>
+      </c>
+      <c r="F4" t="n">
+        <v>5781.971894855107</v>
+      </c>
+      <c r="G4" t="n">
         <v>5781.971894855089</v>
       </c>
-      <c r="F4" t="n">
-        <v>5781.971894855087</v>
-      </c>
-      <c r="G4" t="n">
-        <v>5781.971894855098</v>
-      </c>
       <c r="H4" t="n">
-        <v>5781.971894855088</v>
+        <v>5781.971894855101</v>
       </c>
       <c r="I4" t="n">
+        <v>5781.971894855122</v>
+      </c>
+      <c r="J4" t="n">
+        <v>5781.9718948551</v>
+      </c>
+      <c r="K4" t="n">
         <v>5781.971894855089</v>
       </c>
-      <c r="J4" t="n">
-        <v>5781.97189485512</v>
-      </c>
-      <c r="K4" t="n">
-        <v>5781.971894855101</v>
-      </c>
       <c r="L4" t="n">
-        <v>5781.971894855102</v>
+        <v>5781.971894855089</v>
       </c>
       <c r="M4" t="n">
         <v>5781.971894855089</v>
       </c>
       <c r="N4" t="n">
-        <v>5781.971894855089</v>
+        <v>5781.971894855133</v>
       </c>
       <c r="O4" t="n">
-        <v>5781.971894855089</v>
+        <v>5781.971894855134</v>
       </c>
       <c r="P4" t="n">
-        <v>5781.971894855089</v>
+        <v>5781.971894855101</v>
       </c>
     </row>
     <row r="5">
@@ -26487,19 +26487,19 @@
         <v>100930.0394572385</v>
       </c>
       <c r="H5" t="n">
-        <v>100930.0394572385</v>
+        <v>100930.0394572386</v>
       </c>
       <c r="I5" t="n">
-        <v>100930.0394572385</v>
+        <v>100930.0394572386</v>
       </c>
       <c r="J5" t="n">
         <v>100930.0394572386</v>
       </c>
       <c r="K5" t="n">
-        <v>100930.0394572386</v>
+        <v>100930.0394572385</v>
       </c>
       <c r="L5" t="n">
-        <v>100930.0394572386</v>
+        <v>100930.0394572385</v>
       </c>
       <c r="M5" t="n">
         <v>100930.0394572385</v>
@@ -26511,7 +26511,7 @@
         <v>100930.0394572385</v>
       </c>
       <c r="P5" t="n">
-        <v>100930.0394572385</v>
+        <v>100930.0394572386</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-278636.1800540805</v>
+        <v>-278636.1800540806</v>
       </c>
       <c r="C6" t="n">
-        <v>311331.6991604636</v>
+        <v>311331.699160464</v>
       </c>
       <c r="D6" t="n">
-        <v>311331.6991604643</v>
+        <v>311331.6991604642</v>
       </c>
       <c r="E6" t="n">
-        <v>-458735.4882142939</v>
+        <v>-458412.4153775152</v>
       </c>
       <c r="F6" t="n">
-        <v>477774.1772402184</v>
+        <v>478097.2500769973</v>
       </c>
       <c r="G6" t="n">
-        <v>477774.1772402183</v>
+        <v>478097.2500769973</v>
       </c>
       <c r="H6" t="n">
-        <v>477774.1772402186</v>
+        <v>478097.250076997</v>
       </c>
       <c r="I6" t="n">
-        <v>477774.1772402183</v>
+        <v>478097.2500769976</v>
       </c>
       <c r="J6" t="n">
-        <v>301350.9580476256</v>
+        <v>301674.0308844041</v>
       </c>
       <c r="K6" t="n">
-        <v>477774.1772402182</v>
+        <v>478097.2500769974</v>
       </c>
       <c r="L6" t="n">
-        <v>477774.1772402184</v>
+        <v>478097.250076997</v>
       </c>
       <c r="M6" t="n">
-        <v>353466.9658500814</v>
+        <v>353790.0386868601</v>
       </c>
       <c r="N6" t="n">
-        <v>477774.1772402184</v>
+        <v>478097.2500769972</v>
       </c>
       <c r="O6" t="n">
-        <v>477774.1772402184</v>
+        <v>478097.250076997</v>
       </c>
       <c r="P6" t="n">
-        <v>477774.1772402183</v>
+        <v>478097.250076997</v>
       </c>
     </row>
   </sheetData>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>674.2872727545556</v>
+      </c>
+      <c r="C4" t="n">
         <v>674.2872727545555</v>
       </c>
-      <c r="C4" t="n">
-        <v>674.2872727545556</v>
-      </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
         <v>1173.104351895088</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>980.2973844992991</v>
+        <v>980.2973844992993</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>498.8170791405322</v>
+        <v>498.8170791405323</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.817079140532</v>
+        <v>498.8170791405323</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.8170791405322</v>
+        <v>498.8170791405323</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,10 +27381,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>288.7412138337945</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27393,7 +27393,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>70.43694860033645</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27426,10 +27426,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27551,13 +27551,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>23.16110264026145</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>190.4709048993123</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27627,16 +27627,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>384.5561768218181</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>229.1207635843842</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27776,28 +27776,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>107.5829646831825</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27833,10 +27833,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>94.15468145987359</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27867,13 +27867,13 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>393.7163208359958</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>25.30078374722754</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,10 +27900,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -27915,7 +27915,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28022,7 +28022,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28076,7 +28076,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>1.882105749397226</v>
+        <v>102.1031945837915</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28089,7 +28089,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28304,7 +28304,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>-2.631863191373152e-12</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -30240,7 +30240,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>9.663381206337363e-13</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30474,7 +30474,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>1.023181539494544e-12</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -31278,13 +31278,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31302,22 +31302,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31390,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,13 +31460,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31475,7 +31475,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31515,13 +31515,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31539,22 +31539,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31627,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,13 +31697,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31712,7 +31712,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31843,25 +31843,25 @@
         <v>275.9770021735818</v>
       </c>
       <c r="K12" t="n">
-        <v>471.6886536848224</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
         <v>634.2436048745725</v>
       </c>
       <c r="M12" t="n">
-        <v>439.1579551075595</v>
+        <v>740.1323715504302</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>759.7214730927639</v>
       </c>
       <c r="O12" t="n">
         <v>694.9967242426205</v>
       </c>
       <c r="P12" t="n">
-        <v>557.7961431982454</v>
+        <v>195.1793561990816</v>
       </c>
       <c r="Q12" t="n">
-        <v>372.8719498286953</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -32080,22 +32080,22 @@
         <v>275.9770021735818</v>
       </c>
       <c r="K15" t="n">
-        <v>373.2229896036071</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L15" t="n">
         <v>634.2436048745725</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>740.1323715504302</v>
       </c>
       <c r="N15" t="n">
         <v>759.7214730927639</v>
       </c>
       <c r="O15" t="n">
-        <v>694.9967242426205</v>
+        <v>422.3544583169084</v>
       </c>
       <c r="P15" t="n">
-        <v>557.7961431982454</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32320,19 +32320,19 @@
         <v>471.6886536848224</v>
       </c>
       <c r="L18" t="n">
-        <v>535.7779407933572</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>740.1323715504302</v>
       </c>
       <c r="N18" t="n">
         <v>759.7214730927639</v>
       </c>
       <c r="O18" t="n">
-        <v>694.9967242426205</v>
+        <v>422.3544583169084</v>
       </c>
       <c r="P18" t="n">
-        <v>557.7961431982454</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32557,10 +32557,10 @@
         <v>471.6886536848224</v>
       </c>
       <c r="L21" t="n">
-        <v>535.7779407933572</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>306.4674191928273</v>
       </c>
       <c r="N21" t="n">
         <v>759.7214730927639</v>
@@ -32572,7 +32572,7 @@
         <v>557.7961431982454</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286953</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32794,22 +32794,22 @@
         <v>471.6886536848224</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M24" t="n">
-        <v>740.1323715504302</v>
+        <v>439.1579551075595</v>
       </c>
       <c r="N24" t="n">
-        <v>759.7214730927639</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>694.9967242426205</v>
       </c>
       <c r="P24" t="n">
-        <v>357.0213665833166</v>
+        <v>557.7961431982454</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286953</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33037,13 +33037,13 @@
         <v>740.1323715504302</v>
       </c>
       <c r="N27" t="n">
-        <v>615.6579511813127</v>
+        <v>759.7214730927639</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>422.3544583169084</v>
       </c>
       <c r="P27" t="n">
-        <v>557.7961431982454</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33274,10 +33274,10 @@
         <v>740.1323715504302</v>
       </c>
       <c r="N30" t="n">
-        <v>487.0792071670518</v>
+        <v>759.7214730927639</v>
       </c>
       <c r="O30" t="n">
-        <v>694.9967242426205</v>
+        <v>422.3544583169084</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33502,25 +33502,25 @@
         <v>275.9770021735818</v>
       </c>
       <c r="K33" t="n">
-        <v>471.6886536848224</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>634.2436048745725</v>
+        <v>462.5583779166499</v>
       </c>
       <c r="M33" t="n">
         <v>740.1323715504302</v>
       </c>
       <c r="N33" t="n">
-        <v>615.6579511813127</v>
+        <v>759.7214730927639</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>694.9967242426205</v>
       </c>
       <c r="P33" t="n">
-        <v>557.7961431982454</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286953</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33739,25 +33739,25 @@
         <v>275.9770021735818</v>
       </c>
       <c r="K36" t="n">
-        <v>471.6886536848224</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>634.2436048745725</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>740.1323715504302</v>
+        <v>640.3146339032908</v>
       </c>
       <c r="N36" t="n">
-        <v>615.6579511813127</v>
+        <v>759.7214730927639</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>694.9967242426205</v>
       </c>
       <c r="P36" t="n">
         <v>557.7961431982454</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286953</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33985,16 +33985,16 @@
         <v>740.1323715504302</v>
       </c>
       <c r="N39" t="n">
-        <v>759.7214730927639</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>422.3544583169084</v>
+        <v>394.0223077997498</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>557.7961431982454</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286953</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34213,16 +34213,16 @@
         <v>275.9770021735818</v>
       </c>
       <c r="K42" t="n">
-        <v>471.6886536848224</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>634.2436048745725</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>439.1579551075595</v>
+        <v>640.3146339032908</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>759.7214730927639</v>
       </c>
       <c r="O42" t="n">
         <v>694.9967242426205</v>
@@ -34450,7 +34450,7 @@
         <v>275.9770021735818</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L45" t="n">
         <v>634.2436048745725</v>
@@ -34462,10 +34462,10 @@
         <v>759.7214730927639</v>
       </c>
       <c r="O45" t="n">
-        <v>694.9967242426205</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>195.1793561990816</v>
+        <v>413.7326212867942</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34798,7 +34798,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535575</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34950,10 +34950,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35023,19 +35023,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>410.0055067279167</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,7 +35172,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181304</v>
       </c>
       <c r="K8" t="n">
         <v>297.2230414343419</v>
@@ -35187,13 +35187,13 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35266,13 +35266,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262125</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35491,25 +35491,25 @@
         <v>149.1393755069151</v>
       </c>
       <c r="K12" t="n">
-        <v>333.8472147104634</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>495.6892250946983</v>
       </c>
       <c r="M12" t="n">
-        <v>297.0239211855412</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>628.3797610094306</v>
       </c>
       <c r="O12" t="n">
         <v>552.4004797981761</v>
       </c>
       <c r="P12" t="n">
-        <v>423.8217357839152</v>
+        <v>61.20494878475137</v>
       </c>
       <c r="Q12" t="n">
-        <v>232.8901757426738</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35655,7 +35655,7 @@
         <v>625.7775560664393</v>
       </c>
       <c r="M14" t="n">
-        <v>728.2874363020583</v>
+        <v>779.6000841311486</v>
       </c>
       <c r="N14" t="n">
         <v>744.73230092637</v>
@@ -35667,7 +35667,7 @@
         <v>553.844392613483</v>
       </c>
       <c r="Q14" t="n">
-        <v>418.5673812695001</v>
+        <v>367.2547334404112</v>
       </c>
       <c r="R14" t="n">
         <v>127.3573607845842</v>
@@ -35728,22 +35728,22 @@
         <v>149.1393755069151</v>
       </c>
       <c r="K15" t="n">
-        <v>235.3815506292481</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L15" t="n">
         <v>495.6892250946983</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N15" t="n">
         <v>628.3797610094306</v>
       </c>
       <c r="O15" t="n">
-        <v>552.4004797981761</v>
+        <v>279.758213872464</v>
       </c>
       <c r="P15" t="n">
-        <v>423.8217357839152</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35898,7 +35898,7 @@
         <v>744.73230092637</v>
       </c>
       <c r="O17" t="n">
-        <v>741.0722806160982</v>
+        <v>689.7596327870085</v>
       </c>
       <c r="P17" t="n">
         <v>553.844392613483</v>
@@ -35907,7 +35907,7 @@
         <v>367.2547334404112</v>
       </c>
       <c r="R17" t="n">
-        <v>127.3573607845842</v>
+        <v>178.6700086136732</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35968,19 +35968,19 @@
         <v>333.8472147104634</v>
       </c>
       <c r="L18" t="n">
-        <v>397.223561013483</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N18" t="n">
         <v>628.3797610094306</v>
       </c>
       <c r="O18" t="n">
-        <v>552.4004797981761</v>
+        <v>279.758213872464</v>
       </c>
       <c r="P18" t="n">
-        <v>423.8217357839152</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36144,7 +36144,7 @@
         <v>367.2547334404112</v>
       </c>
       <c r="R20" t="n">
-        <v>178.6700086136732</v>
+        <v>178.6700086136741</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36205,10 +36205,10 @@
         <v>333.8472147104634</v>
       </c>
       <c r="L21" t="n">
-        <v>397.223561013483</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>164.333385270809</v>
       </c>
       <c r="N21" t="n">
         <v>628.3797610094306</v>
@@ -36220,7 +36220,7 @@
         <v>423.8217357839152</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>232.8901757426738</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36363,7 +36363,7 @@
         <v>474.3741250380626</v>
       </c>
       <c r="L23" t="n">
-        <v>625.7775560664393</v>
+        <v>677.0902038955306</v>
       </c>
       <c r="M23" t="n">
         <v>728.2874363020583</v>
@@ -36381,7 +36381,7 @@
         <v>367.2547334404112</v>
       </c>
       <c r="R23" t="n">
-        <v>178.6700086136732</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36442,22 +36442,22 @@
         <v>333.8472147104634</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M24" t="n">
-        <v>597.9983376284119</v>
+        <v>297.0239211855412</v>
       </c>
       <c r="N24" t="n">
-        <v>628.3797610094306</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>552.4004797981761</v>
       </c>
       <c r="P24" t="n">
-        <v>223.0469591689864</v>
+        <v>423.8217357839152</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>232.8901757426738</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36603,7 +36603,7 @@
         <v>625.7775560664393</v>
       </c>
       <c r="M26" t="n">
-        <v>779.6000841311495</v>
+        <v>728.2874363020583</v>
       </c>
       <c r="N26" t="n">
         <v>744.73230092637</v>
@@ -36615,7 +36615,7 @@
         <v>553.844392613483</v>
       </c>
       <c r="Q26" t="n">
-        <v>367.2547334404112</v>
+        <v>418.567381269501</v>
       </c>
       <c r="R26" t="n">
         <v>127.3573607845842</v>
@@ -36685,13 +36685,13 @@
         <v>597.9983376284119</v>
       </c>
       <c r="N27" t="n">
-        <v>484.3162390979793</v>
+        <v>628.3797610094306</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>279.758213872464</v>
       </c>
       <c r="P27" t="n">
-        <v>423.8217357839152</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36855,7 +36855,7 @@
         <v>367.2547334404112</v>
       </c>
       <c r="R29" t="n">
-        <v>178.6700086136741</v>
+        <v>178.6700086136732</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36922,10 +36922,10 @@
         <v>597.9983376284119</v>
       </c>
       <c r="N30" t="n">
-        <v>355.7374950837184</v>
+        <v>628.3797610094306</v>
       </c>
       <c r="O30" t="n">
-        <v>552.4004797981761</v>
+        <v>279.758213872464</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37092,7 +37092,7 @@
         <v>367.2547334404112</v>
       </c>
       <c r="R32" t="n">
-        <v>178.6700086136741</v>
+        <v>178.6700086136732</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37150,25 +37150,25 @@
         <v>149.1393755069151</v>
       </c>
       <c r="K33" t="n">
-        <v>333.8472147104634</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>495.6892250946983</v>
+        <v>324.0039981367757</v>
       </c>
       <c r="M33" t="n">
         <v>597.9983376284119</v>
       </c>
       <c r="N33" t="n">
-        <v>484.3162390979793</v>
+        <v>628.3797610094306</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>552.4004797981761</v>
       </c>
       <c r="P33" t="n">
-        <v>423.8217357839152</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>232.8901757426738</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37387,25 +37387,25 @@
         <v>149.1393755069151</v>
       </c>
       <c r="K36" t="n">
-        <v>333.8472147104634</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>495.6892250946983</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>597.9983376284119</v>
+        <v>498.1805999812725</v>
       </c>
       <c r="N36" t="n">
-        <v>484.3162390979793</v>
+        <v>628.3797610094306</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>552.4004797981761</v>
       </c>
       <c r="P36" t="n">
         <v>423.8217357839152</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>232.8901757426738</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37633,16 +37633,16 @@
         <v>597.9983376284119</v>
       </c>
       <c r="N39" t="n">
-        <v>628.3797610094306</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>279.758213872464</v>
+        <v>251.4260633553054</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>423.8217357839152</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>232.8901757426738</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37861,16 +37861,16 @@
         <v>149.1393755069151</v>
       </c>
       <c r="K42" t="n">
-        <v>333.8472147104634</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>495.6892250946983</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>297.0239211855412</v>
+        <v>498.1805999812725</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>628.3797610094306</v>
       </c>
       <c r="O42" t="n">
         <v>552.4004797981761</v>
@@ -38040,7 +38040,7 @@
         <v>367.2547334404112</v>
       </c>
       <c r="R44" t="n">
-        <v>178.6700086136732</v>
+        <v>178.6700086136741</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,7 +38098,7 @@
         <v>149.1393755069151</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L45" t="n">
         <v>495.6892250946983</v>
@@ -38110,10 +38110,10 @@
         <v>628.3797610094306</v>
       </c>
       <c r="O45" t="n">
-        <v>552.4004797981761</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>61.20494878475137</v>
+        <v>279.758213872464</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
